--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_0_19.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_0_19.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1007570.540494652</v>
+        <v>1035306.035526877</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>713587.768411118</v>
+        <v>517868.1328994384</v>
       </c>
     </row>
     <row r="8">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>202.2946864288972</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -671,7 +671,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -701,7 +701,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -716,16 +716,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="W2" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="X2" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -747,13 +747,13 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -783,25 +783,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>93.9830938283648</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>82.69355372315663</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -835,13 +835,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>14.83685490770591</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -859,10 +859,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>44.30348359856715</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -896,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -908,58 +908,58 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>88.93311775391584</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="I5" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J5" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R5" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>223.0958495641314</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -996,7 +996,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
@@ -1032,16 +1032,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>30.9518491405796</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>104.7383832473596</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1078,7 +1078,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>22.0339917726843</v>
+        <v>44.30348359856715</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1136,25 +1136,25 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>40.47627913313517</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="H8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1190,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1209,13 +1209,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -1266,19 +1266,19 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>37.18582309281555</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>29.79900896488263</v>
       </c>
     </row>
     <row r="10">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>129.0632770397856</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1415,7 +1415,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -1433,10 +1433,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>102.1810168719384</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1449,22 +1449,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I12" t="n">
         <v>78.54202280713804</v>
@@ -1494,28 +1494,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S12" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>68.854243360469</v>
+        <v>174.0833871240477</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>96.06064116356407</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1543,13 +1543,13 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>39.2952677809261</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>147.5019580580808</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>74.67247646141476</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>64.0297007843443</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>165.4090611368575</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1613,19 +1613,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="G14" t="n">
-        <v>273.1385125388354</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="H14" t="n">
         <v>333.4403157157206</v>
       </c>
       <c r="I14" t="n">
-        <v>187.7594695105699</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1652,16 +1652,16 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>112.8556863456974</v>
+        <v>47.74806282379132</v>
       </c>
       <c r="S14" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1683,7 +1683,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>172.7084989883157</v>
@@ -1731,28 +1731,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>48.98427584501901</v>
+        <v>147.7617561365516</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1813,7 +1813,7 @@
         <v>165.4090611368575</v>
       </c>
       <c r="S16" t="n">
-        <v>96.06064116356407</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1828,7 +1828,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>96.06064116356406</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1841,13 +1841,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>92.70985790985557</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1859,10 +1859,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>112.8556863456974</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>196.6847683057689</v>
       </c>
     </row>
     <row r="18">
@@ -1920,7 +1920,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -1941,7 +1941,7 @@
         <v>109.1906224126114</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S18" t="n">
         <v>165.8272126914158</v>
@@ -1986,10 +1986,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>184.5008823942709</v>
+        <v>64.61507664246693</v>
       </c>
     </row>
     <row r="19">
@@ -2044,7 +2044,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>64.0297007843443</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -2053,13 +2053,13 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>226.8162656893113</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>98.68313739545468</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2068,7 +2068,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>9.332058976593611</v>
       </c>
     </row>
     <row r="20">
@@ -2084,22 +2084,22 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>405.7415719969023</v>
+        <v>315.9852240951245</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2132,10 +2132,10 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>152.8975946358652</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2157,13 +2157,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -2175,10 +2175,10 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,10 +2205,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>165.8272126914158</v>
+        <v>27.84893334921699</v>
       </c>
       <c r="T21" t="n">
         <v>198.8939788055617</v>
@@ -2220,10 +2220,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>189.1693868332203</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -2239,7 +2239,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>99.78974769572875</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2281,7 +2281,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>64.0297007843443</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -2293,7 +2293,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>261.4697023004216</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2302,7 +2302,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>381.1883785395118</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2324,16 +2324,16 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="G23" t="n">
         <v>405.7415719969023</v>
       </c>
       <c r="H23" t="n">
-        <v>60.84446729808859</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2363,19 +2363,19 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2397,7 +2397,7 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -2406,16 +2406,16 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>137.0282495084215</v>
+        <v>40.39942132029048</v>
       </c>
       <c r="H24" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2457,10 +2457,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>200.7457815514486</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2479,13 +2479,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>39.19479062707041</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>106.0890042129125</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2524,13 +2524,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>219.4103988718534</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.3046124576955</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2561,10 +2561,10 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>241.9189633854832</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="G26" t="n">
         <v>405.7415719969023</v>
@@ -2573,7 +2573,7 @@
         <v>333.4403157157206</v>
       </c>
       <c r="I26" t="n">
-        <v>70.069641917856</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,10 +2603,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -2615,7 +2615,7 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -2679,19 +2679,19 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>34.31881265622904</v>
       </c>
       <c r="S27" t="n">
-        <v>41.19875901775777</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
         <v>251.6949831609196</v>
@@ -2716,7 +2716,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>106.9147497326711</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>73.36175976093789</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2770,7 +2770,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2779,7 +2779,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2801,7 +2801,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -2837,7 +2837,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>62.66644856093195</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -2855,7 +2855,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>85.67417889435359</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2871,25 +2871,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>20.96215394253667</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2922,7 +2922,7 @@
         <v>165.8272126914158</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>140.9816622171032</v>
       </c>
       <c r="U30" t="n">
         <v>225.9206407878966</v>
@@ -2931,10 +2931,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -2998,10 +2998,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>219.4103988718534</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>106.0890042129125</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3010,13 +3010,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>38.9764047481749</v>
       </c>
     </row>
     <row r="32">
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>265.7301653101235</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3092,7 +3092,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>89.98174747814556</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3111,10 +3111,10 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>7.42522453130207</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3168,10 +3168,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>81.26102406852117</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
         <v>205.6826957773044</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>38.9764047481749</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3205,10 +3205,10 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>31.41652775149777</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>74.67247646141476</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -3235,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>219.4103988718534</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -3247,7 +3247,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>276.5790505024928</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -3275,7 +3275,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>56.06257007945297</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -3317,7 +3317,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>251.2985142370684</v>
@@ -3342,28 +3342,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>7.425224531301852</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>69.22316630919089</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3393,16 +3393,16 @@
         <v>80.58358449827551</v>
       </c>
       <c r="S36" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>225.9206407878966</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>251.6949831609196</v>
@@ -3475,19 +3475,19 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>39.19479062707042</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.3046124576955</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>99.78974769572875</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3500,19 +3500,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -3548,7 +3548,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>35.41912010935327</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -3566,7 +3566,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>85.67417889435359</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3579,10 +3579,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -3591,10 +3591,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>119.4251777943755</v>
+        <v>62.02099049920463</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H39" t="n">
         <v>109.1906224126114</v>
@@ -3630,16 +3630,16 @@
         <v>80.58358449827551</v>
       </c>
       <c r="S39" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>198.8939788055617</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
@@ -3648,7 +3648,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -3664,13 +3664,13 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>33.64439241526546</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>165.4090611368575</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>160.0903419479084</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -3746,13 +3746,13 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>43.44049423999956</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>405.7415719969023</v>
+        <v>312.8698354652412</v>
       </c>
       <c r="H41" t="n">
         <v>333.4403157157206</v>
@@ -3794,19 +3794,19 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3816,7 +3816,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>88.00880902957773</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -3825,19 +3825,19 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>35.55614690067927</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S42" t="n">
         <v>165.8272126914158</v>
@@ -3873,16 +3873,16 @@
         <v>198.8939788055617</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>205.6826957773044</v>
@@ -3904,13 +3904,13 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>106.0890042129125</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>160.0903419479084</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>165.4090611368575</v>
       </c>
       <c r="S43" t="n">
-        <v>219.4103988718534</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>86.47765048557241</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4031,7 +4031,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>134.0135929272252</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4040,10 +4040,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4068,13 +4068,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03765707760557518</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H45" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4107,7 +4107,7 @@
         <v>165.8272126914158</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>4.729765405318485</v>
       </c>
       <c r="U45" t="n">
         <v>225.9206407878966</v>
@@ -4116,13 +4116,13 @@
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4138,10 +4138,10 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4192,10 +4192,10 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>38.97640474817464</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>30.44996741998411</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>223.6192102101089</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C2" t="n">
-        <v>223.6192102101089</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D2" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="E2" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="F2" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="G2" t="n">
         <v>19.28114311021272</v>
@@ -4349,31 +4349,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V2" t="n">
-        <v>710.516763498309</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W2" t="n">
-        <v>467.067986854209</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X2" t="n">
-        <v>223.6192102101089</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y2" t="n">
-        <v>223.6192102101089</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4383,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>19.28114311021272</v>
+        <v>417.9156620931329</v>
       </c>
       <c r="C3" t="n">
-        <v>19.28114311021272</v>
+        <v>417.9156620931329</v>
       </c>
       <c r="D3" t="n">
-        <v>19.28114311021272</v>
+        <v>417.9156620931329</v>
       </c>
       <c r="E3" t="n">
-        <v>19.28114311021272</v>
+        <v>417.9156620931329</v>
       </c>
       <c r="F3" t="n">
-        <v>19.28114311021272</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="G3" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H3" t="n">
         <v>19.28114311021272</v>
@@ -4413,16 +4413,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>374.6018090363993</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M3" t="n">
-        <v>613.2059550252818</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N3" t="n">
-        <v>851.8101010141643</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O3" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P3" t="n">
         <v>894.6625969973069</v>
@@ -4431,28 +4431,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>964.0571555106362</v>
+        <v>869.1247375021869</v>
       </c>
       <c r="S3" t="n">
-        <v>964.0571555106362</v>
+        <v>869.1247375021869</v>
       </c>
       <c r="T3" t="n">
-        <v>761.8705608694022</v>
+        <v>869.1247375021869</v>
       </c>
       <c r="U3" t="n">
-        <v>761.8705608694022</v>
+        <v>869.1247375021869</v>
       </c>
       <c r="V3" t="n">
-        <v>678.3417187247995</v>
+        <v>869.1247375021869</v>
       </c>
       <c r="W3" t="n">
-        <v>434.8929420806995</v>
+        <v>625.6759608580869</v>
       </c>
       <c r="X3" t="n">
-        <v>227.0414418751666</v>
+        <v>625.6759608580869</v>
       </c>
       <c r="Y3" t="n">
-        <v>19.28114311021272</v>
+        <v>417.9156620931329</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I4" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K4" t="n">
         <v>19.28114311021272</v>
@@ -4507,31 +4507,31 @@
         <v>151.0645035650224</v>
       </c>
       <c r="Q4" t="n">
-        <v>151.0645035650224</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>577.2332497330343</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="C5" t="n">
-        <v>577.2332497330343</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D5" t="n">
-        <v>577.2332497330343</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E5" t="n">
-        <v>577.2332497330343</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F5" t="n">
-        <v>577.2332497330343</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G5" t="n">
-        <v>487.4018176583718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H5" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4586,31 +4586,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R5" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S5" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T5" t="n">
-        <v>577.2332497330343</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U5" t="n">
-        <v>577.2332497330343</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V5" t="n">
-        <v>577.2332497330343</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="W5" t="n">
-        <v>577.2332497330343</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="X5" t="n">
-        <v>577.2332497330343</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="Y5" t="n">
-        <v>577.2332497330343</v>
+        <v>233.7108255783361</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4620,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
@@ -4650,13 +4650,13 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>304.2053859195205</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>304.2053859195205</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N6" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O6" t="n">
         <v>781.4136778972854</v>
@@ -4668,28 +4668,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T6" t="n">
-        <v>487.2836868729568</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U6" t="n">
-        <v>259.0600686093459</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V6" t="n">
-        <v>227.7955745279523</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="W6" t="n">
-        <v>227.7955745279523</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X6" t="n">
-        <v>227.7955745279523</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4747,28 +4747,28 @@
         <v>64.03213664411894</v>
       </c>
       <c r="R7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>559.1338160830064</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C8" t="n">
-        <v>559.1338160830064</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D8" t="n">
-        <v>559.1338160830064</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E8" t="n">
-        <v>559.1338160830064</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F8" t="n">
-        <v>518.2486856454962</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G8" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H8" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I8" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4826,28 +4826,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S8" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T8" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U8" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V8" t="n">
-        <v>802.5825927271064</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W8" t="n">
-        <v>802.5825927271064</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X8" t="n">
-        <v>802.5825927271064</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y8" t="n">
-        <v>559.1338160830064</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="9">
@@ -4857,10 +4857,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>342.668582052591</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C9" t="n">
-        <v>168.215552771464</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D9" t="n">
         <v>19.28114311021272</v>
@@ -4887,10 +4887,10 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>304.2053859195205</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>304.2053859195205</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N9" t="n">
         <v>542.809531908403</v>
@@ -4914,19 +4914,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U9" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V9" t="n">
-        <v>964.0571555106362</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W9" t="n">
-        <v>926.4957180431458</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X9" t="n">
-        <v>718.6442178376129</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y9" t="n">
-        <v>510.883919072659</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="10">
@@ -5015,40 +5015,40 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>759.6875413069145</v>
+        <v>1378.603698709343</v>
       </c>
       <c r="C11" t="n">
-        <v>390.7250243665027</v>
+        <v>1378.603698709343</v>
       </c>
       <c r="D11" t="n">
-        <v>32.45932575975219</v>
+        <v>1378.603698709343</v>
       </c>
       <c r="E11" t="n">
-        <v>32.45932575975219</v>
+        <v>1378.603698709343</v>
       </c>
       <c r="F11" t="n">
-        <v>32.45932575975219</v>
+        <v>968.7637269953004</v>
       </c>
       <c r="G11" t="n">
-        <v>32.45932575975219</v>
+        <v>558.9237552812577</v>
       </c>
       <c r="H11" t="n">
-        <v>32.45932575975219</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="I11" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J11" t="n">
-        <v>70.13987180521508</v>
+        <v>70.13987180521505</v>
       </c>
       <c r="K11" t="n">
         <v>247.3580469011318</v>
       </c>
       <c r="L11" t="n">
-        <v>519.4894913528326</v>
+        <v>519.4894913528324</v>
       </c>
       <c r="M11" t="n">
-        <v>838.8947028941457</v>
+        <v>838.8947028941454</v>
       </c>
       <c r="N11" t="n">
         <v>1148.836227140252</v>
@@ -5063,28 +5063,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R11" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="S11" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="T11" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="U11" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="V11" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="W11" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="X11" t="n">
-        <v>1249.50052972653</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="Y11" t="n">
-        <v>1146.287381371036</v>
+        <v>1508.970645214177</v>
       </c>
     </row>
     <row r="12">
@@ -5094,46 +5094,46 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>111.7947023326189</v>
+        <v>989.6600854869342</v>
       </c>
       <c r="C12" t="n">
-        <v>111.7947023326189</v>
+        <v>815.2070562058072</v>
       </c>
       <c r="D12" t="n">
-        <v>111.7947023326189</v>
+        <v>666.272646544556</v>
       </c>
       <c r="E12" t="n">
-        <v>111.7947023326189</v>
+        <v>507.0351915391004</v>
       </c>
       <c r="F12" t="n">
-        <v>111.7947023326189</v>
+        <v>360.5006335659854</v>
       </c>
       <c r="G12" t="n">
-        <v>111.7947023326189</v>
+        <v>222.0882603251556</v>
       </c>
       <c r="H12" t="n">
         <v>111.7947023326189</v>
       </c>
       <c r="I12" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J12" t="n">
-        <v>32.45932575975219</v>
+        <v>61.20822116384403</v>
       </c>
       <c r="K12" t="n">
-        <v>208.2166101768439</v>
+        <v>236.9655055809357</v>
       </c>
       <c r="L12" t="n">
-        <v>256.6067387278474</v>
+        <v>534.6972605625989</v>
       </c>
       <c r="M12" t="n">
-        <v>656.0248753321104</v>
+        <v>934.1153971668618</v>
       </c>
       <c r="N12" t="n">
-        <v>1057.709031609044</v>
+        <v>1335.799553443795</v>
       </c>
       <c r="O12" t="n">
-        <v>1380.722538783602</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="P12" t="n">
         <v>1622.966287987609</v>
@@ -5142,28 +5142,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R12" t="n">
-        <v>1622.966287987609</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="S12" t="n">
-        <v>1455.464052945775</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="T12" t="n">
-        <v>1254.561044051268</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="U12" t="n">
-        <v>1185.011303283118</v>
+        <v>1365.726922712535</v>
       </c>
       <c r="V12" t="n">
-        <v>949.8591950513753</v>
+        <v>1365.726922712535</v>
       </c>
       <c r="W12" t="n">
-        <v>695.6218383231737</v>
+        <v>1365.726922712535</v>
       </c>
       <c r="X12" t="n">
-        <v>487.7703381176408</v>
+        <v>1157.875422507002</v>
       </c>
       <c r="Y12" t="n">
-        <v>280.0100393526869</v>
+        <v>1157.875422507002</v>
       </c>
     </row>
     <row r="13">
@@ -5173,34 +5173,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>296.5701361642185</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="C13" t="n">
-        <v>296.5701361642185</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D13" t="n">
-        <v>296.5701361642185</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E13" t="n">
-        <v>296.5701361642185</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F13" t="n">
-        <v>296.5701361642185</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G13" t="n">
-        <v>296.5701361642185</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H13" t="n">
-        <v>256.8779464865154</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I13" t="n">
-        <v>107.8860696601711</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J13" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K13" t="n">
-        <v>40.81344334191285</v>
+        <v>40.81344334191284</v>
       </c>
       <c r="L13" t="n">
         <v>107.0302722280248</v>
@@ -5221,28 +5221,28 @@
         <v>296.5701361642185</v>
       </c>
       <c r="R13" t="n">
-        <v>296.5701361642185</v>
+        <v>129.4902764300189</v>
       </c>
       <c r="S13" t="n">
-        <v>296.5701361642185</v>
+        <v>129.4902764300189</v>
       </c>
       <c r="T13" t="n">
-        <v>296.5701361642185</v>
+        <v>129.4902764300189</v>
       </c>
       <c r="U13" t="n">
-        <v>296.5701361642185</v>
+        <v>129.4902764300189</v>
       </c>
       <c r="V13" t="n">
-        <v>296.5701361642185</v>
+        <v>129.4902764300189</v>
       </c>
       <c r="W13" t="n">
-        <v>296.5701361642185</v>
+        <v>129.4902764300189</v>
       </c>
       <c r="X13" t="n">
-        <v>296.5701361642185</v>
+        <v>129.4902764300189</v>
       </c>
       <c r="Y13" t="n">
-        <v>296.5701361642185</v>
+        <v>129.4902764300189</v>
       </c>
     </row>
     <row r="14">
@@ -5252,46 +5252,46 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>834.8212426942227</v>
+        <v>1574.735921498931</v>
       </c>
       <c r="C14" t="n">
-        <v>834.8212426942227</v>
+        <v>1574.735921498931</v>
       </c>
       <c r="D14" t="n">
-        <v>834.8212426942227</v>
+        <v>1574.735921498931</v>
       </c>
       <c r="E14" t="n">
-        <v>834.8212426942227</v>
+        <v>1188.947668900687</v>
       </c>
       <c r="F14" t="n">
-        <v>834.8212426942227</v>
+        <v>779.1076971866441</v>
       </c>
       <c r="G14" t="n">
-        <v>558.9237552812577</v>
+        <v>369.2677254726013</v>
       </c>
       <c r="H14" t="n">
-        <v>222.1153555684087</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I14" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J14" t="n">
-        <v>70.13987180521505</v>
+        <v>70.13987180521497</v>
       </c>
       <c r="K14" t="n">
         <v>247.3580469011318</v>
       </c>
       <c r="L14" t="n">
-        <v>519.4894913528324</v>
+        <v>519.4894913528325</v>
       </c>
       <c r="M14" t="n">
-        <v>838.8947028941454</v>
+        <v>838.8947028941453</v>
       </c>
       <c r="N14" t="n">
         <v>1148.836227140252</v>
       </c>
       <c r="O14" t="n">
-        <v>1396.31758174832</v>
+        <v>1396.317581748321</v>
       </c>
       <c r="P14" t="n">
         <v>1569.862809315274</v>
@@ -5300,28 +5300,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R14" t="n">
-        <v>1508.970645214177</v>
+        <v>1574.735921498931</v>
       </c>
       <c r="S14" t="n">
-        <v>1311.402045381201</v>
+        <v>1574.735921498931</v>
       </c>
       <c r="T14" t="n">
-        <v>1088.658125761969</v>
+        <v>1574.735921498931</v>
       </c>
       <c r="U14" t="n">
-        <v>834.8212426942227</v>
+        <v>1574.735921498931</v>
       </c>
       <c r="V14" t="n">
-        <v>834.8212426942227</v>
+        <v>1574.735921498931</v>
       </c>
       <c r="W14" t="n">
-        <v>834.8212426942227</v>
+        <v>1574.735921498931</v>
       </c>
       <c r="X14" t="n">
-        <v>834.8212426942227</v>
+        <v>1574.735921498931</v>
       </c>
       <c r="Y14" t="n">
-        <v>834.8212426942227</v>
+        <v>1574.735921498931</v>
       </c>
     </row>
     <row r="15">
@@ -5352,55 +5352,55 @@
         <v>111.7947023326189</v>
       </c>
       <c r="I15" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J15" t="n">
-        <v>32.45932575975218</v>
+        <v>61.20822116384403</v>
       </c>
       <c r="K15" t="n">
-        <v>208.2166101768439</v>
+        <v>236.9655055809357</v>
       </c>
       <c r="L15" t="n">
-        <v>505.948365158507</v>
+        <v>534.6972605625989</v>
       </c>
       <c r="M15" t="n">
-        <v>905.36650176277</v>
+        <v>934.1153971668618</v>
       </c>
       <c r="N15" t="n">
-        <v>948.4732699082806</v>
+        <v>1278.63605280448</v>
       </c>
       <c r="O15" t="n">
-        <v>1271.486777082839</v>
+        <v>1601.649559979038</v>
       </c>
       <c r="P15" t="n">
-        <v>1513.730526286846</v>
+        <v>1601.649559979038</v>
       </c>
       <c r="Q15" t="n">
         <v>1622.966287987609</v>
       </c>
       <c r="R15" t="n">
-        <v>1622.966287987609</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="S15" t="n">
-        <v>1622.966287987609</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="T15" t="n">
-        <v>1622.966287987609</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="U15" t="n">
-        <v>1573.487221477489</v>
+        <v>1224.812193718677</v>
       </c>
       <c r="V15" t="n">
-        <v>1573.487221477489</v>
+        <v>989.6600854869342</v>
       </c>
       <c r="W15" t="n">
-        <v>1573.487221477489</v>
+        <v>989.6600854869342</v>
       </c>
       <c r="X15" t="n">
-        <v>1365.635721271956</v>
+        <v>989.6600854869342</v>
       </c>
       <c r="Y15" t="n">
-        <v>1157.875422507002</v>
+        <v>989.6600854869342</v>
       </c>
     </row>
     <row r="16">
@@ -5410,34 +5410,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="C16" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="D16" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E16" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F16" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G16" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H16" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I16" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J16" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K16" t="n">
-        <v>40.81344334191284</v>
+        <v>40.81344334191285</v>
       </c>
       <c r="L16" t="n">
         <v>107.0302722280248</v>
@@ -5461,25 +5461,25 @@
         <v>129.4902764300189</v>
       </c>
       <c r="S16" t="n">
-        <v>32.45932575975218</v>
+        <v>129.4902764300189</v>
       </c>
       <c r="T16" t="n">
-        <v>32.45932575975218</v>
+        <v>129.4902764300189</v>
       </c>
       <c r="U16" t="n">
-        <v>32.45932575975218</v>
+        <v>129.4902764300189</v>
       </c>
       <c r="V16" t="n">
-        <v>32.45932575975218</v>
+        <v>129.4902764300189</v>
       </c>
       <c r="W16" t="n">
-        <v>32.45932575975218</v>
+        <v>129.4902764300189</v>
       </c>
       <c r="X16" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="Y16" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
     </row>
     <row r="17">
@@ -5489,40 +5489,40 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>495.0681638212301</v>
+        <v>558.9237552812577</v>
       </c>
       <c r="C17" t="n">
-        <v>126.1056468808184</v>
+        <v>558.9237552812577</v>
       </c>
       <c r="D17" t="n">
-        <v>32.45932575975219</v>
+        <v>558.9237552812577</v>
       </c>
       <c r="E17" t="n">
-        <v>32.45932575975219</v>
+        <v>558.9237552812577</v>
       </c>
       <c r="F17" t="n">
-        <v>32.45932575975219</v>
+        <v>558.9237552812577</v>
       </c>
       <c r="G17" t="n">
-        <v>32.45932575975219</v>
+        <v>558.9237552812577</v>
       </c>
       <c r="H17" t="n">
-        <v>32.45932575975219</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="I17" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J17" t="n">
-        <v>70.13987180521508</v>
+        <v>70.13987180521505</v>
       </c>
       <c r="K17" t="n">
         <v>247.3580469011318</v>
       </c>
       <c r="L17" t="n">
-        <v>519.4894913528326</v>
+        <v>519.4894913528324</v>
       </c>
       <c r="M17" t="n">
-        <v>838.8947028941457</v>
+        <v>838.8947028941454</v>
       </c>
       <c r="N17" t="n">
         <v>1148.836227140252</v>
@@ -5537,28 +5537,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R17" t="n">
-        <v>1508.970645214178</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="S17" t="n">
-        <v>1508.970645214178</v>
+        <v>1311.402045381201</v>
       </c>
       <c r="T17" t="n">
-        <v>1508.970645214178</v>
+        <v>1088.658125761969</v>
       </c>
       <c r="U17" t="n">
-        <v>1255.133762146432</v>
+        <v>1088.658125761969</v>
       </c>
       <c r="V17" t="n">
-        <v>1255.133762146432</v>
+        <v>757.595238418398</v>
       </c>
       <c r="W17" t="n">
-        <v>1255.133762146432</v>
+        <v>757.595238418398</v>
       </c>
       <c r="X17" t="n">
-        <v>881.6680038853519</v>
+        <v>757.595238418398</v>
       </c>
       <c r="Y17" t="n">
-        <v>881.6680038853519</v>
+        <v>558.9237552812577</v>
       </c>
     </row>
     <row r="18">
@@ -5568,43 +5568,43 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>142.7528837522889</v>
+        <v>222.0882603251556</v>
       </c>
       <c r="C18" t="n">
-        <v>142.7528837522889</v>
+        <v>222.0882603251556</v>
       </c>
       <c r="D18" t="n">
-        <v>142.7528837522889</v>
+        <v>222.0882603251556</v>
       </c>
       <c r="E18" t="n">
-        <v>142.7528837522889</v>
+        <v>222.0882603251556</v>
       </c>
       <c r="F18" t="n">
-        <v>142.7528837522889</v>
+        <v>222.0882603251556</v>
       </c>
       <c r="G18" t="n">
-        <v>142.7528837522889</v>
+        <v>222.0882603251556</v>
       </c>
       <c r="H18" t="n">
-        <v>32.45932575975219</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="I18" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J18" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K18" t="n">
-        <v>32.45932575975219</v>
+        <v>208.2166101768439</v>
       </c>
       <c r="L18" t="n">
-        <v>330.1910807414154</v>
+        <v>505.948365158507</v>
       </c>
       <c r="M18" t="n">
-        <v>546.7891136313475</v>
+        <v>546.7891136313474</v>
       </c>
       <c r="N18" t="n">
-        <v>948.4732699082808</v>
+        <v>948.4732699082806</v>
       </c>
       <c r="O18" t="n">
         <v>1271.486777082839</v>
@@ -5616,28 +5616,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R18" t="n">
-        <v>1622.966287987609</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="S18" t="n">
-        <v>1455.464052945775</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="T18" t="n">
-        <v>1254.561044051268</v>
+        <v>1173.163483952</v>
       </c>
       <c r="U18" t="n">
-        <v>1026.358376588747</v>
+        <v>944.9608164894781</v>
       </c>
       <c r="V18" t="n">
-        <v>791.2062683570041</v>
+        <v>709.8087082577354</v>
       </c>
       <c r="W18" t="n">
-        <v>536.9689116288025</v>
+        <v>455.5713515295337</v>
       </c>
       <c r="X18" t="n">
-        <v>329.1174114232697</v>
+        <v>455.5713515295337</v>
       </c>
       <c r="Y18" t="n">
-        <v>142.7528837522889</v>
+        <v>390.3035973452237</v>
       </c>
     </row>
     <row r="19">
@@ -5647,34 +5647,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="C19" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D19" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E19" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F19" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G19" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H19" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I19" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J19" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K19" t="n">
-        <v>40.81344334191285</v>
+        <v>40.81344334191284</v>
       </c>
       <c r="L19" t="n">
         <v>107.0302722280248</v>
@@ -5692,31 +5692,31 @@
         <v>361.2466016029501</v>
       </c>
       <c r="Q19" t="n">
-        <v>361.2466016029501</v>
+        <v>296.5701361642185</v>
       </c>
       <c r="R19" t="n">
-        <v>361.2466016029501</v>
+        <v>296.5701361642185</v>
       </c>
       <c r="S19" t="n">
-        <v>361.2466016029501</v>
+        <v>296.5701361642185</v>
       </c>
       <c r="T19" t="n">
-        <v>132.1392625228377</v>
+        <v>296.5701361642185</v>
       </c>
       <c r="U19" t="n">
-        <v>32.45932575975219</v>
+        <v>296.5701361642185</v>
       </c>
       <c r="V19" t="n">
-        <v>32.45932575975219</v>
+        <v>41.88564795833159</v>
       </c>
       <c r="W19" t="n">
-        <v>32.45932575975219</v>
+        <v>41.88564795833159</v>
       </c>
       <c r="X19" t="n">
-        <v>32.45932575975219</v>
+        <v>41.88564795833159</v>
       </c>
       <c r="Y19" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
     </row>
     <row r="20">
@@ -5726,40 +5726,40 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>828.0875500720392</v>
+        <v>1236.366447923488</v>
       </c>
       <c r="C20" t="n">
-        <v>828.0875500720392</v>
+        <v>1236.366447923488</v>
       </c>
       <c r="D20" t="n">
-        <v>828.0875500720392</v>
+        <v>878.1007493167372</v>
       </c>
       <c r="E20" t="n">
-        <v>442.2992974737949</v>
+        <v>878.1007493167372</v>
       </c>
       <c r="F20" t="n">
-        <v>442.2992974737949</v>
+        <v>878.1007493167372</v>
       </c>
       <c r="G20" t="n">
-        <v>32.45932575975218</v>
+        <v>558.9237552812579</v>
       </c>
       <c r="H20" t="n">
-        <v>32.45932575975218</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="I20" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J20" t="n">
-        <v>70.13987180521497</v>
+        <v>70.13987180521505</v>
       </c>
       <c r="K20" t="n">
         <v>247.3580469011318</v>
       </c>
       <c r="L20" t="n">
-        <v>519.4894913528325</v>
+        <v>519.4894913528324</v>
       </c>
       <c r="M20" t="n">
-        <v>838.8947028941456</v>
+        <v>838.8947028941453</v>
       </c>
       <c r="N20" t="n">
         <v>1148.836227140252</v>
@@ -5780,22 +5780,22 @@
         <v>1622.966287987609</v>
       </c>
       <c r="T20" t="n">
-        <v>1468.524273203907</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U20" t="n">
-        <v>1214.687390136161</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V20" t="n">
-        <v>1214.687390136161</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="W20" t="n">
-        <v>1214.687390136161</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="X20" t="n">
-        <v>1214.687390136161</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Y20" t="n">
-        <v>1214.687390136161</v>
+        <v>1622.966287987609</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>142.7528837522889</v>
+        <v>260.7291119938702</v>
       </c>
       <c r="C21" t="n">
-        <v>142.7528837522889</v>
+        <v>260.7291119938702</v>
       </c>
       <c r="D21" t="n">
-        <v>142.7528837522889</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="E21" t="n">
-        <v>142.7528837522889</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="F21" t="n">
-        <v>142.7528837522889</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="G21" t="n">
-        <v>142.7528837522889</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="H21" t="n">
-        <v>32.45932575975218</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="I21" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J21" t="n">
         <v>61.20822116384403</v>
       </c>
       <c r="K21" t="n">
-        <v>61.20822116384403</v>
+        <v>236.9655055809357</v>
       </c>
       <c r="L21" t="n">
-        <v>358.9399761455072</v>
+        <v>534.6972605625989</v>
       </c>
       <c r="M21" t="n">
-        <v>758.3581127497702</v>
+        <v>586.6303168187811</v>
       </c>
       <c r="N21" t="n">
-        <v>1057.709031609043</v>
+        <v>988.3144730957144</v>
       </c>
       <c r="O21" t="n">
-        <v>1380.722538783602</v>
+        <v>1311.327980270273</v>
       </c>
       <c r="P21" t="n">
-        <v>1622.966287987609</v>
+        <v>1553.57172947428</v>
       </c>
       <c r="Q21" t="n">
         <v>1622.966287987609</v>
       </c>
       <c r="R21" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S21" t="n">
-        <v>1374.066492846507</v>
+        <v>1594.83605228133</v>
       </c>
       <c r="T21" t="n">
-        <v>1173.163483952</v>
+        <v>1393.933043386823</v>
       </c>
       <c r="U21" t="n">
-        <v>944.9608164894781</v>
+        <v>1165.730375924301</v>
       </c>
       <c r="V21" t="n">
-        <v>709.8087082577354</v>
+        <v>930.5782676925585</v>
       </c>
       <c r="W21" t="n">
-        <v>518.7285195373108</v>
+        <v>676.3409109643569</v>
       </c>
       <c r="X21" t="n">
-        <v>518.7285195373108</v>
+        <v>468.4894107588241</v>
       </c>
       <c r="Y21" t="n">
-        <v>310.968220772357</v>
+        <v>260.7291119938702</v>
       </c>
     </row>
     <row r="22">
@@ -5884,34 +5884,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>133.2570507049327</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="C22" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="D22" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E22" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F22" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G22" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H22" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I22" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J22" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K22" t="n">
-        <v>40.81344334191284</v>
+        <v>40.81344334191285</v>
       </c>
       <c r="L22" t="n">
         <v>107.0302722280248</v>
@@ -5929,31 +5929,31 @@
         <v>361.2466016029501</v>
       </c>
       <c r="Q22" t="n">
-        <v>361.2466016029501</v>
+        <v>296.5701361642185</v>
       </c>
       <c r="R22" t="n">
-        <v>361.2466016029501</v>
+        <v>296.5701361642185</v>
       </c>
       <c r="S22" t="n">
-        <v>361.2466016029501</v>
+        <v>296.5701361642185</v>
       </c>
       <c r="T22" t="n">
-        <v>361.2466016029501</v>
+        <v>296.5701361642185</v>
       </c>
       <c r="U22" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="V22" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="W22" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="X22" t="n">
-        <v>133.2570507049327</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="Y22" t="n">
-        <v>133.2570507049327</v>
+        <v>32.45932575975219</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5963,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>503.7583553506521</v>
+        <v>1237.927521786082</v>
       </c>
       <c r="C23" t="n">
-        <v>503.7583553506521</v>
+        <v>1237.927521786082</v>
       </c>
       <c r="D23" t="n">
-        <v>503.7583553506521</v>
+        <v>1237.927521786082</v>
       </c>
       <c r="E23" t="n">
-        <v>503.7583553506521</v>
+        <v>852.1392691878377</v>
       </c>
       <c r="F23" t="n">
-        <v>503.7583553506521</v>
+        <v>442.2992974737949</v>
       </c>
       <c r="G23" t="n">
-        <v>93.91838363660935</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H23" t="n">
         <v>32.45932575975218</v>
@@ -5987,16 +5987,16 @@
         <v>32.45932575975218</v>
       </c>
       <c r="J23" t="n">
-        <v>70.13987180521505</v>
+        <v>70.13987180521497</v>
       </c>
       <c r="K23" t="n">
         <v>247.3580469011318</v>
       </c>
       <c r="L23" t="n">
-        <v>519.4894913528324</v>
+        <v>519.4894913528325</v>
       </c>
       <c r="M23" t="n">
-        <v>838.8947028941454</v>
+        <v>838.8947028941456</v>
       </c>
       <c r="N23" t="n">
         <v>1148.836227140252</v>
@@ -6011,28 +6011,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R23" t="n">
-        <v>1508.970645214177</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S23" t="n">
-        <v>1311.402045381201</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T23" t="n">
-        <v>1088.658125761969</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U23" t="n">
-        <v>834.8212426942227</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V23" t="n">
-        <v>503.7583553506521</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="W23" t="n">
-        <v>503.7583553506521</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="X23" t="n">
-        <v>503.7583553506521</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Y23" t="n">
-        <v>503.7583553506521</v>
+        <v>1622.966287987609</v>
       </c>
     </row>
     <row r="24">
@@ -6042,49 +6042,49 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>507.0351915391004</v>
+        <v>247.7198513240009</v>
       </c>
       <c r="C24" t="n">
-        <v>507.0351915391004</v>
+        <v>73.26682204287388</v>
       </c>
       <c r="D24" t="n">
-        <v>507.0351915391004</v>
+        <v>73.26682204287388</v>
       </c>
       <c r="E24" t="n">
-        <v>507.0351915391004</v>
+        <v>73.26682204287388</v>
       </c>
       <c r="F24" t="n">
-        <v>360.5006335659854</v>
+        <v>73.26682204287388</v>
       </c>
       <c r="G24" t="n">
-        <v>222.0882603251556</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H24" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I24" t="n">
         <v>32.45932575975218</v>
       </c>
       <c r="J24" t="n">
-        <v>32.45932575975218</v>
+        <v>61.20822116384403</v>
       </c>
       <c r="K24" t="n">
-        <v>32.45932575975218</v>
+        <v>236.9655055809357</v>
       </c>
       <c r="L24" t="n">
-        <v>147.3709770270845</v>
+        <v>526.7134211229762</v>
       </c>
       <c r="M24" t="n">
-        <v>546.7891136313474</v>
+        <v>847.048740652678</v>
       </c>
       <c r="N24" t="n">
-        <v>948.4732699082806</v>
+        <v>1191.569396290296</v>
       </c>
       <c r="O24" t="n">
-        <v>1271.486777082839</v>
+        <v>1440.322810374258</v>
       </c>
       <c r="P24" t="n">
-        <v>1513.730526286846</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q24" t="n">
         <v>1622.966287987609</v>
@@ -6105,13 +6105,13 @@
         <v>709.8087082577354</v>
       </c>
       <c r="W24" t="n">
-        <v>507.0351915391004</v>
+        <v>455.5713515295337</v>
       </c>
       <c r="X24" t="n">
-        <v>507.0351915391004</v>
+        <v>247.7198513240009</v>
       </c>
       <c r="Y24" t="n">
-        <v>507.0351915391004</v>
+        <v>247.7198513240009</v>
       </c>
     </row>
     <row r="25">
@@ -6121,16 +6121,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>139.6199360758254</v>
+        <v>72.05002336285361</v>
       </c>
       <c r="C25" t="n">
-        <v>139.6199360758254</v>
+        <v>72.05002336285361</v>
       </c>
       <c r="D25" t="n">
-        <v>139.6199360758254</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E25" t="n">
-        <v>139.6199360758254</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F25" t="n">
         <v>32.45932575975218</v>
@@ -6172,25 +6172,25 @@
         <v>361.2466016029501</v>
       </c>
       <c r="S25" t="n">
-        <v>139.6199360758254</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="T25" t="n">
-        <v>139.6199360758254</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="U25" t="n">
-        <v>139.6199360758254</v>
+        <v>72.05002336285361</v>
       </c>
       <c r="V25" t="n">
-        <v>139.6199360758254</v>
+        <v>72.05002336285361</v>
       </c>
       <c r="W25" t="n">
-        <v>139.6199360758254</v>
+        <v>72.05002336285361</v>
       </c>
       <c r="X25" t="n">
-        <v>139.6199360758254</v>
+        <v>72.05002336285361</v>
       </c>
       <c r="Y25" t="n">
-        <v>139.6199360758254</v>
+        <v>72.05002336285361</v>
       </c>
     </row>
     <row r="26">
@@ -6200,40 +6200,40 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>849.8851132652865</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="C26" t="n">
-        <v>849.8851132652865</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="D26" t="n">
-        <v>849.8851132652865</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="E26" t="n">
-        <v>849.8851132652865</v>
+        <v>1378.603698709343</v>
       </c>
       <c r="F26" t="n">
-        <v>849.8851132652865</v>
+        <v>968.7637269953004</v>
       </c>
       <c r="G26" t="n">
-        <v>440.0451415512437</v>
+        <v>558.9237552812577</v>
       </c>
       <c r="H26" t="n">
-        <v>103.2367418383946</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="I26" t="n">
         <v>32.45932575975218</v>
       </c>
       <c r="J26" t="n">
-        <v>70.13987180521485</v>
+        <v>70.13987180521497</v>
       </c>
       <c r="K26" t="n">
-        <v>247.3580469011315</v>
+        <v>247.3580469011318</v>
       </c>
       <c r="L26" t="n">
-        <v>519.4894913528321</v>
+        <v>519.4894913528325</v>
       </c>
       <c r="M26" t="n">
-        <v>838.8947028941452</v>
+        <v>838.8947028941456</v>
       </c>
       <c r="N26" t="n">
         <v>1148.836227140252</v>
@@ -6251,25 +6251,25 @@
         <v>1622.966287987609</v>
       </c>
       <c r="S26" t="n">
-        <v>1425.397688154633</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T26" t="n">
-        <v>1202.653768535401</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U26" t="n">
-        <v>1202.653768535401</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V26" t="n">
-        <v>1202.653768535401</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="W26" t="n">
-        <v>849.8851132652865</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="X26" t="n">
-        <v>849.8851132652865</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Y26" t="n">
-        <v>849.8851132652865</v>
+        <v>1622.966287987609</v>
       </c>
     </row>
     <row r="27">
@@ -6303,40 +6303,40 @@
         <v>32.45932575975218</v>
       </c>
       <c r="J27" t="n">
-        <v>61.20822116384403</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K27" t="n">
-        <v>236.9655055809357</v>
+        <v>162.8899505733745</v>
       </c>
       <c r="L27" t="n">
-        <v>534.6972605625989</v>
+        <v>392.8530564417237</v>
       </c>
       <c r="M27" t="n">
-        <v>546.7891136313474</v>
+        <v>713.1883759714254</v>
       </c>
       <c r="N27" t="n">
-        <v>948.4732699082806</v>
+        <v>1057.709031609043</v>
       </c>
       <c r="O27" t="n">
-        <v>1271.486777082839</v>
+        <v>1380.722538783602</v>
       </c>
       <c r="P27" t="n">
-        <v>1513.730526286846</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q27" t="n">
         <v>1622.966287987609</v>
       </c>
       <c r="R27" t="n">
-        <v>1622.966287987609</v>
+        <v>1588.300820658085</v>
       </c>
       <c r="S27" t="n">
-        <v>1581.351379888864</v>
+        <v>1588.300820658085</v>
       </c>
       <c r="T27" t="n">
-        <v>1581.351379888864</v>
+        <v>1588.300820658085</v>
       </c>
       <c r="U27" t="n">
-        <v>1353.148712426342</v>
+        <v>1588.300820658085</v>
       </c>
       <c r="V27" t="n">
         <v>1353.148712426342</v>
@@ -6358,10 +6358,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>32.45932575975218</v>
+        <v>140.45402245942</v>
       </c>
       <c r="C28" t="n">
-        <v>32.45932575975218</v>
+        <v>140.45402245942</v>
       </c>
       <c r="D28" t="n">
         <v>32.45932575975218</v>
@@ -6409,25 +6409,25 @@
         <v>361.2466016029501</v>
       </c>
       <c r="S28" t="n">
-        <v>287.1438139656391</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="T28" t="n">
-        <v>287.1438139656391</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="U28" t="n">
-        <v>287.1438139656391</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="V28" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="W28" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="X28" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Y28" t="n">
-        <v>32.45932575975218</v>
+        <v>140.45402245942</v>
       </c>
     </row>
     <row r="29">
@@ -6437,40 +6437,40 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>759.6875413069145</v>
+        <v>1169.527513020957</v>
       </c>
       <c r="C29" t="n">
-        <v>390.7250243665027</v>
+        <v>800.5649960805455</v>
       </c>
       <c r="D29" t="n">
-        <v>32.45932575975218</v>
+        <v>442.299297473795</v>
       </c>
       <c r="E29" t="n">
-        <v>32.45932575975218</v>
+        <v>442.299297473795</v>
       </c>
       <c r="F29" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G29" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H29" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I29" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J29" t="n">
-        <v>70.13987180521505</v>
+        <v>70.13987180521497</v>
       </c>
       <c r="K29" t="n">
         <v>247.3580469011318</v>
       </c>
       <c r="L29" t="n">
-        <v>519.4894913528325</v>
+        <v>519.4894913528326</v>
       </c>
       <c r="M29" t="n">
-        <v>838.8947028941454</v>
+        <v>838.8947028941457</v>
       </c>
       <c r="N29" t="n">
         <v>1148.836227140252</v>
@@ -6485,28 +6485,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R29" t="n">
-        <v>1622.966287987609</v>
+        <v>1559.666844996769</v>
       </c>
       <c r="S29" t="n">
-        <v>1622.966287987609</v>
+        <v>1559.666844996769</v>
       </c>
       <c r="T29" t="n">
-        <v>1622.966287987609</v>
+        <v>1559.666844996769</v>
       </c>
       <c r="U29" t="n">
-        <v>1622.966287987609</v>
+        <v>1559.666844996769</v>
       </c>
       <c r="V29" t="n">
-        <v>1622.966287987609</v>
+        <v>1559.666844996769</v>
       </c>
       <c r="W29" t="n">
-        <v>1622.966287987609</v>
+        <v>1559.666844996769</v>
       </c>
       <c r="X29" t="n">
-        <v>1536.426713346848</v>
+        <v>1559.666844996769</v>
       </c>
       <c r="Y29" t="n">
-        <v>1146.287381371036</v>
+        <v>1169.527513020957</v>
       </c>
     </row>
     <row r="30">
@@ -6516,49 +6516,49 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>361.8050832977081</v>
+        <v>681.4882208202274</v>
       </c>
       <c r="C30" t="n">
-        <v>361.8050832977081</v>
+        <v>507.0351915391004</v>
       </c>
       <c r="D30" t="n">
-        <v>212.8706736364568</v>
+        <v>507.0351915391004</v>
       </c>
       <c r="E30" t="n">
-        <v>53.63321863100134</v>
+        <v>507.0351915391004</v>
       </c>
       <c r="F30" t="n">
-        <v>32.45932575975218</v>
+        <v>360.5006335659854</v>
       </c>
       <c r="G30" t="n">
-        <v>32.45932575975218</v>
+        <v>222.0882603251556</v>
       </c>
       <c r="H30" t="n">
-        <v>32.45932575975218</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="I30" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J30" t="n">
-        <v>32.45932575975218</v>
+        <v>61.20822116384403</v>
       </c>
       <c r="K30" t="n">
-        <v>32.45932575975218</v>
+        <v>236.9655055809357</v>
       </c>
       <c r="L30" t="n">
-        <v>330.1910807414154</v>
+        <v>244.3756808538335</v>
       </c>
       <c r="M30" t="n">
-        <v>729.6092173456783</v>
+        <v>643.7938174580964</v>
       </c>
       <c r="N30" t="n">
-        <v>1057.709031609043</v>
+        <v>988.3144730957144</v>
       </c>
       <c r="O30" t="n">
-        <v>1380.722538783602</v>
+        <v>1311.327980270273</v>
       </c>
       <c r="P30" t="n">
-        <v>1622.966287987609</v>
+        <v>1553.57172947428</v>
       </c>
       <c r="Q30" t="n">
         <v>1622.966287987609</v>
@@ -6570,22 +6570,22 @@
         <v>1455.464052945775</v>
       </c>
       <c r="T30" t="n">
-        <v>1455.464052945775</v>
+        <v>1313.05833353456</v>
       </c>
       <c r="U30" t="n">
-        <v>1227.261385483253</v>
+        <v>1084.855666072038</v>
       </c>
       <c r="V30" t="n">
-        <v>992.1092772515105</v>
+        <v>849.7035578402954</v>
       </c>
       <c r="W30" t="n">
-        <v>737.871920523309</v>
+        <v>849.7035578402954</v>
       </c>
       <c r="X30" t="n">
-        <v>530.0204203177761</v>
+        <v>849.7035578402954</v>
       </c>
       <c r="Y30" t="n">
-        <v>530.0204203177761</v>
+        <v>849.7035578402954</v>
       </c>
     </row>
     <row r="31">
@@ -6595,34 +6595,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="C31" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="D31" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E31" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F31" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G31" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H31" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I31" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J31" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K31" t="n">
-        <v>40.81344334191284</v>
+        <v>40.81344334191285</v>
       </c>
       <c r="L31" t="n">
         <v>107.0302722280248</v>
@@ -6646,25 +6646,25 @@
         <v>361.2466016029501</v>
       </c>
       <c r="S31" t="n">
-        <v>139.6199360758254</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="T31" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="U31" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="V31" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="W31" t="n">
-        <v>32.45932575975218</v>
+        <v>71.82943156598947</v>
       </c>
       <c r="X31" t="n">
-        <v>32.45932575975218</v>
+        <v>71.82943156598947</v>
       </c>
       <c r="Y31" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
     </row>
     <row r="32">
@@ -6674,28 +6674,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1145.475793905159</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="C32" t="n">
-        <v>776.5132769647469</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="D32" t="n">
-        <v>418.2475783579964</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="E32" t="n">
-        <v>32.45932575975218</v>
+        <v>1237.178035389365</v>
       </c>
       <c r="F32" t="n">
-        <v>32.45932575975218</v>
+        <v>968.7637269953007</v>
       </c>
       <c r="G32" t="n">
-        <v>32.45932575975218</v>
+        <v>558.9237552812579</v>
       </c>
       <c r="H32" t="n">
-        <v>32.45932575975218</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="I32" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J32" t="n">
         <v>70.13987180521505</v>
@@ -6740,10 +6740,10 @@
         <v>1622.966287987609</v>
       </c>
       <c r="X32" t="n">
-        <v>1532.07563396928</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Y32" t="n">
-        <v>1532.07563396928</v>
+        <v>1622.966287987609</v>
       </c>
     </row>
     <row r="33">
@@ -6753,49 +6753,49 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>419.9665669993257</v>
+        <v>39.95955255904721</v>
       </c>
       <c r="C33" t="n">
-        <v>419.9665669993257</v>
+        <v>39.95955255904721</v>
       </c>
       <c r="D33" t="n">
-        <v>271.0321573380744</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E33" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F33" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G33" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H33" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I33" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J33" t="n">
-        <v>61.20822116384403</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K33" t="n">
-        <v>236.9655055809357</v>
+        <v>208.2166101768439</v>
       </c>
       <c r="L33" t="n">
-        <v>534.6972605625989</v>
+        <v>505.948365158507</v>
       </c>
       <c r="M33" t="n">
-        <v>789.032862835355</v>
+        <v>826.2836846882088</v>
       </c>
       <c r="N33" t="n">
-        <v>1190.717019112288</v>
+        <v>1057.709031609044</v>
       </c>
       <c r="O33" t="n">
-        <v>1513.730526286846</v>
+        <v>1380.722538783602</v>
       </c>
       <c r="P33" t="n">
-        <v>1513.730526286846</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q33" t="n">
         <v>1622.966287987609</v>
@@ -6810,19 +6810,19 @@
         <v>1173.163483952</v>
       </c>
       <c r="U33" t="n">
-        <v>944.9608164894781</v>
+        <v>944.9608164894784</v>
       </c>
       <c r="V33" t="n">
-        <v>709.8087082577354</v>
+        <v>709.8087082577356</v>
       </c>
       <c r="W33" t="n">
-        <v>627.7268657642796</v>
+        <v>455.571351529534</v>
       </c>
       <c r="X33" t="n">
-        <v>627.7268657642796</v>
+        <v>247.7198513240011</v>
       </c>
       <c r="Y33" t="n">
-        <v>419.9665669993257</v>
+        <v>39.95955255904721</v>
       </c>
     </row>
     <row r="34">
@@ -6832,34 +6832,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>139.6199360758254</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="C34" t="n">
-        <v>139.6199360758254</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="D34" t="n">
-        <v>139.6199360758254</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E34" t="n">
-        <v>139.6199360758254</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F34" t="n">
-        <v>139.6199360758254</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G34" t="n">
-        <v>139.6199360758254</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H34" t="n">
-        <v>139.6199360758254</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I34" t="n">
-        <v>107.8860696601711</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J34" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K34" t="n">
-        <v>40.81344334191284</v>
+        <v>40.81344334191285</v>
       </c>
       <c r="L34" t="n">
         <v>107.0302722280248</v>
@@ -6883,25 +6883,25 @@
         <v>361.2466016029501</v>
       </c>
       <c r="S34" t="n">
-        <v>139.6199360758254</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="T34" t="n">
-        <v>139.6199360758254</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="U34" t="n">
-        <v>139.6199360758254</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="V34" t="n">
-        <v>139.6199360758254</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="W34" t="n">
-        <v>139.6199360758254</v>
+        <v>71.82943156598947</v>
       </c>
       <c r="X34" t="n">
-        <v>139.6199360758254</v>
+        <v>71.82943156598947</v>
       </c>
       <c r="Y34" t="n">
-        <v>139.6199360758254</v>
+        <v>71.82943156598947</v>
       </c>
     </row>
     <row r="35">
@@ -6911,16 +6911,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>89.0881844258663</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="C35" t="n">
-        <v>89.0881844258663</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D35" t="n">
-        <v>89.0881844258663</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E35" t="n">
-        <v>89.0881844258663</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F35" t="n">
         <v>32.45932575975218</v>
@@ -6935,16 +6935,16 @@
         <v>32.45932575975218</v>
       </c>
       <c r="J35" t="n">
-        <v>70.13987180521508</v>
+        <v>70.13987180521505</v>
       </c>
       <c r="K35" t="n">
-        <v>247.3580469011319</v>
+        <v>247.3580469011318</v>
       </c>
       <c r="L35" t="n">
         <v>519.4894913528326</v>
       </c>
       <c r="M35" t="n">
-        <v>838.8947028941457</v>
+        <v>838.8947028941458</v>
       </c>
       <c r="N35" t="n">
         <v>1148.836227140252</v>
@@ -6965,22 +6965,22 @@
         <v>1622.966287987609</v>
       </c>
       <c r="T35" t="n">
-        <v>1400.222368368377</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U35" t="n">
-        <v>1146.385485300631</v>
+        <v>1369.129404919863</v>
       </c>
       <c r="V35" t="n">
-        <v>815.3225979570603</v>
+        <v>1038.066517576292</v>
       </c>
       <c r="W35" t="n">
-        <v>462.5539426869462</v>
+        <v>685.2978623061783</v>
       </c>
       <c r="X35" t="n">
-        <v>89.0881844258663</v>
+        <v>311.8321040450984</v>
       </c>
       <c r="Y35" t="n">
-        <v>89.0881844258663</v>
+        <v>311.8321040450984</v>
       </c>
     </row>
     <row r="36">
@@ -6990,49 +6990,49 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>32.45932575975218</v>
+        <v>643.5169047271309</v>
       </c>
       <c r="C36" t="n">
-        <v>32.45932575975218</v>
+        <v>469.0638754460039</v>
       </c>
       <c r="D36" t="n">
-        <v>32.45932575975218</v>
+        <v>320.1294657847526</v>
       </c>
       <c r="E36" t="n">
-        <v>32.45932575975218</v>
+        <v>250.2070755734487</v>
       </c>
       <c r="F36" t="n">
-        <v>32.45932575975218</v>
+        <v>250.2070755734487</v>
       </c>
       <c r="G36" t="n">
-        <v>32.45932575975218</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="H36" t="n">
-        <v>32.45932575975218</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="I36" t="n">
         <v>32.45932575975218</v>
       </c>
       <c r="J36" t="n">
-        <v>61.20822116384403</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K36" t="n">
-        <v>61.20822116384403</v>
+        <v>33.13507683677989</v>
       </c>
       <c r="L36" t="n">
-        <v>147.3709770270845</v>
+        <v>330.8668318184431</v>
       </c>
       <c r="M36" t="n">
-        <v>546.7891136313474</v>
+        <v>730.284968422706</v>
       </c>
       <c r="N36" t="n">
-        <v>948.4732699082806</v>
+        <v>1131.969124699639</v>
       </c>
       <c r="O36" t="n">
-        <v>1271.486777082839</v>
+        <v>1380.722538783602</v>
       </c>
       <c r="P36" t="n">
-        <v>1513.730526286846</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q36" t="n">
         <v>1622.966287987609</v>
@@ -7041,25 +7041,25 @@
         <v>1541.568727888341</v>
       </c>
       <c r="S36" t="n">
-        <v>1374.066492846507</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="T36" t="n">
-        <v>1173.163483952</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="U36" t="n">
-        <v>944.9608164894781</v>
+        <v>1313.366060425819</v>
       </c>
       <c r="V36" t="n">
-        <v>709.8087082577354</v>
+        <v>1313.366060425819</v>
       </c>
       <c r="W36" t="n">
-        <v>455.5713515295337</v>
+        <v>1059.128703697618</v>
       </c>
       <c r="X36" t="n">
-        <v>247.7198513240009</v>
+        <v>851.2772034920847</v>
       </c>
       <c r="Y36" t="n">
-        <v>39.95955255904698</v>
+        <v>643.5169047271309</v>
       </c>
     </row>
     <row r="37">
@@ -7123,16 +7123,16 @@
         <v>361.2466016029501</v>
       </c>
       <c r="T37" t="n">
-        <v>321.6559039998486</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="U37" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="V37" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="W37" t="n">
-        <v>32.45932575975218</v>
+        <v>260.4488766577695</v>
       </c>
       <c r="X37" t="n">
         <v>32.45932575975218</v>
@@ -7148,40 +7148,40 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>759.6875413069145</v>
+        <v>1197.050067012451</v>
       </c>
       <c r="C38" t="n">
-        <v>390.7250243665027</v>
+        <v>828.0875500720392</v>
       </c>
       <c r="D38" t="n">
-        <v>32.45932575975218</v>
+        <v>828.0875500720392</v>
       </c>
       <c r="E38" t="n">
-        <v>32.45932575975218</v>
+        <v>442.299297473795</v>
       </c>
       <c r="F38" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G38" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H38" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I38" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J38" t="n">
-        <v>70.13987180521505</v>
+        <v>70.13987180521497</v>
       </c>
       <c r="K38" t="n">
         <v>247.3580469011318</v>
       </c>
       <c r="L38" t="n">
-        <v>519.4894913528325</v>
+        <v>519.4894913528326</v>
       </c>
       <c r="M38" t="n">
-        <v>838.8947028941454</v>
+        <v>838.8947028941457</v>
       </c>
       <c r="N38" t="n">
         <v>1148.836227140252</v>
@@ -7196,28 +7196,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R38" t="n">
-        <v>1622.966287987609</v>
+        <v>1587.189398988263</v>
       </c>
       <c r="S38" t="n">
-        <v>1622.966287987609</v>
+        <v>1587.189398988263</v>
       </c>
       <c r="T38" t="n">
-        <v>1622.966287987609</v>
+        <v>1587.189398988263</v>
       </c>
       <c r="U38" t="n">
-        <v>1622.966287987609</v>
+        <v>1587.189398988263</v>
       </c>
       <c r="V38" t="n">
-        <v>1622.966287987609</v>
+        <v>1587.189398988263</v>
       </c>
       <c r="W38" t="n">
-        <v>1622.966287987609</v>
+        <v>1587.189398988263</v>
       </c>
       <c r="X38" t="n">
-        <v>1536.426713346848</v>
+        <v>1587.189398988263</v>
       </c>
       <c r="Y38" t="n">
-        <v>1146.287381371036</v>
+        <v>1197.050067012451</v>
       </c>
     </row>
     <row r="39">
@@ -7227,19 +7227,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>501.9572080522025</v>
+        <v>756.8385830032796</v>
       </c>
       <c r="C39" t="n">
-        <v>501.9572080522025</v>
+        <v>582.3855537221526</v>
       </c>
       <c r="D39" t="n">
-        <v>501.9572080522025</v>
+        <v>582.3855537221526</v>
       </c>
       <c r="E39" t="n">
-        <v>342.719753046747</v>
+        <v>423.1480987166971</v>
       </c>
       <c r="F39" t="n">
-        <v>222.0882603251556</v>
+        <v>360.5006335659854</v>
       </c>
       <c r="G39" t="n">
         <v>222.0882603251556</v>
@@ -7248,25 +7248,25 @@
         <v>111.7947023326189</v>
       </c>
       <c r="I39" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J39" t="n">
         <v>61.20822116384403</v>
       </c>
       <c r="K39" t="n">
-        <v>61.20822116384403</v>
+        <v>169.3813945506565</v>
       </c>
       <c r="L39" t="n">
-        <v>358.9399761455072</v>
+        <v>467.1131495323197</v>
       </c>
       <c r="M39" t="n">
-        <v>758.3581127497702</v>
+        <v>787.4484690620214</v>
       </c>
       <c r="N39" t="n">
-        <v>1160.042269026703</v>
+        <v>1131.969124699639</v>
       </c>
       <c r="O39" t="n">
-        <v>1483.055776201262</v>
+        <v>1380.722538783602</v>
       </c>
       <c r="P39" t="n">
         <v>1622.966287987609</v>
@@ -7278,25 +7278,25 @@
         <v>1541.568727888341</v>
       </c>
       <c r="S39" t="n">
-        <v>1374.066492846507</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="T39" t="n">
-        <v>1173.163483952</v>
+        <v>1340.665718993834</v>
       </c>
       <c r="U39" t="n">
-        <v>944.9608164894781</v>
+        <v>1340.665718993834</v>
       </c>
       <c r="V39" t="n">
-        <v>709.8087082577354</v>
+        <v>1340.665718993834</v>
       </c>
       <c r="W39" t="n">
-        <v>709.8087082577354</v>
+        <v>1340.665718993834</v>
       </c>
       <c r="X39" t="n">
-        <v>501.9572080522025</v>
+        <v>1132.814218788302</v>
       </c>
       <c r="Y39" t="n">
-        <v>501.9572080522025</v>
+        <v>925.0539200233477</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>32.45932575975218</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="C40" t="n">
-        <v>32.45932575975218</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="D40" t="n">
-        <v>32.45932575975218</v>
+        <v>1588.982053224715</v>
       </c>
       <c r="E40" t="n">
-        <v>32.45932575975218</v>
+        <v>1441.068959642322</v>
       </c>
       <c r="F40" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="G40" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="H40" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="I40" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="J40" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="K40" t="n">
-        <v>40.81344334191284</v>
+        <v>1302.533129726572</v>
       </c>
       <c r="L40" t="n">
-        <v>107.0302722280248</v>
+        <v>1368.749958612684</v>
       </c>
       <c r="M40" t="n">
-        <v>187.235757098444</v>
+        <v>1448.955443483103</v>
       </c>
       <c r="N40" t="n">
-        <v>270.9687512285709</v>
+        <v>1532.68843761323</v>
       </c>
       <c r="O40" t="n">
-        <v>332.2934283710737</v>
+        <v>1594.013114755733</v>
       </c>
       <c r="P40" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q40" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="R40" t="n">
-        <v>194.1667418687505</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S40" t="n">
-        <v>32.45932575975218</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T40" t="n">
-        <v>32.45932575975218</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U40" t="n">
-        <v>32.45932575975218</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V40" t="n">
-        <v>32.45932575975218</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="W40" t="n">
-        <v>32.45932575975218</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="X40" t="n">
-        <v>32.45932575975218</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Y40" t="n">
-        <v>32.45932575975218</v>
+        <v>1622.966287987609</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1232.826956011797</v>
+        <v>685.2978623061783</v>
       </c>
       <c r="C41" t="n">
-        <v>1232.826956011797</v>
+        <v>685.2978623061783</v>
       </c>
       <c r="D41" t="n">
-        <v>1232.826956011797</v>
+        <v>685.2978623061783</v>
       </c>
       <c r="E41" t="n">
-        <v>1188.947668900687</v>
+        <v>685.2978623061783</v>
       </c>
       <c r="F41" t="n">
-        <v>779.107697186644</v>
+        <v>685.2978623061783</v>
       </c>
       <c r="G41" t="n">
         <v>369.2677254726013</v>
@@ -7409,16 +7409,16 @@
         <v>32.45932575975218</v>
       </c>
       <c r="J41" t="n">
-        <v>70.13987180521491</v>
+        <v>70.13987180521505</v>
       </c>
       <c r="K41" t="n">
-        <v>247.3580469011317</v>
+        <v>247.3580469011318</v>
       </c>
       <c r="L41" t="n">
-        <v>519.4894913528324</v>
+        <v>519.4894913528325</v>
       </c>
       <c r="M41" t="n">
-        <v>838.8947028941453</v>
+        <v>838.8947028941454</v>
       </c>
       <c r="N41" t="n">
         <v>1148.836227140252</v>
@@ -7442,19 +7442,19 @@
         <v>1622.966287987609</v>
       </c>
       <c r="U41" t="n">
-        <v>1622.966287987609</v>
+        <v>1369.129404919863</v>
       </c>
       <c r="V41" t="n">
-        <v>1622.966287987609</v>
+        <v>1038.066517576292</v>
       </c>
       <c r="W41" t="n">
-        <v>1622.966287987609</v>
+        <v>685.2978623061783</v>
       </c>
       <c r="X41" t="n">
-        <v>1622.966287987609</v>
+        <v>685.2978623061783</v>
       </c>
       <c r="Y41" t="n">
-        <v>1232.826956011797</v>
+        <v>685.2978623061783</v>
       </c>
     </row>
     <row r="42">
@@ -7464,25 +7464,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>32.45932575975218</v>
+        <v>542.9504914387765</v>
       </c>
       <c r="C42" t="n">
-        <v>32.45932575975218</v>
+        <v>542.9504914387765</v>
       </c>
       <c r="D42" t="n">
-        <v>32.45932575975218</v>
+        <v>542.9504914387765</v>
       </c>
       <c r="E42" t="n">
-        <v>32.45932575975218</v>
+        <v>507.0351915391004</v>
       </c>
       <c r="F42" t="n">
-        <v>32.45932575975218</v>
+        <v>360.5006335659854</v>
       </c>
       <c r="G42" t="n">
-        <v>32.45932575975218</v>
+        <v>222.0882603251556</v>
       </c>
       <c r="H42" t="n">
-        <v>32.45932575975218</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="I42" t="n">
         <v>32.45932575975218</v>
@@ -7491,49 +7491,49 @@
         <v>32.45932575975218</v>
       </c>
       <c r="K42" t="n">
-        <v>32.45932575975218</v>
+        <v>208.2166101768439</v>
       </c>
       <c r="L42" t="n">
-        <v>330.1910807414154</v>
+        <v>505.948365158507</v>
       </c>
       <c r="M42" t="n">
-        <v>729.6092173456783</v>
+        <v>905.36650176277</v>
       </c>
       <c r="N42" t="n">
-        <v>1131.293373622612</v>
+        <v>1249.887157400388</v>
       </c>
       <c r="O42" t="n">
-        <v>1454.30688079717</v>
+        <v>1513.730526286846</v>
       </c>
       <c r="P42" t="n">
-        <v>1622.966287987609</v>
+        <v>1513.730526286846</v>
       </c>
       <c r="Q42" t="n">
         <v>1622.966287987609</v>
       </c>
       <c r="R42" t="n">
-        <v>1622.966287987609</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="S42" t="n">
-        <v>1455.464052945775</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="T42" t="n">
-        <v>1254.561044051268</v>
+        <v>1173.163483952</v>
       </c>
       <c r="U42" t="n">
-        <v>1026.358376588747</v>
+        <v>1173.163483952</v>
       </c>
       <c r="V42" t="n">
-        <v>791.2062683570039</v>
+        <v>1173.163483952</v>
       </c>
       <c r="W42" t="n">
-        <v>536.9689116288023</v>
+        <v>918.9261272237984</v>
       </c>
       <c r="X42" t="n">
-        <v>329.1174114232695</v>
+        <v>918.9261272237984</v>
       </c>
       <c r="Y42" t="n">
-        <v>121.3571126583155</v>
+        <v>711.1658284588445</v>
       </c>
     </row>
     <row r="43">
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>139.6199360758254</v>
+        <v>194.1667418687505</v>
       </c>
       <c r="C43" t="n">
-        <v>139.6199360758254</v>
+        <v>194.1667418687505</v>
       </c>
       <c r="D43" t="n">
-        <v>139.6199360758254</v>
+        <v>194.1667418687505</v>
       </c>
       <c r="E43" t="n">
-        <v>32.45932575975218</v>
+        <v>194.1667418687505</v>
       </c>
       <c r="F43" t="n">
-        <v>32.45932575975218</v>
+        <v>194.1667418687505</v>
       </c>
       <c r="G43" t="n">
         <v>32.45932575975218</v>
@@ -7591,28 +7591,28 @@
         <v>361.2466016029501</v>
       </c>
       <c r="R43" t="n">
-        <v>361.2466016029501</v>
+        <v>194.1667418687505</v>
       </c>
       <c r="S43" t="n">
-        <v>139.6199360758254</v>
+        <v>194.1667418687505</v>
       </c>
       <c r="T43" t="n">
-        <v>139.6199360758254</v>
+        <v>194.1667418687505</v>
       </c>
       <c r="U43" t="n">
-        <v>139.6199360758254</v>
+        <v>194.1667418687505</v>
       </c>
       <c r="V43" t="n">
-        <v>139.6199360758254</v>
+        <v>194.1667418687505</v>
       </c>
       <c r="W43" t="n">
-        <v>139.6199360758254</v>
+        <v>194.1667418687505</v>
       </c>
       <c r="X43" t="n">
-        <v>139.6199360758254</v>
+        <v>194.1667418687505</v>
       </c>
       <c r="Y43" t="n">
-        <v>139.6199360758254</v>
+        <v>194.1667418687505</v>
       </c>
     </row>
     <row r="44">
@@ -7622,22 +7622,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>727.5334240793518</v>
+        <v>1232.826956011797</v>
       </c>
       <c r="C44" t="n">
-        <v>727.5334240793518</v>
+        <v>863.8644390713857</v>
       </c>
       <c r="D44" t="n">
-        <v>369.2677254726013</v>
+        <v>505.5987404646352</v>
       </c>
       <c r="E44" t="n">
-        <v>369.2677254726013</v>
+        <v>119.810487866391</v>
       </c>
       <c r="F44" t="n">
-        <v>369.2677254726013</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G44" t="n">
-        <v>369.2677254726013</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H44" t="n">
         <v>32.45932575975218</v>
@@ -7646,16 +7646,16 @@
         <v>32.45932575975218</v>
       </c>
       <c r="J44" t="n">
-        <v>70.13987180521491</v>
+        <v>70.13987180521508</v>
       </c>
       <c r="K44" t="n">
-        <v>247.3580469011317</v>
+        <v>247.3580469011319</v>
       </c>
       <c r="L44" t="n">
-        <v>519.4894913528324</v>
+        <v>519.4894913528326</v>
       </c>
       <c r="M44" t="n">
-        <v>838.8947028941453</v>
+        <v>838.8947028941457</v>
       </c>
       <c r="N44" t="n">
         <v>1148.836227140252</v>
@@ -7679,19 +7679,19 @@
         <v>1622.966287987609</v>
       </c>
       <c r="U44" t="n">
-        <v>1487.599022404553</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V44" t="n">
-        <v>1487.599022404553</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="W44" t="n">
-        <v>1487.599022404553</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="X44" t="n">
-        <v>1114.133264143474</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Y44" t="n">
-        <v>1114.133264143474</v>
+        <v>1232.826956011797</v>
       </c>
     </row>
     <row r="45">
@@ -7701,49 +7701,49 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>851.2857496982313</v>
+        <v>800.0311509215306</v>
       </c>
       <c r="C45" t="n">
-        <v>676.8327204171043</v>
+        <v>625.5781216404037</v>
       </c>
       <c r="D45" t="n">
-        <v>527.898310755853</v>
+        <v>476.6437119791524</v>
       </c>
       <c r="E45" t="n">
-        <v>368.6608557503975</v>
+        <v>317.4062569736969</v>
       </c>
       <c r="F45" t="n">
-        <v>222.1262977772825</v>
+        <v>170.8716990005819</v>
       </c>
       <c r="G45" t="n">
-        <v>222.0882603251556</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H45" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I45" t="n">
         <v>32.45932575975218</v>
       </c>
       <c r="J45" t="n">
-        <v>32.45932575975218</v>
+        <v>61.20822116384403</v>
       </c>
       <c r="K45" t="n">
-        <v>32.45932575975218</v>
+        <v>236.9655055809357</v>
       </c>
       <c r="L45" t="n">
-        <v>330.1910807414154</v>
+        <v>236.9655055809357</v>
       </c>
       <c r="M45" t="n">
-        <v>729.6092173456783</v>
+        <v>546.7891136313474</v>
       </c>
       <c r="N45" t="n">
-        <v>1131.293373622612</v>
+        <v>948.4732699082806</v>
       </c>
       <c r="O45" t="n">
-        <v>1454.30688079717</v>
+        <v>1271.486777082839</v>
       </c>
       <c r="P45" t="n">
-        <v>1622.966287987609</v>
+        <v>1513.730526286846</v>
       </c>
       <c r="Q45" t="n">
         <v>1622.966287987609</v>
@@ -7755,22 +7755,22 @@
         <v>1455.464052945775</v>
       </c>
       <c r="T45" t="n">
-        <v>1455.464052945775</v>
+        <v>1450.686512132322</v>
       </c>
       <c r="U45" t="n">
-        <v>1227.261385483253</v>
+        <v>1222.4838446698</v>
       </c>
       <c r="V45" t="n">
-        <v>1227.261385483253</v>
+        <v>1222.4838446698</v>
       </c>
       <c r="W45" t="n">
-        <v>1227.261385483253</v>
+        <v>968.2464879415986</v>
       </c>
       <c r="X45" t="n">
-        <v>1227.261385483253</v>
+        <v>968.2464879415986</v>
       </c>
       <c r="Y45" t="n">
-        <v>1019.501086718299</v>
+        <v>968.2464879415986</v>
       </c>
     </row>
     <row r="46">
@@ -7780,13 +7780,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1294.179012144411</v>
+        <v>1592.20874513914</v>
       </c>
       <c r="C46" t="n">
-        <v>1294.179012144411</v>
+        <v>1592.20874513914</v>
       </c>
       <c r="D46" t="n">
-        <v>1294.179012144411</v>
+        <v>1442.092105726805</v>
       </c>
       <c r="E46" t="n">
         <v>1294.179012144411</v>
@@ -7840,16 +7840,16 @@
         <v>1622.966287987609</v>
       </c>
       <c r="V46" t="n">
-        <v>1583.596182181372</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="W46" t="n">
-        <v>1294.179012144411</v>
+        <v>1592.20874513914</v>
       </c>
       <c r="X46" t="n">
-        <v>1294.179012144411</v>
+        <v>1592.20874513914</v>
       </c>
       <c r="Y46" t="n">
-        <v>1294.179012144411</v>
+        <v>1592.20874513914</v>
       </c>
     </row>
   </sheetData>
@@ -8061,19 +8061,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>229.6373335557741</v>
       </c>
       <c r="M3" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>185.8815939223662</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8298,7 +8298,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>299.7328472056018</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>142.1340339220183</v>
@@ -8307,7 +8307,7 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>383.6105333221035</v>
+        <v>312.5030352242461</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8535,13 +8535,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>299.7328472056018</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
-        <v>372.3560009609923</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
@@ -8766,13 +8766,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>97.05174705344737</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>118.980116585621</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
         <v>465.7050637499999</v>
@@ -8781,13 +8781,13 @@
         <v>455.0874215304797</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>357.6534580335538</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>99.73813450275541</v>
+        <v>99.73813450275543</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9003,7 +9003,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>97.05174705344737</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9015,16 +9015,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>92.88803957954771</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>161.5138225795281</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9240,16 +9240,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>97.05174705344737</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>86.93262649026374</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>281.0382923213829</v>
+        <v>103.505681799068</v>
       </c>
       <c r="N18" t="n">
         <v>455.0874215304797</v>
@@ -9480,16 +9480,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>86.93262649026376</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>114.7100330953729</v>
       </c>
       <c r="N21" t="n">
-        <v>351.7205150479949</v>
+        <v>455.0874215304798</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
@@ -9498,7 +9498,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>99.73813450275543</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9714,19 +9714,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>97.05174705344737</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>86.93262649026376</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>186.1735738748421</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>455.0874215304797</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
@@ -9735,7 +9735,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>99.73813450275543</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9960,10 +9960,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>74.46639351210651</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>455.0874215304797</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
@@ -9972,7 +9972,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>99.73813450275543</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10188,19 +10188,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>97.05174705344737</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>86.93262649026376</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>146.0394053080538</v>
       </c>
       <c r="M30" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>380.7598033349564</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
@@ -10209,7 +10209,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>99.73813450275543</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10434,19 +10434,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>319.1570492737304</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>455.0874215304797</v>
+        <v>283.1088262212893</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>73.77211287831324</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>99.73813450275543</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10665,10 +10665,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>86.93262649026376</v>
+        <v>87.61520333574629</v>
       </c>
       <c r="L36" t="n">
-        <v>157.1342855878806</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>465.7050637499999</v>
@@ -10683,7 +10683,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>99.73813450275543</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10902,7 +10902,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>86.93262649026376</v>
+        <v>196.1984581941147</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10911,13 +10911,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>455.0874215304797</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>215.0958621574522</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
         <v>99.73813450275543</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11136,10 +11136,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>97.05174705344737</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>86.93262649026376</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -11148,16 +11148,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>455.0874215304797</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>334.0945028241036</v>
       </c>
       <c r="P42" t="n">
-        <v>244.1351504444137</v>
+        <v>73.77211287831324</v>
       </c>
       <c r="Q42" t="n">
-        <v>99.73813450275543</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11373,28 +11373,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>97.05174705344737</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>86.93262649026376</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>465.7050637499999</v>
+        <v>455.0871733668786</v>
       </c>
       <c r="N45" t="n">
-        <v>455.0874215304797</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>244.1351504444137</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>99.73813450275543</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22544,13 +22544,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>152.3883551917857</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -22559,7 +22559,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>415.302737515135</v>
+        <v>203.0173518716929</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
@@ -22589,7 +22589,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
@@ -22604,16 +22604,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="3">
@@ -22635,13 +22635,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>89.39663285141508</v>
@@ -22671,25 +22671,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>6.174740324278332</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>150.1070334262686</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -22723,13 +22723,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>140.6136200195524</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22747,10 +22747,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>177.2933913771695</v>
+        <v>132.9899077786023</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -22784,7 +22784,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>152.9875061275654</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -22796,16 +22796,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>326.3696197612192</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H5" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22826,28 +22826,28 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -22884,7 +22884,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22908,7 +22908,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -22920,16 +22920,16 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>201.8487380088457</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>146.95659991356</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -22966,7 +22966,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22987,7 +22987,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>155.2593996044852</v>
+        <v>132.9899077786023</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -23024,25 +23024,25 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>366.3997666085763</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>174.288448637476</v>
       </c>
       <c r="H8" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23066,7 +23066,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
@@ -23078,7 +23078,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>125.4575720412377</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -23097,13 +23097,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
@@ -23154,19 +23154,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>214.5091600681041</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>175.8836868124217</v>
       </c>
     </row>
     <row r="10">
@@ -23255,28 +23255,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>253.6705646236949</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>1.134473744809156</v>
       </c>
       <c r="G11" t="n">
-        <v>414.7135041305339</v>
+        <v>8.97193213363164</v>
       </c>
       <c r="H11" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>187.7594695105699</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23303,7 +23303,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>195.5929138346465</v>
@@ -23321,10 +23321,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>284.0569217841152</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23337,22 +23337,22 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -23382,28 +23382,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U12" t="n">
-        <v>157.0663974274276</v>
+        <v>51.83725366384886</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>83.77133901837323</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23431,13 +23431,13 @@
         <v>167.7266695472104</v>
       </c>
       <c r="H13" t="n">
-        <v>120.5819502228691</v>
+        <v>159.8772180037952</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>147.5019580580808</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>74.67247646141476</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>165.4090611368575</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>219.4103988718534</v>
@@ -23501,19 +23501,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>1.1344737448091</v>
       </c>
       <c r="G14" t="n">
-        <v>141.5749915916986</v>
+        <v>8.971932133631583</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23540,16 +23540,16 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>65.10762352190613</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -23619,28 +23619,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>198.8939788055617</v>
       </c>
       <c r="U15" t="n">
-        <v>176.9363649428776</v>
+        <v>78.15888465134501</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -23701,7 +23701,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>123.3497577082893</v>
+        <v>219.4103988718534</v>
       </c>
       <c r="T16" t="n">
         <v>226.8162656893113</v>
@@ -23716,7 +23716,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>129.6490142254731</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23729,13 +23729,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>261.9731837108274</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -23747,10 +23747,10 @@
         <v>414.7135041305339</v>
       </c>
       <c r="H17" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>187.7594695105699</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23780,25 +23780,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>189.5531703502847</v>
       </c>
     </row>
     <row r="18">
@@ -23808,7 +23808,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>172.7084989883157</v>
@@ -23829,7 +23829,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23856,7 +23856,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -23874,10 +23874,10 @@
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>21.18181338303344</v>
+        <v>141.0676191348374</v>
       </c>
     </row>
     <row r="19">
@@ -23932,7 +23932,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>64.0297007843443</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>165.4090611368575</v>
@@ -23941,13 +23941,13 @@
         <v>219.4103988718534</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>226.8162656893113</v>
       </c>
       <c r="U19" t="n">
-        <v>187.6214750622408</v>
+        <v>286.3046124576955</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -23956,7 +23956,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>209.2525943755012</v>
       </c>
     </row>
     <row r="20">
@@ -23972,22 +23972,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>8.97193213363164</v>
+        <v>98.7282800354094</v>
       </c>
       <c r="H20" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>187.7594695105699</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24020,10 +24020,10 @@
         <v>195.5929138346465</v>
       </c>
       <c r="T20" t="n">
-        <v>67.61888578717461</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -24045,13 +24045,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>157.6450804554009</v>
@@ -24063,10 +24063,10 @@
         <v>137.0282495084215</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I21" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24093,10 +24093,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>137.9782793421988</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -24108,10 +24108,10 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>62.52559632769933</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -24127,7 +24127,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>67.45707340289908</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24169,7 +24169,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>64.0297007843443</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>165.4090611368575</v>
@@ -24181,7 +24181,7 @@
         <v>226.8162656893113</v>
       </c>
       <c r="U22" t="n">
-        <v>286.3046124576955</v>
+        <v>24.8349101572739</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24190,7 +24190,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24203,7 +24203,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>1.545463123968773</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -24212,16 +24212,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>1.134473744809156</v>
       </c>
       <c r="G23" t="n">
         <v>8.97193213363164</v>
       </c>
       <c r="H23" t="n">
-        <v>272.595848417632</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I23" t="n">
         <v>187.7594695105699</v>
@@ -24251,19 +24251,19 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -24285,7 +24285,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
@@ -24294,16 +24294,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>96.62882818813097</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24345,10 +24345,10 @@
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>50.94920160947103</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -24367,13 +24367,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>109.420682391142</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>39.33204381001872</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>167.7266695472104</v>
@@ -24412,13 +24412,13 @@
         <v>165.4090611368575</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>219.4103988718534</v>
       </c>
       <c r="T25" t="n">
         <v>226.8162656893113</v>
       </c>
       <c r="U25" t="n">
-        <v>286.3046124576955</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24449,10 +24449,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>140.0114066867786</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>1.134473744809156</v>
       </c>
       <c r="G26" t="n">
         <v>8.97193213363164</v>
@@ -24461,7 +24461,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>117.6898275927139</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24491,10 +24491,10 @@
         <v>112.8556863456974</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U26" t="n">
         <v>251.2985142370684</v>
@@ -24503,7 +24503,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -24567,19 +24567,19 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>80.58358449827551</v>
+        <v>46.26477184204647</v>
       </c>
       <c r="S27" t="n">
-        <v>124.628453673658</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T27" t="n">
         <v>198.8939788055617</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
@@ -24604,7 +24604,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>41.70072328554124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24649,7 +24649,7 @@
         <v>165.4090611368575</v>
       </c>
       <c r="S28" t="n">
-        <v>146.0486391109155</v>
+        <v>219.4103988718534</v>
       </c>
       <c r="T28" t="n">
         <v>226.8162656893113</v>
@@ -24658,7 +24658,7 @@
         <v>286.3046124576955</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -24667,7 +24667,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24677,7 +24677,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -24689,7 +24689,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>1.1344737448091</v>
       </c>
       <c r="G29" t="n">
         <v>414.7135041305339</v>
@@ -24725,7 +24725,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>112.8556863456974</v>
+        <v>50.1892377847655</v>
       </c>
       <c r="S29" t="n">
         <v>195.5929138346465</v>
@@ -24743,7 +24743,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>284.0569217841154</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24759,25 +24759,25 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>124.1070584508472</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24810,7 +24810,7 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>198.8939788055617</v>
+        <v>57.91231658845842</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -24819,10 +24819,10 @@
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -24886,10 +24886,10 @@
         <v>165.4090611368575</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>219.4103988718534</v>
       </c>
       <c r="T31" t="n">
-        <v>120.7272614763988</v>
+        <v>226.8162656893113</v>
       </c>
       <c r="U31" t="n">
         <v>286.3046124576955</v>
@@ -24898,13 +24898,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>179.6082486039199</v>
       </c>
     </row>
     <row r="32">
@@ -24914,28 +24914,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>141.145880431588</v>
       </c>
       <c r="G32" t="n">
-        <v>414.7135041305339</v>
+        <v>8.971932133631583</v>
       </c>
       <c r="H32" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>187.7594695105699</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24980,7 +24980,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>279.7493532003235</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -24999,10 +24999,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>140.0198410333367</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
         <v>145.0692123933839</v>
@@ -25014,7 +25014,7 @@
         <v>109.1906224126114</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25056,10 +25056,10 @@
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>170.4339590923984</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -25072,7 +25072,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>140.8555754337624</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25093,10 +25093,10 @@
         <v>159.8772180037952</v>
       </c>
       <c r="I34" t="n">
-        <v>116.085430306583</v>
+        <v>147.5019580580808</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>74.67247646141476</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25123,7 +25123,7 @@
         <v>165.4090611368575</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>219.4103988718534</v>
       </c>
       <c r="T34" t="n">
         <v>226.8162656893113</v>
@@ -25135,7 +25135,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25151,7 +25151,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>106.1547911609878</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -25163,7 +25163,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>350.8134756622584</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>414.7135041305339</v>
@@ -25205,7 +25205,7 @@
         <v>195.5929138346465</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -25230,28 +25230,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>159.1079591185655</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>88.42191414621006</v>
       </c>
       <c r="F36" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>109.1906224126114</v>
       </c>
       <c r="I36" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25281,16 +25281,16 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
@@ -25363,19 +25363,19 @@
         <v>219.4103988718534</v>
       </c>
       <c r="T37" t="n">
-        <v>187.6214750622408</v>
+        <v>226.8162656893113</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.3046124576955</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>186.7332506408623</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25388,19 +25388,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>1.1344737448091</v>
       </c>
       <c r="G38" t="n">
         <v>414.7135041305339</v>
@@ -25436,7 +25436,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>112.8556863456974</v>
+        <v>77.43656623634419</v>
       </c>
       <c r="S38" t="n">
         <v>195.5929138346465</v>
@@ -25454,7 +25454,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>284.0569217841154</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25467,10 +25467,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
@@ -25479,10 +25479,10 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>25.64403459900841</v>
+        <v>83.04822189417925</v>
       </c>
       <c r="G39" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -25518,16 +25518,16 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
         <v>251.6949831609196</v>
@@ -25536,7 +25536,7 @@
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -25552,13 +25552,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>114.9710806029469</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>167.7266695472104</v>
@@ -25594,10 +25594,10 @@
         <v>64.0297007843443</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>165.4090611368575</v>
       </c>
       <c r="S40" t="n">
-        <v>59.320056923945</v>
+        <v>219.4103988718534</v>
       </c>
       <c r="T40" t="n">
         <v>226.8162656893113</v>
@@ -25634,13 +25634,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>338.4898758322622</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>1.134473744809156</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>8.97193213363164</v>
+        <v>101.8436686652927</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -25682,19 +25682,19 @@
         <v>220.5164804230398</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25704,7 +25704,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>78.52437462028961</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>172.7084989883157</v>
@@ -25713,19 +25713,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>122.0889335547217</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25752,7 +25752,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -25761,16 +25761,16 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -25792,13 +25792,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>40.34495843365664</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>167.7266695472104</v>
+        <v>7.636327599302035</v>
       </c>
       <c r="H43" t="n">
         <v>159.8772180037952</v>
@@ -25831,10 +25831,10 @@
         <v>64.0297007843443</v>
       </c>
       <c r="R43" t="n">
-        <v>165.4090611368575</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>219.4103988718534</v>
       </c>
       <c r="T43" t="n">
         <v>226.8162656893113</v>
@@ -25862,25 +25862,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>320.398395256139</v>
       </c>
       <c r="G44" t="n">
         <v>414.7135041305339</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I44" t="n">
         <v>187.7594695105699</v>
@@ -25919,7 +25919,7 @@
         <v>220.5164804230398</v>
       </c>
       <c r="U44" t="n">
-        <v>117.2849213098432</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -25928,10 +25928,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -25956,13 +25956,13 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>136.9905924308159</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25995,7 +25995,7 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>198.8939788055617</v>
+        <v>194.1642134002432</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
@@ -26004,13 +26004,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -26026,10 +26026,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26080,10 +26080,10 @@
         <v>286.3046124576955</v>
       </c>
       <c r="V46" t="n">
-        <v>213.1612385756534</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>256.0730309166069</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>423709.7149548981</v>
+        <v>423709.7149548979</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>544753.6875147471</v>
+        <v>544753.687514747</v>
       </c>
     </row>
     <row r="6">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>544753.6875147467</v>
+        <v>544753.6875147469</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>544753.687514747</v>
+        <v>544753.6875147468</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>544753.6875147467</v>
+        <v>544753.687514747</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>544753.6875147469</v>
+        <v>544753.6875147467</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>544753.687514747</v>
+        <v>544753.6875147466</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>544753.6875147469</v>
+        <v>544753.6875147467</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>544753.687514747</v>
+        <v>544753.6875147473</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>544753.687514747</v>
+        <v>544753.6875147471</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>544753.6875147466</v>
+        <v>544753.6875147471</v>
       </c>
     </row>
   </sheetData>
@@ -26314,16 +26314,16 @@
         <v>157852.6389047658</v>
       </c>
       <c r="C2" t="n">
+        <v>157852.6389047658</v>
+      </c>
+      <c r="D2" t="n">
         <v>157852.6389047657</v>
       </c>
-      <c r="D2" t="n">
-        <v>157852.6389047658</v>
-      </c>
       <c r="E2" t="n">
+        <v>202947.4522113762</v>
+      </c>
+      <c r="F2" t="n">
         <v>202947.4522113763</v>
-      </c>
-      <c r="F2" t="n">
-        <v>202947.4522113762</v>
       </c>
       <c r="G2" t="n">
         <v>202947.4522113762</v>
@@ -26338,13 +26338,13 @@
         <v>202947.4522113762</v>
       </c>
       <c r="K2" t="n">
-        <v>202947.4522113762</v>
+        <v>202947.4522113763</v>
       </c>
       <c r="L2" t="n">
         <v>202947.4522113763</v>
       </c>
       <c r="M2" t="n">
-        <v>202947.4522113762</v>
+        <v>202947.4522113763</v>
       </c>
       <c r="N2" t="n">
         <v>202947.4522113763</v>
@@ -26353,7 +26353,7 @@
         <v>202947.4522113762</v>
       </c>
       <c r="P2" t="n">
-        <v>202947.4522113762</v>
+        <v>202947.4522113763</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154773</v>
+        <v>80769.43153154774</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>41050.6978624479</v>
+        <v>41050.69786244789</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3448.11787725023</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="C4" t="n">
-        <v>3448.117877250231</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="D4" t="n">
-        <v>3448.117877250231</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="E4" t="n">
-        <v>3643.493181240739</v>
+        <v>305.9587030485383</v>
       </c>
       <c r="F4" t="n">
-        <v>3643.493181240739</v>
+        <v>305.9587030485383</v>
       </c>
       <c r="G4" t="n">
-        <v>3643.493181240739</v>
+        <v>305.9587030485383</v>
       </c>
       <c r="H4" t="n">
-        <v>3643.493181240739</v>
+        <v>305.9587030485384</v>
       </c>
       <c r="I4" t="n">
-        <v>3643.493181240739</v>
+        <v>305.9587030485383</v>
       </c>
       <c r="J4" t="n">
-        <v>3643.493181240739</v>
+        <v>305.9587030485383</v>
       </c>
       <c r="K4" t="n">
-        <v>3643.493181240739</v>
+        <v>305.9587030485384</v>
       </c>
       <c r="L4" t="n">
-        <v>3643.493181240739</v>
+        <v>305.9587030485384</v>
       </c>
       <c r="M4" t="n">
-        <v>3643.493181240739</v>
+        <v>305.9587030485383</v>
       </c>
       <c r="N4" t="n">
-        <v>3643.493181240739</v>
+        <v>305.9587030485383</v>
       </c>
       <c r="O4" t="n">
-        <v>3643.493181240739</v>
+        <v>305.9587030485383</v>
       </c>
       <c r="P4" t="n">
-        <v>3643.493181240739</v>
+        <v>305.9587030485383</v>
       </c>
     </row>
     <row r="5">
@@ -26476,16 +26476,16 @@
         <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
+        <v>27864.35291375756</v>
+      </c>
+      <c r="F5" t="n">
         <v>27864.35291375757</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>27864.35291375756</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
         <v>27864.35291375757</v>
-      </c>
-      <c r="H5" t="n">
-        <v>27864.35291375756</v>
       </c>
       <c r="I5" t="n">
         <v>27864.35291375756</v>
@@ -26494,16 +26494,16 @@
         <v>27864.35291375756</v>
       </c>
       <c r="K5" t="n">
-        <v>27864.35291375756</v>
+        <v>27864.35291375757</v>
       </c>
       <c r="L5" t="n">
-        <v>27864.35291375756</v>
+        <v>27864.35291375757</v>
       </c>
       <c r="M5" t="n">
         <v>27864.35291375756</v>
       </c>
       <c r="N5" t="n">
-        <v>27864.35291375756</v>
+        <v>27864.35291375757</v>
       </c>
       <c r="O5" t="n">
         <v>27864.35291375756</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>25353.82073220614</v>
+        <v>28622.4061117524</v>
       </c>
       <c r="C6" t="n">
-        <v>106123.2522637538</v>
+        <v>109391.8376433002</v>
       </c>
       <c r="D6" t="n">
-        <v>106123.2522637539</v>
+        <v>109391.8376433001</v>
       </c>
       <c r="E6" t="n">
-        <v>4499.435991131199</v>
+        <v>7836.970469323427</v>
       </c>
       <c r="F6" t="n">
-        <v>171439.6061163779</v>
+        <v>174777.1405945701</v>
       </c>
       <c r="G6" t="n">
-        <v>171439.6061163779</v>
+        <v>174777.1405945701</v>
       </c>
       <c r="H6" t="n">
-        <v>171439.6061163779</v>
+        <v>174777.1405945701</v>
       </c>
       <c r="I6" t="n">
-        <v>171439.6061163779</v>
+        <v>174777.1405945701</v>
       </c>
       <c r="J6" t="n">
-        <v>108379.6635172716</v>
+        <v>111717.1979954639</v>
       </c>
       <c r="K6" t="n">
-        <v>171439.6061163779</v>
+        <v>174777.1405945702</v>
       </c>
       <c r="L6" t="n">
-        <v>171439.606116378</v>
+        <v>174777.1405945702</v>
       </c>
       <c r="M6" t="n">
-        <v>130388.90825393</v>
+        <v>133726.4427321223</v>
       </c>
       <c r="N6" t="n">
-        <v>171439.606116378</v>
+        <v>174777.1405945701</v>
       </c>
       <c r="O6" t="n">
-        <v>171439.6061163779</v>
+        <v>174777.1405945701</v>
       </c>
       <c r="P6" t="n">
-        <v>171439.6061163779</v>
+        <v>174777.1405945702</v>
       </c>
     </row>
   </sheetData>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>164.7272831192433</v>
+        <v>164.7272831192432</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>164.7272831192433</v>
+        <v>164.7272831192432</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>164.7272831192433</v>
+        <v>164.7272831192432</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5892333846011535</v>
+        <v>0.5892333846011534</v>
       </c>
       <c r="H11" t="n">
-        <v>6.034486400046565</v>
+        <v>6.034486400046564</v>
       </c>
       <c r="I11" t="n">
         <v>22.71642005983599</v>
       </c>
       <c r="J11" t="n">
-        <v>50.0104469762922</v>
+        <v>50.01044697629219</v>
       </c>
       <c r="K11" t="n">
-        <v>74.95269614645905</v>
+        <v>74.95269614645902</v>
       </c>
       <c r="L11" t="n">
-        <v>92.98544734044661</v>
+        <v>92.9854473404466</v>
       </c>
       <c r="M11" t="n">
-        <v>103.4642265438474</v>
+        <v>103.4642265438473</v>
       </c>
       <c r="N11" t="n">
         <v>105.1383858978454</v>
       </c>
       <c r="O11" t="n">
-        <v>99.27919642971769</v>
+        <v>99.27919642971766</v>
       </c>
       <c r="P11" t="n">
-        <v>84.73249724737668</v>
+        <v>84.73249724737667</v>
       </c>
       <c r="Q11" t="n">
-        <v>63.63057666134786</v>
+        <v>63.63057666134785</v>
       </c>
       <c r="R11" t="n">
-        <v>37.01343159545224</v>
+        <v>37.01343159545223</v>
       </c>
       <c r="S11" t="n">
         <v>13.4271557515988</v>
       </c>
       <c r="T11" t="n">
-        <v>2.579369141091551</v>
+        <v>2.57936914109155</v>
       </c>
       <c r="U11" t="n">
-        <v>0.04713867076809227</v>
+        <v>0.04713867076809226</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,43 +31829,43 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.3152676547891929</v>
+        <v>0.3152676547891928</v>
       </c>
       <c r="H12" t="n">
         <v>3.0448218238851</v>
       </c>
       <c r="I12" t="n">
-        <v>10.85461004427704</v>
+        <v>10.85461004427703</v>
       </c>
       <c r="J12" t="n">
-        <v>29.78587961321932</v>
+        <v>29.78587961321931</v>
       </c>
       <c r="K12" t="n">
         <v>50.90881248409524</v>
       </c>
       <c r="L12" t="n">
-        <v>68.45318092253946</v>
+        <v>68.45318092253945</v>
       </c>
       <c r="M12" t="n">
-        <v>79.88163340864767</v>
+        <v>79.88163340864766</v>
       </c>
       <c r="N12" t="n">
-        <v>81.99586254975593</v>
+        <v>81.99586254975591</v>
       </c>
       <c r="O12" t="n">
-        <v>75.0101950410059</v>
+        <v>75.01019504100589</v>
       </c>
       <c r="P12" t="n">
-        <v>60.20229453601702</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>40.2436395832661</v>
+        <v>40.24363958326609</v>
       </c>
       <c r="R12" t="n">
-        <v>19.57424965436762</v>
+        <v>19.57424965436761</v>
       </c>
       <c r="S12" t="n">
-        <v>5.855958412422066</v>
+        <v>5.855958412422065</v>
       </c>
       <c r="T12" t="n">
         <v>1.270749889259948</v>
@@ -31908,19 +31908,19 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2643098112483455</v>
+        <v>0.2643098112483454</v>
       </c>
       <c r="H13" t="n">
         <v>2.349954503644382</v>
       </c>
       <c r="I13" t="n">
-        <v>7.948516869177519</v>
+        <v>7.948516869177517</v>
       </c>
       <c r="J13" t="n">
         <v>18.68670365525802</v>
       </c>
       <c r="K13" t="n">
-        <v>30.70799443412595</v>
+        <v>30.70799443412594</v>
       </c>
       <c r="L13" t="n">
         <v>39.29566048323129</v>
@@ -31932,7 +31932,7 @@
         <v>40.44660957039456</v>
       </c>
       <c r="O13" t="n">
-        <v>37.3589904117207</v>
+        <v>37.35899041172069</v>
       </c>
       <c r="P13" t="n">
         <v>31.96707026225442</v>
@@ -31941,16 +31941,16 @@
         <v>22.13234246735009</v>
       </c>
       <c r="R13" t="n">
-        <v>11.88433024031197</v>
+        <v>11.88433024031196</v>
       </c>
       <c r="S13" t="n">
-        <v>4.606199165118891</v>
+        <v>4.60619916511889</v>
       </c>
       <c r="T13" t="n">
         <v>1.129323738970203</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01441689879536432</v>
+        <v>0.01441689879536431</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32087,16 +32087,16 @@
         <v>79.88163340864766</v>
       </c>
       <c r="N15" t="n">
-        <v>81.99586254975591</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>75.01019504100589</v>
       </c>
       <c r="P15" t="n">
-        <v>60.20229453601701</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>40.24363958326609</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>19.57424965436761</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5892333846011535</v>
+        <v>0.5892333846011534</v>
       </c>
       <c r="H17" t="n">
-        <v>6.034486400046565</v>
+        <v>6.034486400046564</v>
       </c>
       <c r="I17" t="n">
         <v>22.71642005983599</v>
       </c>
       <c r="J17" t="n">
-        <v>50.0104469762922</v>
+        <v>50.01044697629219</v>
       </c>
       <c r="K17" t="n">
-        <v>74.95269614645905</v>
+        <v>74.95269614645902</v>
       </c>
       <c r="L17" t="n">
-        <v>92.98544734044661</v>
+        <v>92.9854473404466</v>
       </c>
       <c r="M17" t="n">
-        <v>103.4642265438474</v>
+        <v>103.4642265438473</v>
       </c>
       <c r="N17" t="n">
         <v>105.1383858978454</v>
       </c>
       <c r="O17" t="n">
-        <v>99.27919642971769</v>
+        <v>99.27919642971766</v>
       </c>
       <c r="P17" t="n">
-        <v>84.73249724737668</v>
+        <v>84.73249724737667</v>
       </c>
       <c r="Q17" t="n">
-        <v>63.63057666134786</v>
+        <v>63.63057666134785</v>
       </c>
       <c r="R17" t="n">
-        <v>37.01343159545224</v>
+        <v>37.01343159545223</v>
       </c>
       <c r="S17" t="n">
         <v>13.4271557515988</v>
       </c>
       <c r="T17" t="n">
-        <v>2.579369141091551</v>
+        <v>2.57936914109155</v>
       </c>
       <c r="U17" t="n">
-        <v>0.04713867076809227</v>
+        <v>0.04713867076809226</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,43 +32303,43 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.3152676547891929</v>
+        <v>0.3152676547891928</v>
       </c>
       <c r="H18" t="n">
         <v>3.0448218238851</v>
       </c>
       <c r="I18" t="n">
-        <v>10.85461004427704</v>
+        <v>10.85461004427703</v>
       </c>
       <c r="J18" t="n">
-        <v>29.78587961321932</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>50.90881248409524</v>
       </c>
       <c r="L18" t="n">
-        <v>68.45318092253946</v>
+        <v>68.45318092253945</v>
       </c>
       <c r="M18" t="n">
-        <v>79.88163340864767</v>
+        <v>79.88163340864766</v>
       </c>
       <c r="N18" t="n">
-        <v>81.99586254975593</v>
+        <v>81.99586254975591</v>
       </c>
       <c r="O18" t="n">
-        <v>75.0101950410059</v>
+        <v>75.01019504100589</v>
       </c>
       <c r="P18" t="n">
-        <v>60.20229453601702</v>
+        <v>60.20229453601701</v>
       </c>
       <c r="Q18" t="n">
-        <v>40.2436395832661</v>
+        <v>40.24363958326609</v>
       </c>
       <c r="R18" t="n">
-        <v>19.57424965436762</v>
+        <v>19.57424965436761</v>
       </c>
       <c r="S18" t="n">
-        <v>5.855958412422066</v>
+        <v>5.855958412422065</v>
       </c>
       <c r="T18" t="n">
         <v>1.270749889259948</v>
@@ -32382,19 +32382,19 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2643098112483455</v>
+        <v>0.2643098112483454</v>
       </c>
       <c r="H19" t="n">
         <v>2.349954503644382</v>
       </c>
       <c r="I19" t="n">
-        <v>7.948516869177519</v>
+        <v>7.948516869177517</v>
       </c>
       <c r="J19" t="n">
         <v>18.68670365525802</v>
       </c>
       <c r="K19" t="n">
-        <v>30.70799443412595</v>
+        <v>30.70799443412594</v>
       </c>
       <c r="L19" t="n">
         <v>39.29566048323129</v>
@@ -32406,7 +32406,7 @@
         <v>40.44660957039456</v>
       </c>
       <c r="O19" t="n">
-        <v>37.3589904117207</v>
+        <v>37.35899041172069</v>
       </c>
       <c r="P19" t="n">
         <v>31.96707026225442</v>
@@ -32415,16 +32415,16 @@
         <v>22.13234246735009</v>
       </c>
       <c r="R19" t="n">
-        <v>11.88433024031197</v>
+        <v>11.88433024031196</v>
       </c>
       <c r="S19" t="n">
-        <v>4.606199165118891</v>
+        <v>4.60619916511889</v>
       </c>
       <c r="T19" t="n">
         <v>1.129323738970203</v>
       </c>
       <c r="U19" t="n">
-        <v>0.01441689879536432</v>
+        <v>0.01441689879536431</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32570,7 +32570,7 @@
         <v>60.20229453601701</v>
       </c>
       <c r="Q21" t="n">
-        <v>40.24363958326609</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>19.57424965436761</v>
@@ -32792,19 +32792,19 @@
         <v>50.90881248409524</v>
       </c>
       <c r="L24" t="n">
-        <v>68.45318092253945</v>
+        <v>60.38869664009229</v>
       </c>
       <c r="M24" t="n">
-        <v>79.88163340864766</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>81.99586254975591</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>75.01019504100589</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>60.20229453601701</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>40.24363958326609</v>
@@ -33023,19 +33023,19 @@
         <v>10.85461004427703</v>
       </c>
       <c r="J27" t="n">
-        <v>29.78587961321931</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
-        <v>50.90881248409524</v>
+        <v>5.124307834126199</v>
       </c>
       <c r="L27" t="n">
-        <v>68.45318092253945</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>79.88163340864766</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>81.99586254975591</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>75.01019504100589</v>
@@ -33266,13 +33266,13 @@
         <v>50.90881248409524</v>
       </c>
       <c r="L30" t="n">
-        <v>68.45318092253945</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>79.88163340864766</v>
       </c>
       <c r="N30" t="n">
-        <v>81.99586254975591</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>75.01019504100589</v>
@@ -33281,7 +33281,7 @@
         <v>60.20229453601701</v>
       </c>
       <c r="Q30" t="n">
-        <v>40.24363958326609</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>19.57424965436761</v>
@@ -33497,7 +33497,7 @@
         <v>10.85461004427703</v>
       </c>
       <c r="J33" t="n">
-        <v>29.78587961321931</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>50.90881248409524</v>
@@ -33506,7 +33506,7 @@
         <v>68.45318092253945</v>
       </c>
       <c r="M33" t="n">
-        <v>79.88163340864766</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>81.99586254975591</v>
@@ -33734,7 +33734,7 @@
         <v>10.85461004427703</v>
       </c>
       <c r="J36" t="n">
-        <v>29.78587961321931</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>50.90881248409524</v>
@@ -33749,7 +33749,7 @@
         <v>81.99586254975591</v>
       </c>
       <c r="O36" t="n">
-        <v>75.01019504100589</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>60.20229453601701</v>
@@ -33980,13 +33980,13 @@
         <v>68.45318092253945</v>
       </c>
       <c r="M39" t="n">
-        <v>79.88163340864766</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>81.99586254975591</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>75.01019504100589</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>60.20229453601701</v>
@@ -34208,7 +34208,7 @@
         <v>10.85461004427703</v>
       </c>
       <c r="J42" t="n">
-        <v>29.78587961321931</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>50.90881248409524</v>
@@ -34220,7 +34220,7 @@
         <v>79.88163340864766</v>
       </c>
       <c r="N42" t="n">
-        <v>81.99586254975591</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>75.01019504100589</v>
@@ -34451,13 +34451,13 @@
         <v>50.90881248409524</v>
       </c>
       <c r="L45" t="n">
-        <v>68.45318092253945</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>79.88163340864766</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>81.99586254975591</v>
+        <v>57.74090973668206</v>
       </c>
       <c r="O45" t="n">
         <v>75.01019504100589</v>
@@ -34781,19 +34781,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>232.285965523585</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="M3" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>43.28534947792182</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
         <v>70.09551364982758</v>
@@ -35018,7 +35018,7 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>161.1784674257276</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35027,7 +35027,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="P6" t="n">
         <v>184.4883612256069</v>
@@ -35255,13 +35255,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>161.1784674257276</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
@@ -35407,10 +35407,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>38.06115762167968</v>
+        <v>38.06115762167967</v>
       </c>
       <c r="K11" t="n">
-        <v>179.0082576726433</v>
+        <v>179.0082576726432</v>
       </c>
       <c r="L11" t="n">
         <v>274.8802469209098</v>
@@ -35428,7 +35428,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q11" t="n">
-        <v>53.63987744680306</v>
+        <v>53.63987744680304</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,25 +35486,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>29.03928828696146</v>
       </c>
       <c r="K12" t="n">
-        <v>177.5326105223149</v>
+        <v>177.5326105223148</v>
       </c>
       <c r="L12" t="n">
-        <v>48.8789177282863</v>
+        <v>300.7391464461244</v>
       </c>
       <c r="M12" t="n">
-        <v>403.4526632366293</v>
+        <v>403.4526632366292</v>
       </c>
       <c r="N12" t="n">
         <v>405.7415719969023</v>
       </c>
       <c r="O12" t="n">
-        <v>326.276269873291</v>
+        <v>290.0674086301152</v>
       </c>
       <c r="P12" t="n">
-        <v>244.6906557616239</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35568,22 +35568,22 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>8.438502608243095</v>
+        <v>8.438502608243091</v>
       </c>
       <c r="L13" t="n">
-        <v>66.88568574354744</v>
+        <v>66.88568574354743</v>
       </c>
       <c r="M13" t="n">
         <v>81.01564128325168</v>
       </c>
       <c r="N13" t="n">
-        <v>84.57878194962316</v>
+        <v>84.57878194962315</v>
       </c>
       <c r="O13" t="n">
-        <v>61.94411832576037</v>
+        <v>61.94411832576036</v>
       </c>
       <c r="P13" t="n">
-        <v>29.24562952714791</v>
+        <v>29.2456295271479</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>29.03928828696146</v>
       </c>
       <c r="K15" t="n">
         <v>177.5326105223148</v>
@@ -35735,16 +35735,16 @@
         <v>403.4526632366292</v>
       </c>
       <c r="N15" t="n">
-        <v>43.54219004597032</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O15" t="n">
         <v>326.276269873291</v>
       </c>
       <c r="P15" t="n">
-        <v>244.6906557616239</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>110.3391532330937</v>
+        <v>21.53204849350661</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35881,10 +35881,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>38.06115762167968</v>
+        <v>38.06115762167967</v>
       </c>
       <c r="K17" t="n">
-        <v>179.0082576726433</v>
+        <v>179.0082576726432</v>
       </c>
       <c r="L17" t="n">
         <v>274.8802469209098</v>
@@ -35902,7 +35902,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q17" t="n">
-        <v>53.63987744680306</v>
+        <v>53.63987744680304</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35963,13 +35963,13 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>177.5326105223148</v>
       </c>
       <c r="L18" t="n">
         <v>300.7391464461244</v>
       </c>
       <c r="M18" t="n">
-        <v>218.7858918080123</v>
+        <v>41.25328128569732</v>
       </c>
       <c r="N18" t="n">
         <v>405.7415719969023</v>
@@ -36042,22 +36042,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>8.438502608243095</v>
+        <v>8.438502608243091</v>
       </c>
       <c r="L19" t="n">
-        <v>66.88568574354744</v>
+        <v>66.88568574354743</v>
       </c>
       <c r="M19" t="n">
         <v>81.01564128325168</v>
       </c>
       <c r="N19" t="n">
-        <v>84.57878194962316</v>
+        <v>84.57878194962315</v>
       </c>
       <c r="O19" t="n">
-        <v>61.94411832576037</v>
+        <v>61.94411832576036</v>
       </c>
       <c r="P19" t="n">
-        <v>29.24562952714791</v>
+        <v>29.2456295271479</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36200,16 +36200,16 @@
         <v>29.03928828696146</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>177.5326105223148</v>
       </c>
       <c r="L21" t="n">
         <v>300.7391464461244</v>
       </c>
       <c r="M21" t="n">
-        <v>403.4526632366292</v>
+        <v>52.45763258200225</v>
       </c>
       <c r="N21" t="n">
-        <v>302.3746655144175</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="O21" t="n">
         <v>326.276269873291</v>
@@ -36218,7 +36218,7 @@
         <v>244.6906557616239</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>29.03928828696146</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>177.5326105223148</v>
       </c>
       <c r="L24" t="n">
-        <v>116.0723750175074</v>
+        <v>292.6746621636773</v>
       </c>
       <c r="M24" t="n">
-        <v>403.4526632366292</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N24" t="n">
-        <v>405.7415719969023</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O24" t="n">
-        <v>326.276269873291</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P24" t="n">
-        <v>244.6906557616239</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>110.3391532330937</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36671,19 +36671,19 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>29.03928828696146</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>177.5326105223148</v>
+        <v>131.7481058723458</v>
       </c>
       <c r="L27" t="n">
-        <v>300.7391464461244</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>12.21399299873585</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N27" t="n">
-        <v>405.7415719969023</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O27" t="n">
         <v>326.276269873291</v>
@@ -36692,7 +36692,7 @@
         <v>244.6906557616239</v>
       </c>
       <c r="Q27" t="n">
-        <v>110.3391532330937</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36908,19 +36908,19 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>29.03928828696146</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>177.5326105223148</v>
       </c>
       <c r="L30" t="n">
-        <v>300.7391464461244</v>
+        <v>7.485025528179585</v>
       </c>
       <c r="M30" t="n">
         <v>403.4526632366292</v>
       </c>
       <c r="N30" t="n">
-        <v>331.413953801379</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O30" t="n">
         <v>326.276269873291</v>
@@ -36929,7 +36929,7 @@
         <v>244.6906557616239</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>29.03928828696146</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>177.5326105223148</v>
@@ -37154,19 +37154,19 @@
         <v>300.7391464461244</v>
       </c>
       <c r="M33" t="n">
-        <v>256.9046487603597</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N33" t="n">
-        <v>405.7415719969023</v>
+        <v>233.762976687712</v>
       </c>
       <c r="O33" t="n">
         <v>326.276269873291</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>244.6906557616239</v>
       </c>
       <c r="Q33" t="n">
-        <v>110.3391532330937</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37382,13 +37382,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>29.03928828696146</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>0.6825768454825304</v>
       </c>
       <c r="L36" t="n">
-        <v>87.03308673054588</v>
+        <v>300.7391464461244</v>
       </c>
       <c r="M36" t="n">
         <v>403.4526632366292</v>
@@ -37397,13 +37397,13 @@
         <v>405.7415719969023</v>
       </c>
       <c r="O36" t="n">
-        <v>326.276269873291</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P36" t="n">
         <v>244.6906557616239</v>
       </c>
       <c r="Q36" t="n">
-        <v>110.3391532330937</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37622,22 +37622,22 @@
         <v>29.03928828696146</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>109.2658317038509</v>
       </c>
       <c r="L39" t="n">
         <v>300.7391464461244</v>
       </c>
       <c r="M39" t="n">
-        <v>403.4526632366292</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N39" t="n">
-        <v>405.7415719969023</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O39" t="n">
-        <v>326.276269873291</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P39" t="n">
-        <v>141.323749279139</v>
+        <v>244.6906557616239</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37777,7 +37777,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>38.06115762167952</v>
+        <v>38.06115762167967</v>
       </c>
       <c r="K41" t="n">
         <v>179.0082576726432</v>
@@ -37795,7 +37795,7 @@
         <v>249.9811662707763</v>
       </c>
       <c r="P41" t="n">
-        <v>175.2982096635898</v>
+        <v>175.2982096635897</v>
       </c>
       <c r="Q41" t="n">
         <v>53.63987744680304</v>
@@ -37859,7 +37859,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>177.5326105223148</v>
       </c>
       <c r="L42" t="n">
         <v>300.7391464461244</v>
@@ -37868,16 +37868,16 @@
         <v>403.4526632366292</v>
       </c>
       <c r="N42" t="n">
-        <v>405.7415719969023</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O42" t="n">
-        <v>326.276269873291</v>
+        <v>266.508453420665</v>
       </c>
       <c r="P42" t="n">
-        <v>170.3630375661004</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>110.3391532330937</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38014,7 +38014,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>38.06115762167952</v>
+        <v>38.06115762167967</v>
       </c>
       <c r="K44" t="n">
         <v>179.0082576726432</v>
@@ -38093,16 +38093,16 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>29.03928828696146</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>177.5326105223148</v>
       </c>
       <c r="L45" t="n">
-        <v>300.7391464461244</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>403.4526632366292</v>
+        <v>312.9531394448603</v>
       </c>
       <c r="N45" t="n">
         <v>405.7415719969023</v>
@@ -38111,10 +38111,10 @@
         <v>326.276269873291</v>
       </c>
       <c r="P45" t="n">
-        <v>170.3630375661004</v>
+        <v>244.6906557616239</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>110.3391532330937</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_0_19.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_0_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>963440.6657494416</v>
+        <v>1043895.482110128</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>434341.5373293751</v>
+        <v>537057.177662311</v>
       </c>
     </row>
     <row r="8">
@@ -661,13 +661,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="E2" t="n">
-        <v>52.42556848774763</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -703,10 +703,10 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>241.0142888776591</v>
@@ -740,10 +740,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>104.5865004745176</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -785,19 +785,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -806,7 +806,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>70.64856914772001</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -870,16 +870,16 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -907,7 +907,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>241.0142888776591</v>
+        <v>94.41048699370604</v>
       </c>
       <c r="G5" t="n">
         <v>241.0142888776591</v>
@@ -940,19 +940,19 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="6">
@@ -992,7 +992,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>21.72616046616697</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1031,7 +1031,7 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>29.8169472598111</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1040,7 +1040,7 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1107,10 +1107,10 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="U7" t="n">
-        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1138,25 +1138,25 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="G8" t="n">
-        <v>200.3360962888296</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>52.42556848774763</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1177,10 +1177,10 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1211,7 +1211,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -1220,7 +1220,7 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -1229,7 +1229,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>29.79900896488263</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1271,10 +1271,10 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>179.4356208866987</v>
       </c>
       <c r="W9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0</v>
-      </c>
-      <c r="W10" t="n">
-        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1378,13 +1378,13 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>276.1565137023555</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>276.1565137023555</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>276.1565137023555</v>
+        <v>180.7124674296864</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>141.0252816852793</v>
       </c>
       <c r="S11" t="n">
-        <v>102.2133755837553</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>222.4795457699687</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.3343897888113</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1448,7 +1448,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -1457,7 +1457,7 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -1466,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>95.48084390037957</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -1505,16 +1505,16 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9364262421938</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>138.1354816483323</v>
+        <v>165.4379026956472</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
         <v>205.6826957773044</v>
@@ -1536,10 +1536,10 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>29.71014592494667</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1584,7 +1584,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>175.1311939478779</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1618,64 +1618,64 @@
         <v>276.1565137023555</v>
       </c>
       <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>276.1565137023555</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" t="n">
         <v>243.2386572690346</v>
       </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0</v>
-      </c>
-      <c r="W14" t="n">
-        <v>0</v>
-      </c>
-      <c r="X14" t="n">
-        <v>0</v>
-      </c>
       <c r="Y14" t="n">
-        <v>276.1565137023555</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1685,28 +1685,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>64.29601759752872</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.2681884137393</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>86.80307722268739</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>170.2839726213331</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -1745,7 +1745,7 @@
         <v>225.9364262421938</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
@@ -1754,7 +1754,7 @@
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>150.0771768275735</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -1764,61 +1764,61 @@
         </is>
       </c>
       <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0</v>
+      </c>
+      <c r="T16" t="n">
         <v>175.1311939478779</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>0</v>
-      </c>
-      <c r="R16" t="n">
-        <v>0</v>
-      </c>
-      <c r="S16" t="n">
-        <v>0</v>
-      </c>
-      <c r="T16" t="n">
-        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1849,7 +1849,7 @@
         <v>276.1565137023555</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1858,61 +1858,61 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
+        <v>102.2133755837553</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>141.0252816852793</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="n">
         <v>276.1565137023555</v>
       </c>
-      <c r="H17" t="n">
-        <v>243.2386572690346</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0</v>
-      </c>
-      <c r="V17" t="n">
-        <v>0</v>
-      </c>
-      <c r="W17" t="n">
-        <v>0</v>
-      </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>276.1565137023555</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1931,10 +1931,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>170.2839726213331</v>
       </c>
       <c r="T18" t="n">
         <v>199.8611009721718</v>
@@ -1985,7 +1985,7 @@
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>43.20625479871248</v>
+        <v>175.6365750261641</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -2013,7 +2013,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>21.57990476584698</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>153.551289182031</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2064,7 +2064,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>175.1311939478779</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2086,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>276.1565137023555</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -2095,10 +2095,10 @@
         <v>276.1565137023555</v>
       </c>
       <c r="G20" t="n">
-        <v>102.2133755837553</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="H20" t="n">
-        <v>276.1565137023555</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>141.0252816852793</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>205.8118405263978</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>172.558048759713</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2162,25 +2162,25 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>90.28105344137759</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>86.80307722268739</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2219,13 +2219,13 @@
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>70.55078644096655</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2298,16 +2298,16 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0</v>
+      </c>
+      <c r="X22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y22" t="n">
         <v>175.1311939478779</v>
-      </c>
-      <c r="W22" t="n">
-        <v>0</v>
-      </c>
-      <c r="X22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2326,10 +2326,10 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>188.6735913608593</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>414.3670737191223</v>
@@ -2338,7 +2338,7 @@
         <v>329.8924352648517</v>
       </c>
       <c r="I23" t="n">
-        <v>174.4037110746249</v>
+        <v>77.50882484255426</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2365,19 +2365,19 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>91.09422701486459</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>187.6986308346051</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>218.9999812970856</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2396,13 +2396,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>74.67260631750172</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>120.1336945078971</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
         <v>157.6450804554009</v>
@@ -2414,10 +2414,10 @@
         <v>136.8428928972591</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>107.4004677732277</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>72.16022720352242</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2447,10 +2447,10 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>162.3842949358346</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>198.1468615877626</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>225.9084462740043</v>
@@ -2459,7 +2459,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
@@ -2526,16 +2526,16 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" t="n">
         <v>166.4440780709521</v>
-      </c>
-      <c r="T25" t="n">
-        <v>0</v>
-      </c>
-      <c r="U25" t="n">
-        <v>0</v>
-      </c>
-      <c r="V25" t="n">
-        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2560,19 +2560,19 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>270.5406841264846</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>414.3670737191223</v>
       </c>
       <c r="H26" t="n">
-        <v>329.8924352648517</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2602,7 +2602,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>91.09422701486459</v>
+        <v>20.44739997965285</v>
       </c>
       <c r="S26" t="n">
         <v>187.6986308346051</v>
@@ -2611,13 +2611,13 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.2707998041555</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -2633,7 +2633,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
@@ -2645,10 +2645,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>136.8428928972591</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2687,10 +2687,10 @@
         <v>162.3842949358346</v>
       </c>
       <c r="T27" t="n">
-        <v>198.1468615877626</v>
+        <v>124.9134925735787</v>
       </c>
       <c r="U27" t="n">
-        <v>62.28101369711855</v>
+        <v>225.9084462740043</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
@@ -2699,7 +2699,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>205.6826957773044</v>
@@ -2769,13 +2769,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2961362709901</v>
+        <v>166.4440780709521</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>166.670940136553</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2791,19 +2791,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>256.3896096007526</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -2848,16 +2848,16 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2707998041555</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>68.27535471293737</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2876,7 +2876,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>157.6450804554009</v>
@@ -2885,13 +2885,13 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>136.8428928972591</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>72.16022720352242</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,16 +2918,16 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>69.07521525435415</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>124.5080843688804</v>
+        <v>162.3842949358346</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>198.1468615877626</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9084462740043</v>
+        <v>209.7260792617571</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
@@ -2939,7 +2939,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -2955,22 +2955,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>167.571272790944</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>12.49659271983035</v>
       </c>
       <c r="I31" t="n">
-        <v>142.8287537878153</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3003,7 +3003,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>142.5670498287837</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3037,19 +3037,19 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>414.3670737191223</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>329.8924352648517</v>
       </c>
       <c r="I32" t="n">
-        <v>174.4037110746249</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3076,16 +3076,16 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>91.0942270148646</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>218.9999812970856</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2707998041555</v>
+        <v>211.2581737255366</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3094,10 +3094,10 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>6.494991288054261</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3107,7 +3107,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>152.6750772598205</v>
+        <v>2.905751072981497</v>
       </c>
       <c r="C33" t="n">
         <v>172.7084989883157</v>
@@ -3119,10 +3119,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>136.8428928972591</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3164,7 +3164,7 @@
         <v>198.1468615877626</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9084462740043</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
@@ -3173,7 +3173,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
         <v>205.6826957773044</v>
@@ -3204,10 +3204,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>158.4955995708086</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>7.948478500143493</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3246,10 +3246,10 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>200.8294330837151</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -3280,7 +3280,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>414.3670737191223</v>
       </c>
       <c r="H35" t="n">
         <v>329.8924352648517</v>
@@ -3313,7 +3313,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>91.0942270148646</v>
       </c>
       <c r="S35" t="n">
         <v>187.6986308346051</v>
@@ -3322,16 +3322,16 @@
         <v>218.9999812970856</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.2707998041555</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>100.0410015569116</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>166.7771339224944</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3350,19 +3350,19 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>136.8428928972591</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>107.4004677732277</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>162.3842949358346</v>
+        <v>146.2019279235879</v>
       </c>
       <c r="T36" t="n">
         <v>198.1468615877626</v>
@@ -3404,13 +3404,13 @@
         <v>225.9084462740043</v>
       </c>
       <c r="V36" t="n">
-        <v>188.3478595609314</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -3435,7 +3435,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>142.8287537878153</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,22 +3471,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>158.4218578960072</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>6.295416700789305</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>166.4440780709521</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3508,16 +3508,16 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>235.6215843783149</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>414.3670737191223</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3550,13 +3550,13 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>64.10636578587561</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>218.9999812970856</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -3568,7 +3568,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3581,10 +3581,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>99.62637924894661</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
@@ -3593,16 +3593,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>136.8428928972591</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>107.4004677732277</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>72.16022720352242</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3632,16 +3632,16 @@
         <v>69.07521525435415</v>
       </c>
       <c r="S39" t="n">
-        <v>96.21483075446218</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>198.1468615877626</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9084462740043</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>251.6949831609196</v>
@@ -3663,13 +3663,13 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>102.7581522775707</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3681,10 +3681,10 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>142.8287537878153</v>
       </c>
       <c r="J40" t="n">
-        <v>63.68592579338139</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -3717,13 +3717,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>15.08888695494621</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3739,10 +3739,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>250.5946873282742</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -3751,10 +3751,10 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>414.3670737191223</v>
+        <v>14.16804465312775</v>
       </c>
       <c r="H41" t="n">
         <v>329.8924352648517</v>
@@ -3787,16 +3787,16 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>91.09422701486459</v>
+        <v>91.0942270148646</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>187.6986308346051</v>
       </c>
       <c r="T41" t="n">
         <v>218.9999812970856</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2707998041555</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3805,10 +3805,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3818,13 +3818,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>157.6450804554009</v>
@@ -3833,7 +3833,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>136.8428928972591</v>
+        <v>36.75466077467553</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3866,10 +3866,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>69.07521525435415</v>
       </c>
       <c r="S42" t="n">
-        <v>83.16781279151334</v>
+        <v>162.3842949358346</v>
       </c>
       <c r="T42" t="n">
         <v>198.1468615877626</v>
@@ -3878,7 +3878,7 @@
         <v>225.9084462740043</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
         <v>251.6949831609196</v>
@@ -3887,7 +3887,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -3909,16 +3909,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>21.02303004802086</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>142.8287537878153</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>83.98602488900923</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>226.1522977307185</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -3960,7 +3960,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3976,22 +3976,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>207.2954276526379</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>414.3670737191223</v>
+        <v>405.3170540365577</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4033,13 +4033,13 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2707998041555</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4055,7 +4055,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
         <v>172.7084989883157</v>
@@ -4064,19 +4064,19 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>47.23264428033649</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>136.8428928972591</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>72.16022720352242</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,10 +4103,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>69.07521525435415</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>146.2019279235876</v>
       </c>
       <c r="T45" t="n">
         <v>198.1468615877626</v>
@@ -4191,13 +4191,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2961362709901</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>166.4440780709521</v>
       </c>
       <c r="W46" t="n">
-        <v>166.670940136553</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4306,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>72.23626279480629</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C2" t="n">
-        <v>72.23626279480629</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="D2" t="n">
-        <v>72.23626279480629</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E2" t="n">
         <v>19.28114311021272</v>
@@ -4351,31 +4351,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R2" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S2" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T2" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U2" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V2" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W2" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X2" t="n">
-        <v>559.1338160830064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y2" t="n">
-        <v>315.6850394389064</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="3">
@@ -4385,10 +4385,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>19.28114311021272</v>
+        <v>273.858482543704</v>
       </c>
       <c r="C3" t="n">
-        <v>19.28114311021272</v>
+        <v>168.215552771464</v>
       </c>
       <c r="D3" t="n">
         <v>19.28114311021272</v>
@@ -4418,43 +4418,43 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
+        <v>374.6018090363993</v>
+      </c>
+      <c r="N3" t="n">
         <v>613.2059550252818</v>
       </c>
-      <c r="N3" t="n">
-        <v>851.8101010141643</v>
-      </c>
       <c r="O3" t="n">
-        <v>851.8101010141643</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P3" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S3" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T3" t="n">
-        <v>761.8705608694022</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U3" t="n">
-        <v>533.6469426057913</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V3" t="n">
-        <v>298.4948343740486</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="W3" t="n">
-        <v>298.4948343740486</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="X3" t="n">
-        <v>90.64333416851576</v>
+        <v>481.618781308658</v>
       </c>
       <c r="Y3" t="n">
-        <v>19.28114311021272</v>
+        <v>273.858482543704</v>
       </c>
     </row>
     <row r="4">
@@ -4518,13 +4518,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W4" t="n">
         <v>19.28114311021272</v>
@@ -4543,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>506.1786963984129</v>
+        <v>358.0940480307835</v>
       </c>
       <c r="C5" t="n">
-        <v>506.1786963984129</v>
+        <v>358.0940480307835</v>
       </c>
       <c r="D5" t="n">
-        <v>506.1786963984129</v>
+        <v>358.0940480307835</v>
       </c>
       <c r="E5" t="n">
-        <v>506.1786963984129</v>
+        <v>358.0940480307835</v>
       </c>
       <c r="F5" t="n">
         <v>262.7299197543128</v>
@@ -4588,31 +4588,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R5" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S5" t="n">
-        <v>953.9655401424092</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T5" t="n">
-        <v>953.9655401424092</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="U5" t="n">
-        <v>749.627473042513</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="V5" t="n">
-        <v>749.627473042513</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="W5" t="n">
-        <v>749.627473042513</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="X5" t="n">
-        <v>749.627473042513</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="Y5" t="n">
-        <v>749.627473042513</v>
+        <v>358.0940480307835</v>
       </c>
     </row>
     <row r="6">
@@ -4622,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>726.0875267598396</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="C6" t="n">
-        <v>726.0875267598396</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="D6" t="n">
-        <v>577.1531170985884</v>
+        <v>485.7295981386596</v>
       </c>
       <c r="E6" t="n">
-        <v>417.9156620931329</v>
+        <v>326.4921431332041</v>
       </c>
       <c r="F6" t="n">
-        <v>271.3811041200179</v>
+        <v>179.9575851600891</v>
       </c>
       <c r="G6" t="n">
-        <v>132.6502787026334</v>
+        <v>41.22675974270462</v>
       </c>
       <c r="H6" t="n">
         <v>19.28114311021272</v>
@@ -4658,40 +4658,40 @@
         <v>613.2059550252818</v>
       </c>
       <c r="N6" t="n">
-        <v>725.4530095217538</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O6" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P6" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U6" t="n">
-        <v>933.9390269653725</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V6" t="n">
-        <v>933.9390269653725</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="W6" t="n">
-        <v>933.9390269653725</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="X6" t="n">
-        <v>726.0875267598396</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="Y6" t="n">
-        <v>726.0875267598396</v>
+        <v>634.6640077999109</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C7" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D7" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E7" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F7" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G7" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H7" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I7" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J7" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K7" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L7" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M7" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N7" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O7" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P7" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q7" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R7" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S7" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T7" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U7" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V7" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W7" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X7" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y7" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>720.6083788665362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="C8" t="n">
-        <v>720.6083788665362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="D8" t="n">
-        <v>720.6083788665362</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="E8" t="n">
-        <v>477.1596022224361</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="F8" t="n">
-        <v>233.7108255783361</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="G8" t="n">
-        <v>31.35113235729608</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="H8" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I8" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4825,31 +4825,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T8" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U8" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V8" t="n">
-        <v>720.6083788665362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W8" t="n">
-        <v>720.6083788665362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X8" t="n">
-        <v>720.6083788665362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="Y8" t="n">
-        <v>720.6083788665362</v>
+        <v>802.5825927271064</v>
       </c>
     </row>
     <row r="9">
@@ -4859,22 +4859,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>49.38115216564972</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="C9" t="n">
-        <v>49.38115216564972</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="D9" t="n">
-        <v>49.38115216564972</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E9" t="n">
-        <v>49.38115216564972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F9" t="n">
-        <v>49.38115216564972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G9" t="n">
-        <v>49.38115216564972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H9" t="n">
         <v>19.28114311021272</v>
@@ -4886,22 +4886,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M9" t="n">
-        <v>613.2059550252818</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N9" t="n">
-        <v>613.2059550252818</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O9" t="n">
-        <v>851.8101010141643</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P9" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
@@ -4919,16 +4919,16 @@
         <v>735.8335372470253</v>
       </c>
       <c r="V9" t="n">
-        <v>500.6814290152826</v>
+        <v>554.5854353412691</v>
       </c>
       <c r="W9" t="n">
-        <v>257.2326523711826</v>
+        <v>554.5854353412691</v>
       </c>
       <c r="X9" t="n">
-        <v>49.38115216564972</v>
+        <v>346.7339351357363</v>
       </c>
       <c r="Y9" t="n">
-        <v>49.38115216564972</v>
+        <v>346.7339351357363</v>
       </c>
     </row>
     <row r="10">
@@ -4992,13 +4992,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W10" t="n">
         <v>19.28114311021272</v>
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>858.9304414063566</v>
+        <v>204.6303669847605</v>
       </c>
       <c r="C11" t="n">
-        <v>858.9304414063566</v>
+        <v>204.6303669847605</v>
       </c>
       <c r="D11" t="n">
-        <v>858.9304414063566</v>
+        <v>204.6303669847605</v>
       </c>
       <c r="E11" t="n">
-        <v>579.9844679696339</v>
+        <v>204.6303669847605</v>
       </c>
       <c r="F11" t="n">
-        <v>301.0384945329112</v>
+        <v>204.6303669847605</v>
       </c>
       <c r="G11" t="n">
         <v>22.09252109618844</v>
@@ -5041,7 +5041,7 @@
         <v>22.09252109618844</v>
       </c>
       <c r="J11" t="n">
-        <v>22.09252109618842</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="K11" t="n">
         <v>142.8373253438683</v>
@@ -5056,7 +5056,7 @@
         <v>817.0829279823542</v>
       </c>
       <c r="O11" t="n">
-        <v>989.7620250901065</v>
+        <v>989.7620250901064</v>
       </c>
       <c r="P11" t="n">
         <v>1099.465256491931</v>
@@ -5068,25 +5068,25 @@
         <v>962.1762753293418</v>
       </c>
       <c r="S11" t="n">
-        <v>858.9304414063566</v>
+        <v>962.1762753293418</v>
       </c>
       <c r="T11" t="n">
-        <v>858.9304414063566</v>
+        <v>737.4494614202825</v>
       </c>
       <c r="U11" t="n">
-        <v>858.9304414063566</v>
+        <v>483.5763404214833</v>
       </c>
       <c r="V11" t="n">
-        <v>858.9304414063566</v>
+        <v>483.5763404214833</v>
       </c>
       <c r="W11" t="n">
-        <v>858.9304414063566</v>
+        <v>483.5763404214833</v>
       </c>
       <c r="X11" t="n">
-        <v>858.9304414063566</v>
+        <v>204.6303669847605</v>
       </c>
       <c r="Y11" t="n">
-        <v>858.9304414063566</v>
+        <v>204.6303669847605</v>
       </c>
     </row>
     <row r="12">
@@ -5096,22 +5096,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>293.964245903103</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="C12" t="n">
-        <v>293.964245903103</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="D12" t="n">
-        <v>293.964245903103</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="E12" t="n">
-        <v>134.7267908976475</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="F12" t="n">
-        <v>134.7267908976475</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="G12" t="n">
-        <v>134.7267908976475</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="H12" t="n">
         <v>22.09252109618844</v>
@@ -5126,46 +5126,46 @@
         <v>165.799003153448</v>
       </c>
       <c r="L12" t="n">
-        <v>411.954469746149</v>
+        <v>165.799003153448</v>
       </c>
       <c r="M12" t="n">
-        <v>411.954469746149</v>
+        <v>439.1939517187799</v>
       </c>
       <c r="N12" t="n">
-        <v>586.0912050994581</v>
+        <v>580.0744699105992</v>
       </c>
       <c r="O12" t="n">
-        <v>852.5880186827419</v>
+        <v>828.8278839945615</v>
       </c>
       <c r="P12" t="n">
-        <v>1035.231496296093</v>
+        <v>1025.71200399185</v>
       </c>
       <c r="Q12" t="n">
         <v>1104.626054809422</v>
       </c>
       <c r="R12" t="n">
-        <v>1104.626054809422</v>
+        <v>1008.180757940352</v>
       </c>
       <c r="S12" t="n">
-        <v>1104.626054809422</v>
+        <v>1008.180757940352</v>
       </c>
       <c r="T12" t="n">
-        <v>1104.626054809422</v>
+        <v>1008.180757940352</v>
       </c>
       <c r="U12" t="n">
-        <v>876.4074424435696</v>
+        <v>1008.180757940352</v>
       </c>
       <c r="V12" t="n">
-        <v>641.2553342118269</v>
+        <v>773.028649708609</v>
       </c>
       <c r="W12" t="n">
-        <v>501.7245446680569</v>
+        <v>605.9196570867432</v>
       </c>
       <c r="X12" t="n">
-        <v>501.7245446680569</v>
+        <v>398.0681568812104</v>
       </c>
       <c r="Y12" t="n">
-        <v>293.964245903103</v>
+        <v>190.3078581162565</v>
       </c>
     </row>
     <row r="13">
@@ -5175,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>198.9927170031359</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="C13" t="n">
-        <v>198.9927170031359</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="D13" t="n">
-        <v>198.9927170031359</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="E13" t="n">
-        <v>168.9824685940988</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="F13" t="n">
         <v>22.09252109618844</v>
@@ -5232,19 +5232,19 @@
         <v>198.9927170031359</v>
       </c>
       <c r="U13" t="n">
-        <v>198.9927170031359</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="V13" t="n">
-        <v>198.9927170031359</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="W13" t="n">
-        <v>198.9927170031359</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="X13" t="n">
-        <v>198.9927170031359</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="Y13" t="n">
-        <v>198.9927170031359</v>
+        <v>22.09252109618844</v>
       </c>
     </row>
     <row r="14">
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>546.7341079359765</v>
+        <v>579.9844679696339</v>
       </c>
       <c r="C14" t="n">
-        <v>546.7341079359765</v>
+        <v>579.9844679696339</v>
       </c>
       <c r="D14" t="n">
-        <v>546.7341079359765</v>
+        <v>579.9844679696339</v>
       </c>
       <c r="E14" t="n">
-        <v>267.7881344992537</v>
+        <v>301.0384945329112</v>
       </c>
       <c r="F14" t="n">
-        <v>22.09252109618844</v>
+        <v>301.0384945329112</v>
       </c>
       <c r="G14" t="n">
         <v>22.09252109618844</v>
@@ -5281,16 +5281,16 @@
         <v>22.09252109618846</v>
       </c>
       <c r="K14" t="n">
-        <v>142.8373253438683</v>
+        <v>142.8373253438684</v>
       </c>
       <c r="L14" t="n">
-        <v>344.9085595412868</v>
+        <v>344.9085595412869</v>
       </c>
       <c r="M14" t="n">
-        <v>586.3582880173956</v>
+        <v>586.3582880173958</v>
       </c>
       <c r="N14" t="n">
-        <v>817.0829279823542</v>
+        <v>817.0829279823544</v>
       </c>
       <c r="O14" t="n">
         <v>989.7620250901066</v>
@@ -5320,10 +5320,10 @@
         <v>1104.626054809422</v>
       </c>
       <c r="X14" t="n">
-        <v>1104.626054809422</v>
+        <v>858.9304414063566</v>
       </c>
       <c r="Y14" t="n">
-        <v>825.6800813726992</v>
+        <v>858.9304414063566</v>
       </c>
     </row>
     <row r="15">
@@ -5333,49 +5333,49 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>556.5989975168616</v>
+        <v>196.5455503773155</v>
       </c>
       <c r="C15" t="n">
-        <v>556.5989975168616</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="D15" t="n">
-        <v>407.6645878556103</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="E15" t="n">
-        <v>248.4271328501548</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="F15" t="n">
-        <v>248.4271328501548</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="G15" t="n">
-        <v>109.772397078701</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="H15" t="n">
-        <v>109.772397078701</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="I15" t="n">
         <v>22.09252109618844</v>
       </c>
       <c r="J15" t="n">
-        <v>22.09252109618844</v>
+        <v>28.39914141318535</v>
       </c>
       <c r="K15" t="n">
-        <v>147.4500811540258</v>
+        <v>28.39914141318535</v>
       </c>
       <c r="L15" t="n">
-        <v>393.6055477467269</v>
+        <v>28.39914141318535</v>
       </c>
       <c r="M15" t="n">
-        <v>667.0004963120588</v>
+        <v>301.7940899785173</v>
       </c>
       <c r="N15" t="n">
-        <v>786.4780822121304</v>
+        <v>575.1890385438492</v>
       </c>
       <c r="O15" t="n">
-        <v>1035.231496296093</v>
+        <v>841.685852127133</v>
       </c>
       <c r="P15" t="n">
-        <v>1035.231496296093</v>
+        <v>1025.71200399185</v>
       </c>
       <c r="Q15" t="n">
         <v>1104.626054809422</v>
@@ -5384,25 +5384,25 @@
         <v>1104.626054809422</v>
       </c>
       <c r="S15" t="n">
-        <v>1104.626054809422</v>
+        <v>932.6220420606005</v>
       </c>
       <c r="T15" t="n">
-        <v>1104.626054809422</v>
+        <v>932.6220420606005</v>
       </c>
       <c r="U15" t="n">
-        <v>876.4074424435696</v>
+        <v>704.4034296947482</v>
       </c>
       <c r="V15" t="n">
-        <v>876.4074424435696</v>
+        <v>469.2513214630055</v>
       </c>
       <c r="W15" t="n">
-        <v>876.4074424435696</v>
+        <v>469.2513214630055</v>
       </c>
       <c r="X15" t="n">
-        <v>876.4074424435696</v>
+        <v>469.2513214630055</v>
       </c>
       <c r="Y15" t="n">
-        <v>724.8143345369297</v>
+        <v>261.4910226980516</v>
       </c>
     </row>
     <row r="16">
@@ -5466,22 +5466,22 @@
         <v>198.9927170031359</v>
       </c>
       <c r="T16" t="n">
-        <v>198.9927170031359</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="U16" t="n">
-        <v>198.9927170031359</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="V16" t="n">
-        <v>198.9927170031359</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="W16" t="n">
-        <v>198.9927170031359</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="X16" t="n">
-        <v>198.9927170031359</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="Y16" t="n">
-        <v>198.9927170031359</v>
+        <v>22.09252109618844</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>825.6800813726992</v>
+        <v>683.2303018926191</v>
       </c>
       <c r="C17" t="n">
-        <v>546.7341079359765</v>
+        <v>404.2843284558963</v>
       </c>
       <c r="D17" t="n">
-        <v>546.7341079359765</v>
+        <v>125.3383550191736</v>
       </c>
       <c r="E17" t="n">
-        <v>546.7341079359765</v>
+        <v>125.3383550191736</v>
       </c>
       <c r="F17" t="n">
-        <v>546.7341079359765</v>
+        <v>125.3383550191736</v>
       </c>
       <c r="G17" t="n">
-        <v>267.7881344992537</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="H17" t="n">
         <v>22.09252109618844</v>
@@ -5515,7 +5515,7 @@
         <v>22.09252109618844</v>
       </c>
       <c r="J17" t="n">
-        <v>22.09252109618845</v>
+        <v>22.09252109618842</v>
       </c>
       <c r="K17" t="n">
         <v>142.8373253438683</v>
@@ -5527,7 +5527,7 @@
         <v>586.3582880173957</v>
       </c>
       <c r="N17" t="n">
-        <v>817.0829279823544</v>
+        <v>817.0829279823542</v>
       </c>
       <c r="O17" t="n">
         <v>989.7620250901065</v>
@@ -5539,28 +5539,28 @@
         <v>1104.626054809422</v>
       </c>
       <c r="R17" t="n">
-        <v>1104.626054809422</v>
+        <v>962.1762753293418</v>
       </c>
       <c r="S17" t="n">
-        <v>1104.626054809422</v>
+        <v>962.1762753293418</v>
       </c>
       <c r="T17" t="n">
-        <v>1104.626054809422</v>
+        <v>962.1762753293418</v>
       </c>
       <c r="U17" t="n">
-        <v>1104.626054809422</v>
+        <v>962.1762753293418</v>
       </c>
       <c r="V17" t="n">
-        <v>1104.626054809422</v>
+        <v>962.1762753293418</v>
       </c>
       <c r="W17" t="n">
-        <v>1104.626054809422</v>
+        <v>683.2303018926191</v>
       </c>
       <c r="X17" t="n">
-        <v>1104.626054809422</v>
+        <v>683.2303018926191</v>
       </c>
       <c r="Y17" t="n">
-        <v>825.6800813726992</v>
+        <v>683.2303018926191</v>
       </c>
     </row>
     <row r="18">
@@ -5570,16 +5570,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>651.2519730171373</v>
+        <v>345.4799600385667</v>
       </c>
       <c r="C18" t="n">
-        <v>476.7989437360102</v>
+        <v>171.0269307574397</v>
       </c>
       <c r="D18" t="n">
-        <v>327.864534074759</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="E18" t="n">
-        <v>168.6270790693035</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="F18" t="n">
         <v>22.09252109618844</v>
@@ -5603,16 +5603,16 @@
         <v>377.413187022375</v>
       </c>
       <c r="M18" t="n">
-        <v>579.19307011741</v>
+        <v>377.413187022375</v>
       </c>
       <c r="N18" t="n">
-        <v>852.5880186827419</v>
+        <v>594.3151122945369</v>
       </c>
       <c r="O18" t="n">
-        <v>852.5880186827419</v>
+        <v>843.0685263784992</v>
       </c>
       <c r="P18" t="n">
-        <v>1035.231496296093</v>
+        <v>1025.71200399185</v>
       </c>
       <c r="Q18" t="n">
         <v>1104.626054809422</v>
@@ -5621,25 +5621,25 @@
         <v>1104.626054809422</v>
       </c>
       <c r="S18" t="n">
-        <v>1104.626054809422</v>
+        <v>932.6220420606005</v>
       </c>
       <c r="T18" t="n">
-        <v>902.7461548375312</v>
+        <v>730.7421420887098</v>
       </c>
       <c r="U18" t="n">
-        <v>902.7461548375312</v>
+        <v>730.7421420887098</v>
       </c>
       <c r="V18" t="n">
-        <v>902.7461548375312</v>
+        <v>730.7421420887098</v>
       </c>
       <c r="W18" t="n">
-        <v>859.1034732226701</v>
+        <v>553.3314602440996</v>
       </c>
       <c r="X18" t="n">
-        <v>651.2519730171373</v>
+        <v>345.4799600385667</v>
       </c>
       <c r="Y18" t="n">
-        <v>651.2519730171373</v>
+        <v>345.4799600385667</v>
       </c>
     </row>
     <row r="19">
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>22.09252109618844</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="C19" t="n">
-        <v>22.09252109618844</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="D19" t="n">
-        <v>22.09252109618844</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="E19" t="n">
-        <v>22.09252109618844</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="F19" t="n">
-        <v>22.09252109618844</v>
+        <v>177.1948334012702</v>
       </c>
       <c r="G19" t="n">
-        <v>22.09252109618844</v>
+        <v>177.1948334012702</v>
       </c>
       <c r="H19" t="n">
-        <v>22.09252109618844</v>
+        <v>177.1948334012702</v>
       </c>
       <c r="I19" t="n">
         <v>22.09252109618844</v>
@@ -5712,13 +5712,13 @@
         <v>198.9927170031359</v>
       </c>
       <c r="W19" t="n">
-        <v>22.09252109618844</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="X19" t="n">
-        <v>22.09252109618844</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="Y19" t="n">
-        <v>22.09252109618844</v>
+        <v>198.9927170031359</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>962.1762753293418</v>
+        <v>579.9844679696339</v>
       </c>
       <c r="C20" t="n">
-        <v>962.1762753293418</v>
+        <v>579.9844679696339</v>
       </c>
       <c r="D20" t="n">
-        <v>683.2303018926191</v>
+        <v>579.9844679696339</v>
       </c>
       <c r="E20" t="n">
-        <v>683.2303018926191</v>
+        <v>579.9844679696339</v>
       </c>
       <c r="F20" t="n">
-        <v>404.2843284558963</v>
+        <v>301.0384945329112</v>
       </c>
       <c r="G20" t="n">
-        <v>301.0384945329112</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="H20" t="n">
         <v>22.09252109618844</v>
@@ -5758,13 +5758,13 @@
         <v>142.8373253438683</v>
       </c>
       <c r="L20" t="n">
-        <v>344.908559541287</v>
+        <v>344.9085595412869</v>
       </c>
       <c r="M20" t="n">
-        <v>586.3582880173958</v>
+        <v>586.3582880173957</v>
       </c>
       <c r="N20" t="n">
-        <v>817.0829279823545</v>
+        <v>817.0829279823542</v>
       </c>
       <c r="O20" t="n">
         <v>989.7620250901065</v>
@@ -5779,25 +5779,25 @@
         <v>962.1762753293418</v>
       </c>
       <c r="S20" t="n">
-        <v>962.1762753293418</v>
+        <v>754.2855273228794</v>
       </c>
       <c r="T20" t="n">
-        <v>962.1762753293418</v>
+        <v>754.2855273228794</v>
       </c>
       <c r="U20" t="n">
-        <v>962.1762753293418</v>
+        <v>579.9844679696339</v>
       </c>
       <c r="V20" t="n">
-        <v>962.1762753293418</v>
+        <v>579.9844679696339</v>
       </c>
       <c r="W20" t="n">
-        <v>962.1762753293418</v>
+        <v>579.9844679696339</v>
       </c>
       <c r="X20" t="n">
-        <v>962.1762753293418</v>
+        <v>579.9844679696339</v>
       </c>
       <c r="Y20" t="n">
-        <v>962.1762753293418</v>
+        <v>579.9844679696339</v>
       </c>
     </row>
     <row r="21">
@@ -5807,49 +5807,49 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>287.7385336514342</v>
+        <v>405.2413647130672</v>
       </c>
       <c r="C21" t="n">
-        <v>113.2855043703072</v>
+        <v>405.2413647130672</v>
       </c>
       <c r="D21" t="n">
-        <v>113.2855043703072</v>
+        <v>256.306955051816</v>
       </c>
       <c r="E21" t="n">
-        <v>113.2855043703072</v>
+        <v>256.306955051816</v>
       </c>
       <c r="F21" t="n">
-        <v>113.2855043703072</v>
+        <v>109.772397078701</v>
       </c>
       <c r="G21" t="n">
-        <v>22.09252109618844</v>
+        <v>109.772397078701</v>
       </c>
       <c r="H21" t="n">
-        <v>22.09252109618844</v>
+        <v>109.772397078701</v>
       </c>
       <c r="I21" t="n">
         <v>22.09252109618844</v>
       </c>
       <c r="J21" t="n">
-        <v>22.09252109618844</v>
+        <v>28.39914141318535</v>
       </c>
       <c r="K21" t="n">
-        <v>147.4500811540258</v>
+        <v>28.39914141318535</v>
       </c>
       <c r="L21" t="n">
-        <v>377.413187022375</v>
+        <v>274.5546080058863</v>
       </c>
       <c r="M21" t="n">
-        <v>377.413187022375</v>
+        <v>385.5935721628392</v>
       </c>
       <c r="N21" t="n">
-        <v>650.8081355877068</v>
+        <v>658.9885207281711</v>
       </c>
       <c r="O21" t="n">
-        <v>899.5615496716691</v>
+        <v>907.7419348121334</v>
       </c>
       <c r="P21" t="n">
-        <v>1082.20502728502</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="Q21" t="n">
         <v>1104.626054809422</v>
@@ -5867,16 +5867,16 @@
         <v>730.7421420887098</v>
       </c>
       <c r="V21" t="n">
-        <v>495.5900338569671</v>
+        <v>659.4787214412688</v>
       </c>
       <c r="W21" t="n">
-        <v>495.5900338569671</v>
+        <v>405.2413647130672</v>
       </c>
       <c r="X21" t="n">
-        <v>287.7385336514342</v>
+        <v>405.2413647130672</v>
       </c>
       <c r="Y21" t="n">
-        <v>287.7385336514342</v>
+        <v>405.2413647130672</v>
       </c>
     </row>
     <row r="22">
@@ -5946,13 +5946,13 @@
         <v>198.9927170031359</v>
       </c>
       <c r="V22" t="n">
-        <v>22.09252109618844</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="W22" t="n">
-        <v>22.09252109618844</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="X22" t="n">
-        <v>22.09252109618844</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="Y22" t="n">
         <v>22.09252109618844</v>
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1544.778131174281</v>
+        <v>1281.522775696018</v>
       </c>
       <c r="C23" t="n">
-        <v>1544.778131174281</v>
+        <v>1281.522775696018</v>
       </c>
       <c r="D23" t="n">
-        <v>1544.778131174281</v>
+        <v>1281.522775696018</v>
       </c>
       <c r="E23" t="n">
-        <v>1158.989878576036</v>
+        <v>1281.522775696018</v>
       </c>
       <c r="F23" t="n">
-        <v>968.4104933630471</v>
+        <v>870.5368709064101</v>
       </c>
       <c r="G23" t="n">
-        <v>549.8578936467619</v>
+        <v>451.9842711901249</v>
       </c>
       <c r="H23" t="n">
-        <v>216.6332115610531</v>
+        <v>118.7595891044161</v>
       </c>
       <c r="I23" t="n">
         <v>40.46784683920976</v>
       </c>
       <c r="J23" t="n">
-        <v>107.257212533911</v>
+        <v>107.2572125339111</v>
       </c>
       <c r="K23" t="n">
-        <v>328.101962600968</v>
+        <v>328.1019626009684</v>
       </c>
       <c r="L23" t="n">
-        <v>654.3560310300139</v>
+        <v>654.356031030014</v>
       </c>
       <c r="M23" t="n">
-        <v>1033.983090059323</v>
+        <v>1033.983090059324</v>
       </c>
       <c r="N23" t="n">
         <v>1405.120914245785</v>
       </c>
       <c r="O23" t="n">
-        <v>1710.388199564769</v>
+        <v>1710.38819956477</v>
       </c>
       <c r="P23" t="n">
-        <v>1933.252382068733</v>
+        <v>1933.252382068734</v>
       </c>
       <c r="Q23" t="n">
         <v>2023.392341960488</v>
       </c>
       <c r="R23" t="n">
-        <v>1931.377971238402</v>
+        <v>2023.392341960488</v>
       </c>
       <c r="S23" t="n">
-        <v>1931.377971238402</v>
+        <v>1833.797765359877</v>
       </c>
       <c r="T23" t="n">
-        <v>1931.377971238402</v>
+        <v>1612.585663039588</v>
       </c>
       <c r="U23" t="n">
-        <v>1931.377971238402</v>
+        <v>1612.585663039588</v>
       </c>
       <c r="V23" t="n">
-        <v>1931.377971238402</v>
+        <v>1281.522775696018</v>
       </c>
       <c r="W23" t="n">
-        <v>1931.377971238402</v>
+        <v>1281.522775696018</v>
       </c>
       <c r="X23" t="n">
-        <v>1931.377971238402</v>
+        <v>1281.522775696018</v>
       </c>
       <c r="Y23" t="n">
-        <v>1931.377971238402</v>
+        <v>1281.522775696018</v>
       </c>
     </row>
     <row r="24">
@@ -6044,49 +6044,49 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>780.2651996091661</v>
+        <v>814.7738531901521</v>
       </c>
       <c r="C24" t="n">
-        <v>605.8121703280391</v>
+        <v>814.7738531901521</v>
       </c>
       <c r="D24" t="n">
-        <v>484.465004158446</v>
+        <v>665.8394435289008</v>
       </c>
       <c r="E24" t="n">
-        <v>325.2275491529905</v>
+        <v>506.6019885234452</v>
       </c>
       <c r="F24" t="n">
-        <v>178.6929911798755</v>
+        <v>360.0674305503302</v>
       </c>
       <c r="G24" t="n">
-        <v>40.46784683920976</v>
+        <v>221.8422862096645</v>
       </c>
       <c r="H24" t="n">
-        <v>40.46784683920976</v>
+        <v>113.3569652266061</v>
       </c>
       <c r="I24" t="n">
         <v>40.46784683920976</v>
       </c>
       <c r="J24" t="n">
-        <v>86.55375581100978</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="K24" t="n">
-        <v>211.9113158688472</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="L24" t="n">
-        <v>441.8744217371963</v>
+        <v>378.043102896468</v>
       </c>
       <c r="M24" t="n">
-        <v>887.7880448001429</v>
+        <v>773.3516022495348</v>
       </c>
       <c r="N24" t="n">
-        <v>1361.210687995626</v>
+        <v>1246.774245445018</v>
       </c>
       <c r="O24" t="n">
-        <v>1708.089099913234</v>
+        <v>1613.447795097059</v>
       </c>
       <c r="P24" t="n">
-        <v>1890.732577526584</v>
+        <v>1890.732577526585</v>
       </c>
       <c r="Q24" t="n">
         <v>2023.392341960488</v>
@@ -6095,25 +6095,25 @@
         <v>2023.392341960488</v>
       </c>
       <c r="S24" t="n">
-        <v>1859.367801621261</v>
+        <v>2023.392341960488</v>
       </c>
       <c r="T24" t="n">
-        <v>1659.219456583117</v>
+        <v>2023.392341960488</v>
       </c>
       <c r="U24" t="n">
-        <v>1431.029106811395</v>
+        <v>1795.201992188767</v>
       </c>
       <c r="V24" t="n">
-        <v>1195.876998579653</v>
+        <v>1560.049883957024</v>
       </c>
       <c r="W24" t="n">
-        <v>1195.876998579653</v>
+        <v>1305.812527228822</v>
       </c>
       <c r="X24" t="n">
-        <v>988.0254983741199</v>
+        <v>1097.961027023289</v>
       </c>
       <c r="Y24" t="n">
-        <v>780.2651996091661</v>
+        <v>890.2007282583356</v>
       </c>
     </row>
     <row r="25">
@@ -6174,13 +6174,13 @@
         <v>498.0103482609705</v>
       </c>
       <c r="S25" t="n">
-        <v>329.8850168761704</v>
+        <v>498.0103482609705</v>
       </c>
       <c r="T25" t="n">
-        <v>329.8850168761704</v>
+        <v>498.0103482609705</v>
       </c>
       <c r="U25" t="n">
-        <v>329.8850168761704</v>
+        <v>498.0103482609705</v>
       </c>
       <c r="V25" t="n">
         <v>329.8850168761704</v>
@@ -6202,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1057.951852024107</v>
+        <v>1228.272049951853</v>
       </c>
       <c r="C26" t="n">
-        <v>1057.951852024107</v>
+        <v>1228.272049951853</v>
       </c>
       <c r="D26" t="n">
-        <v>1057.951852024107</v>
+        <v>870.0063513451025</v>
       </c>
       <c r="E26" t="n">
-        <v>784.6784337145261</v>
+        <v>870.0063513451025</v>
       </c>
       <c r="F26" t="n">
-        <v>373.6925289249186</v>
+        <v>459.0204465554949</v>
       </c>
       <c r="G26" t="n">
-        <v>373.6925289249186</v>
+        <v>40.46784683920975</v>
       </c>
       <c r="H26" t="n">
-        <v>40.46784683920976</v>
+        <v>40.46784683920975</v>
       </c>
       <c r="I26" t="n">
-        <v>40.46784683920976</v>
+        <v>40.46784683920975</v>
       </c>
       <c r="J26" t="n">
         <v>107.257212533911</v>
@@ -6232,7 +6232,7 @@
         <v>328.101962600968</v>
       </c>
       <c r="L26" t="n">
-        <v>654.3560310300139</v>
+        <v>654.3560310300136</v>
       </c>
       <c r="M26" t="n">
         <v>1033.983090059323</v>
@@ -6241,7 +6241,7 @@
         <v>1405.120914245785</v>
       </c>
       <c r="O26" t="n">
-        <v>1710.38819956477</v>
+        <v>1710.388199564769</v>
       </c>
       <c r="P26" t="n">
         <v>1933.252382068733</v>
@@ -6250,28 +6250,28 @@
         <v>2023.392341960488</v>
       </c>
       <c r="R26" t="n">
-        <v>1931.377971238402</v>
+        <v>2002.738402587101</v>
       </c>
       <c r="S26" t="n">
-        <v>1741.783394637791</v>
+        <v>1813.14382598649</v>
       </c>
       <c r="T26" t="n">
-        <v>1741.783394637791</v>
+        <v>1813.14382598649</v>
       </c>
       <c r="U26" t="n">
-        <v>1741.783394637791</v>
+        <v>1559.334937295424</v>
       </c>
       <c r="V26" t="n">
-        <v>1410.720507294221</v>
+        <v>1228.272049951853</v>
       </c>
       <c r="W26" t="n">
-        <v>1057.951852024107</v>
+        <v>1228.272049951853</v>
       </c>
       <c r="X26" t="n">
-        <v>1057.951852024107</v>
+        <v>1228.272049951853</v>
       </c>
       <c r="Y26" t="n">
-        <v>1057.951852024107</v>
+        <v>1228.272049951853</v>
       </c>
     </row>
     <row r="27">
@@ -6281,28 +6281,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>523.0927407870436</v>
+        <v>807.8524431008243</v>
       </c>
       <c r="C27" t="n">
-        <v>348.6397115059165</v>
+        <v>633.3994138196973</v>
       </c>
       <c r="D27" t="n">
-        <v>199.7053018446653</v>
+        <v>484.465004158446</v>
       </c>
       <c r="E27" t="n">
-        <v>40.46784683920976</v>
+        <v>325.2275491529905</v>
       </c>
       <c r="F27" t="n">
-        <v>40.46784683920976</v>
+        <v>178.6929911798755</v>
       </c>
       <c r="G27" t="n">
-        <v>40.46784683920976</v>
+        <v>40.46784683920975</v>
       </c>
       <c r="H27" t="n">
-        <v>40.46784683920976</v>
+        <v>40.46784683920975</v>
       </c>
       <c r="I27" t="n">
-        <v>40.46784683920976</v>
+        <v>40.46784683920975</v>
       </c>
       <c r="J27" t="n">
         <v>86.55375581100978</v>
@@ -6311,19 +6311,19 @@
         <v>291.9427578142076</v>
       </c>
       <c r="L27" t="n">
-        <v>614.246477481202</v>
+        <v>629.5180138714659</v>
       </c>
       <c r="M27" t="n">
-        <v>1060.160100544148</v>
+        <v>1075.431636934412</v>
       </c>
       <c r="N27" t="n">
-        <v>1404.680756181766</v>
+        <v>1548.854280129896</v>
       </c>
       <c r="O27" t="n">
-        <v>1771.354305833808</v>
+        <v>1915.527829781937</v>
       </c>
       <c r="P27" t="n">
-        <v>1953.997783447159</v>
+        <v>1915.527829781937</v>
       </c>
       <c r="Q27" t="n">
         <v>2023.392341960488</v>
@@ -6335,22 +6335,22 @@
         <v>1859.367801621261</v>
       </c>
       <c r="T27" t="n">
-        <v>1659.219456583117</v>
+        <v>1733.192556597444</v>
       </c>
       <c r="U27" t="n">
-        <v>1596.309341737543</v>
+        <v>1505.002206825722</v>
       </c>
       <c r="V27" t="n">
-        <v>1361.1572335058</v>
+        <v>1269.85009859398</v>
       </c>
       <c r="W27" t="n">
-        <v>1106.919876777598</v>
+        <v>1015.612741865778</v>
       </c>
       <c r="X27" t="n">
-        <v>899.0683765720655</v>
+        <v>1015.612741865778</v>
       </c>
       <c r="Y27" t="n">
-        <v>691.3080778071117</v>
+        <v>807.8524431008243</v>
       </c>
     </row>
     <row r="28">
@@ -6360,34 +6360,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>40.46784683920976</v>
+        <v>40.46784683920975</v>
       </c>
       <c r="C28" t="n">
-        <v>40.46784683920976</v>
+        <v>40.46784683920975</v>
       </c>
       <c r="D28" t="n">
-        <v>40.46784683920976</v>
+        <v>40.46784683920975</v>
       </c>
       <c r="E28" t="n">
-        <v>40.46784683920976</v>
+        <v>40.46784683920975</v>
       </c>
       <c r="F28" t="n">
-        <v>40.46784683920976</v>
+        <v>40.46784683920975</v>
       </c>
       <c r="G28" t="n">
-        <v>40.46784683920976</v>
+        <v>40.46784683920975</v>
       </c>
       <c r="H28" t="n">
-        <v>40.46784683920976</v>
+        <v>40.46784683920975</v>
       </c>
       <c r="I28" t="n">
-        <v>40.46784683920976</v>
+        <v>40.46784683920975</v>
       </c>
       <c r="J28" t="n">
-        <v>40.46784683920976</v>
+        <v>40.46784683920975</v>
       </c>
       <c r="K28" t="n">
-        <v>66.69569932712993</v>
+        <v>66.69569932712992</v>
       </c>
       <c r="L28" t="n">
         <v>155.7847551810659</v>
@@ -6417,19 +6417,19 @@
         <v>498.0103482609705</v>
       </c>
       <c r="U28" t="n">
-        <v>208.822331825627</v>
+        <v>329.8850168761704</v>
       </c>
       <c r="V28" t="n">
-        <v>208.822331825627</v>
+        <v>329.8850168761704</v>
       </c>
       <c r="W28" t="n">
-        <v>40.46784683920976</v>
+        <v>40.46784683920975</v>
       </c>
       <c r="X28" t="n">
-        <v>40.46784683920976</v>
+        <v>40.46784683920975</v>
       </c>
       <c r="Y28" t="n">
-        <v>40.46784683920976</v>
+        <v>40.46784683920975</v>
       </c>
     </row>
     <row r="29">
@@ -6439,37 +6439,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>767.696062386372</v>
+        <v>451.4537516288173</v>
       </c>
       <c r="C29" t="n">
-        <v>398.7335454459603</v>
+        <v>451.4537516288173</v>
       </c>
       <c r="D29" t="n">
-        <v>40.46784683920976</v>
+        <v>451.4537516288173</v>
       </c>
       <c r="E29" t="n">
-        <v>40.46784683920976</v>
+        <v>451.4537516288173</v>
       </c>
       <c r="F29" t="n">
-        <v>40.46784683920976</v>
+        <v>40.46784683920975</v>
       </c>
       <c r="G29" t="n">
-        <v>40.46784683920976</v>
+        <v>40.46784683920975</v>
       </c>
       <c r="H29" t="n">
-        <v>40.46784683920976</v>
+        <v>40.46784683920975</v>
       </c>
       <c r="I29" t="n">
-        <v>40.46784683920976</v>
+        <v>40.46784683920975</v>
       </c>
       <c r="J29" t="n">
-        <v>107.2572125339111</v>
+        <v>107.257212533911</v>
       </c>
       <c r="K29" t="n">
-        <v>328.1019626009682</v>
+        <v>328.101962600968</v>
       </c>
       <c r="L29" t="n">
-        <v>654.356031030014</v>
+        <v>654.3560310300136</v>
       </c>
       <c r="M29" t="n">
         <v>1033.983090059323</v>
@@ -6478,7 +6478,7 @@
         <v>1405.120914245785</v>
       </c>
       <c r="O29" t="n">
-        <v>1710.38819956477</v>
+        <v>1710.388199564769</v>
       </c>
       <c r="P29" t="n">
         <v>1933.252382068733</v>
@@ -6496,19 +6496,19 @@
         <v>2023.392341960488</v>
       </c>
       <c r="U29" t="n">
-        <v>1769.583453269422</v>
+        <v>2023.392341960488</v>
       </c>
       <c r="V29" t="n">
-        <v>1769.583453269422</v>
+        <v>1954.427337199945</v>
       </c>
       <c r="W29" t="n">
-        <v>1416.814797999308</v>
+        <v>1601.658681929831</v>
       </c>
       <c r="X29" t="n">
-        <v>1416.814797999308</v>
+        <v>1228.192923668751</v>
       </c>
       <c r="Y29" t="n">
-        <v>1026.675466023496</v>
+        <v>838.0535916929391</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>734.2070035151056</v>
+        <v>374.1583311257923</v>
       </c>
       <c r="C30" t="n">
-        <v>559.7539742339786</v>
+        <v>199.7053018446653</v>
       </c>
       <c r="D30" t="n">
-        <v>410.8195645727274</v>
+        <v>199.7053018446653</v>
       </c>
       <c r="E30" t="n">
-        <v>251.5821095672719</v>
+        <v>40.46784683920975</v>
       </c>
       <c r="F30" t="n">
-        <v>251.5821095672719</v>
+        <v>40.46784683920975</v>
       </c>
       <c r="G30" t="n">
-        <v>113.3569652266061</v>
+        <v>40.46784683920975</v>
       </c>
       <c r="H30" t="n">
-        <v>113.3569652266061</v>
+        <v>40.46784683920975</v>
       </c>
       <c r="I30" t="n">
-        <v>40.46784683920976</v>
+        <v>40.46784683920975</v>
       </c>
       <c r="J30" t="n">
         <v>86.55375581100978</v>
       </c>
       <c r="K30" t="n">
-        <v>291.9427578142076</v>
+        <v>86.55375581100978</v>
       </c>
       <c r="L30" t="n">
-        <v>629.5180138714659</v>
+        <v>424.129011868268</v>
       </c>
       <c r="M30" t="n">
-        <v>1075.431636934412</v>
+        <v>870.0426349312145</v>
       </c>
       <c r="N30" t="n">
-        <v>1419.95229257203</v>
+        <v>1343.465278126698</v>
       </c>
       <c r="O30" t="n">
-        <v>1786.625842224072</v>
+        <v>1710.138827778739</v>
       </c>
       <c r="P30" t="n">
-        <v>2023.392341960488</v>
+        <v>1987.423610208265</v>
       </c>
       <c r="Q30" t="n">
         <v>2023.392341960488</v>
       </c>
       <c r="R30" t="n">
-        <v>1953.61939725912</v>
+        <v>2023.392341960488</v>
       </c>
       <c r="S30" t="n">
-        <v>1827.853655472372</v>
+        <v>1859.367801621261</v>
       </c>
       <c r="T30" t="n">
-        <v>1827.853655472372</v>
+        <v>1659.219456583117</v>
       </c>
       <c r="U30" t="n">
-        <v>1599.663305700651</v>
+        <v>1447.374932076291</v>
       </c>
       <c r="V30" t="n">
-        <v>1364.511197468908</v>
+        <v>1212.222823844549</v>
       </c>
       <c r="W30" t="n">
-        <v>1110.273840740706</v>
+        <v>957.9854671163471</v>
       </c>
       <c r="X30" t="n">
-        <v>902.4223405351736</v>
+        <v>750.1339669108143</v>
       </c>
       <c r="Y30" t="n">
-        <v>902.4223405351736</v>
+        <v>542.3736681458604</v>
       </c>
     </row>
     <row r="31">
@@ -6597,34 +6597,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>354.003227221795</v>
+        <v>498.0103482609705</v>
       </c>
       <c r="C31" t="n">
-        <v>354.003227221795</v>
+        <v>498.0103482609705</v>
       </c>
       <c r="D31" t="n">
-        <v>354.003227221795</v>
+        <v>347.8937088486348</v>
       </c>
       <c r="E31" t="n">
-        <v>354.003227221795</v>
+        <v>199.9806152662417</v>
       </c>
       <c r="F31" t="n">
-        <v>354.003227221795</v>
+        <v>53.09066776833131</v>
       </c>
       <c r="G31" t="n">
-        <v>184.7393153117505</v>
+        <v>53.09066776833131</v>
       </c>
       <c r="H31" t="n">
-        <v>184.7393153117505</v>
+        <v>40.46784683920975</v>
       </c>
       <c r="I31" t="n">
-        <v>40.46784683920976</v>
+        <v>40.46784683920975</v>
       </c>
       <c r="J31" t="n">
-        <v>40.46784683920976</v>
+        <v>40.46784683920975</v>
       </c>
       <c r="K31" t="n">
-        <v>66.69569932712993</v>
+        <v>66.69569932712992</v>
       </c>
       <c r="L31" t="n">
         <v>155.7847551810659</v>
@@ -6651,22 +6651,22 @@
         <v>498.0103482609705</v>
       </c>
       <c r="T31" t="n">
-        <v>354.003227221795</v>
+        <v>498.0103482609705</v>
       </c>
       <c r="U31" t="n">
-        <v>354.003227221795</v>
+        <v>498.0103482609705</v>
       </c>
       <c r="V31" t="n">
-        <v>354.003227221795</v>
+        <v>498.0103482609705</v>
       </c>
       <c r="W31" t="n">
-        <v>354.003227221795</v>
+        <v>498.0103482609705</v>
       </c>
       <c r="X31" t="n">
-        <v>354.003227221795</v>
+        <v>498.0103482609705</v>
       </c>
       <c r="Y31" t="n">
-        <v>354.003227221795</v>
+        <v>498.0103482609705</v>
       </c>
     </row>
     <row r="32">
@@ -6676,37 +6676,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1431.95996866519</v>
+        <v>792.2451286412038</v>
       </c>
       <c r="C32" t="n">
-        <v>1431.95996866519</v>
+        <v>792.2451286412038</v>
       </c>
       <c r="D32" t="n">
-        <v>1431.95996866519</v>
+        <v>792.2451286412038</v>
       </c>
       <c r="E32" t="n">
-        <v>1046.171716066946</v>
+        <v>792.2451286412038</v>
       </c>
       <c r="F32" t="n">
-        <v>635.1858112773382</v>
+        <v>792.2451286412038</v>
       </c>
       <c r="G32" t="n">
-        <v>216.6332115610531</v>
+        <v>373.6925289249186</v>
       </c>
       <c r="H32" t="n">
-        <v>216.6332115610531</v>
+        <v>40.46784683920975</v>
       </c>
       <c r="I32" t="n">
-        <v>40.46784683920976</v>
+        <v>40.46784683920975</v>
       </c>
       <c r="J32" t="n">
-        <v>107.257212533911</v>
+        <v>107.2572125339109</v>
       </c>
       <c r="K32" t="n">
-        <v>328.101962600968</v>
+        <v>328.1019626009679</v>
       </c>
       <c r="L32" t="n">
-        <v>654.3560310300138</v>
+        <v>654.3560310300137</v>
       </c>
       <c r="M32" t="n">
         <v>1033.983090059323</v>
@@ -6715,7 +6715,7 @@
         <v>1405.120914245785</v>
       </c>
       <c r="O32" t="n">
-        <v>1710.38819956477</v>
+        <v>1710.388199564769</v>
       </c>
       <c r="P32" t="n">
         <v>1933.252382068733</v>
@@ -6724,28 +6724,28 @@
         <v>2023.392341960488</v>
       </c>
       <c r="R32" t="n">
-        <v>2023.392341960488</v>
+        <v>1931.377971238402</v>
       </c>
       <c r="S32" t="n">
-        <v>2023.392341960488</v>
+        <v>1931.377971238402</v>
       </c>
       <c r="T32" t="n">
-        <v>2023.392341960488</v>
+        <v>1710.165868918114</v>
       </c>
       <c r="U32" t="n">
-        <v>1769.583453269422</v>
+        <v>1496.773774245854</v>
       </c>
       <c r="V32" t="n">
-        <v>1438.520565925851</v>
+        <v>1165.710886902284</v>
       </c>
       <c r="W32" t="n">
-        <v>1438.520565925851</v>
+        <v>1165.710886902284</v>
       </c>
       <c r="X32" t="n">
-        <v>1438.520565925851</v>
+        <v>792.2451286412038</v>
       </c>
       <c r="Y32" t="n">
-        <v>1431.95996866519</v>
+        <v>792.2451286412038</v>
       </c>
     </row>
     <row r="33">
@@ -6755,49 +6755,49 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>807.8524431008243</v>
+        <v>523.0927407870436</v>
       </c>
       <c r="C33" t="n">
-        <v>633.3994138196973</v>
+        <v>348.6397115059165</v>
       </c>
       <c r="D33" t="n">
-        <v>484.465004158446</v>
+        <v>199.7053018446653</v>
       </c>
       <c r="E33" t="n">
-        <v>325.2275491529905</v>
+        <v>40.46784683920975</v>
       </c>
       <c r="F33" t="n">
-        <v>178.6929911798755</v>
+        <v>40.46784683920975</v>
       </c>
       <c r="G33" t="n">
-        <v>40.46784683920976</v>
+        <v>40.46784683920975</v>
       </c>
       <c r="H33" t="n">
-        <v>40.46784683920976</v>
+        <v>40.46784683920975</v>
       </c>
       <c r="I33" t="n">
-        <v>40.46784683920976</v>
+        <v>40.46784683920975</v>
       </c>
       <c r="J33" t="n">
-        <v>40.46784683920976</v>
+        <v>86.55375581100978</v>
       </c>
       <c r="K33" t="n">
-        <v>245.8568488424076</v>
+        <v>291.9427578142076</v>
       </c>
       <c r="L33" t="n">
-        <v>583.4321048996659</v>
+        <v>629.5180138714659</v>
       </c>
       <c r="M33" t="n">
-        <v>836.6168081701081</v>
+        <v>954.5369437381873</v>
       </c>
       <c r="N33" t="n">
-        <v>1310.039451365592</v>
+        <v>1427.959586933671</v>
       </c>
       <c r="O33" t="n">
         <v>1676.713001017633</v>
       </c>
       <c r="P33" t="n">
-        <v>1953.997783447159</v>
+        <v>1953.997783447158</v>
       </c>
       <c r="Q33" t="n">
         <v>2023.392341960488</v>
@@ -6812,19 +6812,19 @@
         <v>1659.219456583117</v>
       </c>
       <c r="U33" t="n">
-        <v>1659.219456583117</v>
+        <v>1431.029106811395</v>
       </c>
       <c r="V33" t="n">
-        <v>1424.067348351374</v>
+        <v>1195.876998579653</v>
       </c>
       <c r="W33" t="n">
-        <v>1169.829991623173</v>
+        <v>941.639641851451</v>
       </c>
       <c r="X33" t="n">
-        <v>1169.829991623173</v>
+        <v>733.7881416459181</v>
       </c>
       <c r="Y33" t="n">
-        <v>962.0696928582188</v>
+        <v>526.0278428809643</v>
       </c>
     </row>
     <row r="34">
@@ -6834,34 +6834,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>40.46784683920976</v>
+        <v>208.5931782240099</v>
       </c>
       <c r="C34" t="n">
-        <v>40.46784683920976</v>
+        <v>208.5931782240099</v>
       </c>
       <c r="D34" t="n">
-        <v>40.46784683920976</v>
+        <v>208.5931782240099</v>
       </c>
       <c r="E34" t="n">
-        <v>40.46784683920976</v>
+        <v>208.5931782240099</v>
       </c>
       <c r="F34" t="n">
-        <v>40.46784683920976</v>
+        <v>208.5931782240099</v>
       </c>
       <c r="G34" t="n">
-        <v>40.46784683920976</v>
+        <v>208.5931782240099</v>
       </c>
       <c r="H34" t="n">
-        <v>40.46784683920976</v>
+        <v>48.49661300097085</v>
       </c>
       <c r="I34" t="n">
-        <v>40.46784683920976</v>
+        <v>40.46784683920975</v>
       </c>
       <c r="J34" t="n">
-        <v>40.46784683920976</v>
+        <v>40.46784683920975</v>
       </c>
       <c r="K34" t="n">
-        <v>66.69569932712993</v>
+        <v>66.69569932712992</v>
       </c>
       <c r="L34" t="n">
         <v>155.7847551810659</v>
@@ -6894,16 +6894,16 @@
         <v>498.0103482609705</v>
       </c>
       <c r="V34" t="n">
-        <v>243.3258600550836</v>
+        <v>498.0103482609705</v>
       </c>
       <c r="W34" t="n">
-        <v>40.46784683920976</v>
+        <v>208.5931782240099</v>
       </c>
       <c r="X34" t="n">
-        <v>40.46784683920976</v>
+        <v>208.5931782240099</v>
       </c>
       <c r="Y34" t="n">
-        <v>40.46784683920976</v>
+        <v>208.5931782240099</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>373.6925289249186</v>
+        <v>792.2451286412038</v>
       </c>
       <c r="C35" t="n">
-        <v>373.6925289249186</v>
+        <v>792.2451286412038</v>
       </c>
       <c r="D35" t="n">
-        <v>373.6925289249186</v>
+        <v>792.2451286412038</v>
       </c>
       <c r="E35" t="n">
-        <v>373.6925289249186</v>
+        <v>792.2451286412038</v>
       </c>
       <c r="F35" t="n">
-        <v>373.6925289249186</v>
+        <v>792.2451286412038</v>
       </c>
       <c r="G35" t="n">
         <v>373.6925289249186</v>
@@ -6940,7 +6940,7 @@
         <v>107.2572125339111</v>
       </c>
       <c r="K35" t="n">
-        <v>328.1019626009682</v>
+        <v>328.1019626009684</v>
       </c>
       <c r="L35" t="n">
         <v>654.356031030014</v>
@@ -6961,28 +6961,28 @@
         <v>2023.392341960488</v>
       </c>
       <c r="R35" t="n">
-        <v>2023.392341960488</v>
+        <v>1931.377971238403</v>
       </c>
       <c r="S35" t="n">
-        <v>1833.797765359877</v>
+        <v>1741.783394637791</v>
       </c>
       <c r="T35" t="n">
-        <v>1612.585663039588</v>
+        <v>1520.571292317503</v>
       </c>
       <c r="U35" t="n">
-        <v>1612.585663039588</v>
+        <v>1266.762403626437</v>
       </c>
       <c r="V35" t="n">
-        <v>1281.522775696018</v>
+        <v>1165.710886902284</v>
       </c>
       <c r="W35" t="n">
-        <v>928.7541204259035</v>
+        <v>1165.710886902284</v>
       </c>
       <c r="X35" t="n">
-        <v>760.2923689890404</v>
+        <v>792.2451286412038</v>
       </c>
       <c r="Y35" t="n">
-        <v>760.2923689890404</v>
+        <v>792.2451286412038</v>
       </c>
     </row>
     <row r="36">
@@ -6992,22 +6992,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>610.5657511053121</v>
+        <v>374.1583311257923</v>
       </c>
       <c r="C36" t="n">
-        <v>436.1127218241851</v>
+        <v>199.7053018446653</v>
       </c>
       <c r="D36" t="n">
-        <v>287.1783121629338</v>
+        <v>199.7053018446653</v>
       </c>
       <c r="E36" t="n">
-        <v>287.1783121629338</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="F36" t="n">
-        <v>287.1783121629338</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="G36" t="n">
-        <v>148.9531678222681</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="H36" t="n">
         <v>40.46784683920976</v>
@@ -7022,19 +7022,19 @@
         <v>245.8568488424076</v>
       </c>
       <c r="L36" t="n">
-        <v>519.6051726650275</v>
+        <v>583.4321048996658</v>
       </c>
       <c r="M36" t="n">
-        <v>965.518795727974</v>
+        <v>1029.345727962612</v>
       </c>
       <c r="N36" t="n">
-        <v>1310.039451365592</v>
+        <v>1379.434009878921</v>
       </c>
       <c r="O36" t="n">
-        <v>1676.713001017633</v>
+        <v>1746.107559530963</v>
       </c>
       <c r="P36" t="n">
-        <v>1953.997783447159</v>
+        <v>2023.392341960488</v>
       </c>
       <c r="Q36" t="n">
         <v>2023.392341960488</v>
@@ -7043,25 +7043,25 @@
         <v>2023.392341960488</v>
       </c>
       <c r="S36" t="n">
-        <v>1859.367801621261</v>
+        <v>1875.713626886157</v>
       </c>
       <c r="T36" t="n">
-        <v>1659.219456583117</v>
+        <v>1675.565281848013</v>
       </c>
       <c r="U36" t="n">
-        <v>1431.029106811396</v>
+        <v>1447.374932076291</v>
       </c>
       <c r="V36" t="n">
-        <v>1240.778743618536</v>
+        <v>1212.222823844549</v>
       </c>
       <c r="W36" t="n">
-        <v>986.541386890334</v>
+        <v>957.9854671163471</v>
       </c>
       <c r="X36" t="n">
-        <v>986.541386890334</v>
+        <v>750.1339669108143</v>
       </c>
       <c r="Y36" t="n">
-        <v>778.7810881253802</v>
+        <v>542.3736681458604</v>
       </c>
     </row>
     <row r="37">
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>40.46784683920976</v>
+        <v>331.6292628096609</v>
       </c>
       <c r="C37" t="n">
-        <v>40.46784683920976</v>
+        <v>331.6292628096609</v>
       </c>
       <c r="D37" t="n">
-        <v>40.46784683920976</v>
+        <v>331.6292628096609</v>
       </c>
       <c r="E37" t="n">
-        <v>40.46784683920976</v>
+        <v>331.6292628096609</v>
       </c>
       <c r="F37" t="n">
-        <v>40.46784683920976</v>
+        <v>184.7393153117505</v>
       </c>
       <c r="G37" t="n">
-        <v>40.46784683920976</v>
+        <v>184.7393153117505</v>
       </c>
       <c r="H37" t="n">
-        <v>40.46784683920976</v>
+        <v>184.7393153117505</v>
       </c>
       <c r="I37" t="n">
         <v>40.46784683920976</v>
@@ -7098,7 +7098,7 @@
         <v>40.46784683920976</v>
       </c>
       <c r="K37" t="n">
-        <v>66.69569932712994</v>
+        <v>66.69569932712993</v>
       </c>
       <c r="L37" t="n">
         <v>155.7847551810659</v>
@@ -7119,28 +7119,28 @@
         <v>498.0103482609705</v>
       </c>
       <c r="R37" t="n">
-        <v>498.0103482609705</v>
+        <v>337.9882695781349</v>
       </c>
       <c r="S37" t="n">
-        <v>498.0103482609705</v>
+        <v>331.6292628096609</v>
       </c>
       <c r="T37" t="n">
-        <v>498.0103482609705</v>
+        <v>331.6292628096609</v>
       </c>
       <c r="U37" t="n">
-        <v>329.8850168761704</v>
+        <v>331.6292628096609</v>
       </c>
       <c r="V37" t="n">
-        <v>329.8850168761704</v>
+        <v>331.6292628096609</v>
       </c>
       <c r="W37" t="n">
-        <v>40.46784683920976</v>
+        <v>331.6292628096609</v>
       </c>
       <c r="X37" t="n">
-        <v>40.46784683920976</v>
+        <v>331.6292628096609</v>
       </c>
       <c r="Y37" t="n">
-        <v>40.46784683920976</v>
+        <v>331.6292628096609</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>873.1874116594745</v>
+        <v>960.6871627660478</v>
       </c>
       <c r="C38" t="n">
-        <v>873.1874116594745</v>
+        <v>960.6871627660478</v>
       </c>
       <c r="D38" t="n">
-        <v>873.1874116594745</v>
+        <v>602.4214641592973</v>
       </c>
       <c r="E38" t="n">
-        <v>873.1874116594745</v>
+        <v>216.6332115610531</v>
       </c>
       <c r="F38" t="n">
-        <v>635.1858112773382</v>
+        <v>216.6332115610531</v>
       </c>
       <c r="G38" t="n">
         <v>216.6332115610531</v>
@@ -7171,7 +7171,7 @@
         <v>216.6332115610531</v>
       </c>
       <c r="I38" t="n">
-        <v>40.46784683920976</v>
+        <v>40.46784683920975</v>
       </c>
       <c r="J38" t="n">
         <v>107.257212533911</v>
@@ -7180,7 +7180,7 @@
         <v>328.101962600968</v>
       </c>
       <c r="L38" t="n">
-        <v>654.3560310300139</v>
+        <v>654.3560310300136</v>
       </c>
       <c r="M38" t="n">
         <v>1033.983090059323</v>
@@ -7189,7 +7189,7 @@
         <v>1405.120914245785</v>
       </c>
       <c r="O38" t="n">
-        <v>1710.38819956477</v>
+        <v>1710.388199564769</v>
       </c>
       <c r="P38" t="n">
         <v>1933.252382068733</v>
@@ -7198,28 +7198,28 @@
         <v>2023.392341960488</v>
       </c>
       <c r="R38" t="n">
-        <v>2023.392341960488</v>
+        <v>1958.63843712627</v>
       </c>
       <c r="S38" t="n">
-        <v>2023.392341960488</v>
+        <v>1958.63843712627</v>
       </c>
       <c r="T38" t="n">
-        <v>2023.392341960488</v>
+        <v>1737.426334805981</v>
       </c>
       <c r="U38" t="n">
-        <v>2023.392341960488</v>
+        <v>1737.426334805981</v>
       </c>
       <c r="V38" t="n">
-        <v>2023.392341960488</v>
+        <v>1737.426334805981</v>
       </c>
       <c r="W38" t="n">
-        <v>2023.392341960488</v>
+        <v>1737.426334805981</v>
       </c>
       <c r="X38" t="n">
-        <v>1649.926583699408</v>
+        <v>1737.426334805981</v>
       </c>
       <c r="Y38" t="n">
-        <v>1259.787251723596</v>
+        <v>1347.28700283017</v>
       </c>
     </row>
     <row r="39">
@@ -7229,46 +7229,46 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>523.0927407870436</v>
+        <v>915.4065595022194</v>
       </c>
       <c r="C39" t="n">
-        <v>348.6397115059165</v>
+        <v>814.7738531901521</v>
       </c>
       <c r="D39" t="n">
-        <v>199.7053018446653</v>
+        <v>665.8394435289008</v>
       </c>
       <c r="E39" t="n">
-        <v>40.46784683920976</v>
+        <v>506.6019885234452</v>
       </c>
       <c r="F39" t="n">
-        <v>40.46784683920976</v>
+        <v>360.0674305503302</v>
       </c>
       <c r="G39" t="n">
-        <v>40.46784683920976</v>
+        <v>221.8422862096645</v>
       </c>
       <c r="H39" t="n">
-        <v>40.46784683920976</v>
+        <v>113.3569652266061</v>
       </c>
       <c r="I39" t="n">
-        <v>40.46784683920976</v>
+        <v>40.46784683920975</v>
       </c>
       <c r="J39" t="n">
-        <v>40.46784683920976</v>
+        <v>40.46784683920975</v>
       </c>
       <c r="K39" t="n">
-        <v>165.8254068970472</v>
+        <v>245.8568488424076</v>
       </c>
       <c r="L39" t="n">
-        <v>422.0792840027626</v>
+        <v>327.4379791865879</v>
       </c>
       <c r="M39" t="n">
-        <v>867.9929070657091</v>
+        <v>773.3516022495344</v>
       </c>
       <c r="N39" t="n">
-        <v>1341.415550261192</v>
+        <v>1246.774245445018</v>
       </c>
       <c r="O39" t="n">
-        <v>1708.089099913234</v>
+        <v>1613.447795097059</v>
       </c>
       <c r="P39" t="n">
         <v>1890.732577526584</v>
@@ -7280,25 +7280,25 @@
         <v>1953.61939725912</v>
       </c>
       <c r="S39" t="n">
-        <v>1856.43269952734</v>
+        <v>1953.61939725912</v>
       </c>
       <c r="T39" t="n">
-        <v>1656.284354489196</v>
+        <v>1753.471052220976</v>
       </c>
       <c r="U39" t="n">
-        <v>1428.094004717474</v>
+        <v>1753.471052220976</v>
       </c>
       <c r="V39" t="n">
-        <v>1192.941896485732</v>
+        <v>1753.471052220976</v>
       </c>
       <c r="W39" t="n">
-        <v>938.7045397575303</v>
+        <v>1499.233695492774</v>
       </c>
       <c r="X39" t="n">
-        <v>730.8530395519974</v>
+        <v>1291.382195287241</v>
       </c>
       <c r="Y39" t="n">
-        <v>523.0927407870436</v>
+        <v>1083.621896522287</v>
       </c>
     </row>
     <row r="40">
@@ -7308,34 +7308,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>208.5931782240099</v>
+        <v>482.7690483064794</v>
       </c>
       <c r="C40" t="n">
-        <v>104.7970648123223</v>
+        <v>482.7690483064794</v>
       </c>
       <c r="D40" t="n">
-        <v>104.7970648123223</v>
+        <v>332.6524088941436</v>
       </c>
       <c r="E40" t="n">
-        <v>104.7970648123223</v>
+        <v>184.7393153117505</v>
       </c>
       <c r="F40" t="n">
-        <v>104.7970648123223</v>
+        <v>184.7393153117505</v>
       </c>
       <c r="G40" t="n">
-        <v>104.7970648123223</v>
+        <v>184.7393153117505</v>
       </c>
       <c r="H40" t="n">
-        <v>104.7970648123223</v>
+        <v>184.7393153117505</v>
       </c>
       <c r="I40" t="n">
-        <v>104.7970648123223</v>
+        <v>40.46784683920975</v>
       </c>
       <c r="J40" t="n">
-        <v>40.46784683920976</v>
+        <v>40.46784683920975</v>
       </c>
       <c r="K40" t="n">
-        <v>66.69569932712993</v>
+        <v>66.69569932712992</v>
       </c>
       <c r="L40" t="n">
         <v>155.7847551810659</v>
@@ -7365,19 +7365,19 @@
         <v>498.0103482609705</v>
       </c>
       <c r="U40" t="n">
-        <v>498.0103482609705</v>
+        <v>482.7690483064794</v>
       </c>
       <c r="V40" t="n">
-        <v>498.0103482609705</v>
+        <v>482.7690483064794</v>
       </c>
       <c r="W40" t="n">
-        <v>208.5931782240099</v>
+        <v>482.7690483064794</v>
       </c>
       <c r="X40" t="n">
-        <v>208.5931782240099</v>
+        <v>482.7690483064794</v>
       </c>
       <c r="Y40" t="n">
-        <v>208.5931782240099</v>
+        <v>482.7690483064794</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1203.231033430811</v>
+        <v>756.9662020806109</v>
       </c>
       <c r="C41" t="n">
-        <v>1203.231033430811</v>
+        <v>388.0036851401991</v>
       </c>
       <c r="D41" t="n">
-        <v>1203.231033430811</v>
+        <v>388.0036851401991</v>
       </c>
       <c r="E41" t="n">
-        <v>1203.231033430811</v>
+        <v>388.0036851401991</v>
       </c>
       <c r="F41" t="n">
-        <v>792.2451286412038</v>
+        <v>388.0036851401991</v>
       </c>
       <c r="G41" t="n">
         <v>373.6925289249186</v>
       </c>
       <c r="H41" t="n">
-        <v>40.46784683920976</v>
+        <v>40.46784683920975</v>
       </c>
       <c r="I41" t="n">
-        <v>40.46784683920976</v>
+        <v>40.46784683920975</v>
       </c>
       <c r="J41" t="n">
-        <v>107.2572125339111</v>
+        <v>107.2572125339109</v>
       </c>
       <c r="K41" t="n">
-        <v>328.1019626009684</v>
+        <v>328.1019626009679</v>
       </c>
       <c r="L41" t="n">
-        <v>654.3560310300142</v>
+        <v>654.3560310300137</v>
       </c>
       <c r="M41" t="n">
-        <v>1033.983090059324</v>
+        <v>1033.983090059323</v>
       </c>
       <c r="N41" t="n">
         <v>1405.120914245785</v>
       </c>
       <c r="O41" t="n">
-        <v>1710.38819956477</v>
+        <v>1710.388199564769</v>
       </c>
       <c r="P41" t="n">
-        <v>1933.252382068734</v>
+        <v>1933.252382068733</v>
       </c>
       <c r="Q41" t="n">
         <v>2023.392341960488</v>
       </c>
       <c r="R41" t="n">
-        <v>1931.377971238403</v>
+        <v>1931.377971238402</v>
       </c>
       <c r="S41" t="n">
-        <v>1931.377971238403</v>
+        <v>1741.783394637791</v>
       </c>
       <c r="T41" t="n">
-        <v>1710.165868918114</v>
+        <v>1520.571292317502</v>
       </c>
       <c r="U41" t="n">
-        <v>1456.356980227048</v>
+        <v>1520.571292317502</v>
       </c>
       <c r="V41" t="n">
-        <v>1456.356980227048</v>
+        <v>1520.571292317502</v>
       </c>
       <c r="W41" t="n">
-        <v>1456.356980227048</v>
+        <v>1520.571292317502</v>
       </c>
       <c r="X41" t="n">
-        <v>1456.356980227048</v>
+        <v>1147.105534056423</v>
       </c>
       <c r="Y41" t="n">
-        <v>1456.356980227048</v>
+        <v>756.9662020806109</v>
       </c>
     </row>
     <row r="42">
@@ -7466,19 +7466,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>880.7415614882208</v>
+        <v>456.2548981795964</v>
       </c>
       <c r="C42" t="n">
-        <v>706.2885322070938</v>
+        <v>456.2548981795964</v>
       </c>
       <c r="D42" t="n">
-        <v>557.3541225458425</v>
+        <v>456.2548981795964</v>
       </c>
       <c r="E42" t="n">
-        <v>398.116667540387</v>
+        <v>297.0174431741409</v>
       </c>
       <c r="F42" t="n">
-        <v>251.5821095672719</v>
+        <v>150.4828852010259</v>
       </c>
       <c r="G42" t="n">
         <v>113.3569652266061</v>
@@ -7487,55 +7487,55 @@
         <v>113.3569652266061</v>
       </c>
       <c r="I42" t="n">
-        <v>40.46784683920976</v>
+        <v>40.46784683920975</v>
       </c>
       <c r="J42" t="n">
-        <v>86.55375581100979</v>
+        <v>40.46784683920975</v>
       </c>
       <c r="K42" t="n">
-        <v>291.9427578142076</v>
+        <v>217.1637923794076</v>
       </c>
       <c r="L42" t="n">
-        <v>629.5180138714659</v>
+        <v>554.7390484366658</v>
       </c>
       <c r="M42" t="n">
-        <v>1075.431636934412</v>
+        <v>1000.652671499612</v>
       </c>
       <c r="N42" t="n">
-        <v>1427.959586933671</v>
+        <v>1474.075314695096</v>
       </c>
       <c r="O42" t="n">
-        <v>1676.713001017633</v>
+        <v>1840.748864347137</v>
       </c>
       <c r="P42" t="n">
-        <v>1953.997783447159</v>
+        <v>2023.392341960488</v>
       </c>
       <c r="Q42" t="n">
         <v>2023.392341960488</v>
       </c>
       <c r="R42" t="n">
-        <v>2023.392341960488</v>
+        <v>1953.61939725912</v>
       </c>
       <c r="S42" t="n">
-        <v>1939.384450251889</v>
+        <v>1789.594856919893</v>
       </c>
       <c r="T42" t="n">
-        <v>1739.236105213745</v>
+        <v>1589.446511881749</v>
       </c>
       <c r="U42" t="n">
-        <v>1511.045755442023</v>
+        <v>1361.256162110027</v>
       </c>
       <c r="V42" t="n">
-        <v>1511.045755442023</v>
+        <v>1126.104053878285</v>
       </c>
       <c r="W42" t="n">
-        <v>1256.808398713822</v>
+        <v>871.8666971500832</v>
       </c>
       <c r="X42" t="n">
-        <v>1048.956898508289</v>
+        <v>664.0151969445503</v>
       </c>
       <c r="Y42" t="n">
-        <v>1048.956898508289</v>
+        <v>456.2548981795964</v>
       </c>
     </row>
     <row r="43">
@@ -7545,34 +7545,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>208.5931782240099</v>
+        <v>184.7393153117505</v>
       </c>
       <c r="C43" t="n">
-        <v>208.5931782240099</v>
+        <v>184.7393153117505</v>
       </c>
       <c r="D43" t="n">
-        <v>208.5931782240099</v>
+        <v>184.7393153117505</v>
       </c>
       <c r="E43" t="n">
-        <v>208.5931782240099</v>
+        <v>184.7393153117505</v>
       </c>
       <c r="F43" t="n">
-        <v>61.70323072609952</v>
+        <v>184.7393153117505</v>
       </c>
       <c r="G43" t="n">
-        <v>61.70323072609952</v>
+        <v>184.7393153117505</v>
       </c>
       <c r="H43" t="n">
-        <v>40.46784683920976</v>
+        <v>184.7393153117505</v>
       </c>
       <c r="I43" t="n">
-        <v>40.46784683920976</v>
+        <v>40.46784683920975</v>
       </c>
       <c r="J43" t="n">
-        <v>40.46784683920976</v>
+        <v>40.46784683920975</v>
       </c>
       <c r="K43" t="n">
-        <v>66.69569932712994</v>
+        <v>66.69569932712992</v>
       </c>
       <c r="L43" t="n">
         <v>155.7847551810659</v>
@@ -7593,28 +7593,28 @@
         <v>498.0103482609705</v>
       </c>
       <c r="R43" t="n">
-        <v>498.0103482609705</v>
+        <v>413.1759796862137</v>
       </c>
       <c r="S43" t="n">
-        <v>498.0103482609705</v>
+        <v>413.1759796862137</v>
       </c>
       <c r="T43" t="n">
-        <v>498.0103482609705</v>
+        <v>184.7393153117505</v>
       </c>
       <c r="U43" t="n">
-        <v>498.0103482609705</v>
+        <v>184.7393153117505</v>
       </c>
       <c r="V43" t="n">
-        <v>498.0103482609705</v>
+        <v>184.7393153117505</v>
       </c>
       <c r="W43" t="n">
-        <v>208.5931782240099</v>
+        <v>184.7393153117505</v>
       </c>
       <c r="X43" t="n">
-        <v>208.5931782240099</v>
+        <v>184.7393153117505</v>
       </c>
       <c r="Y43" t="n">
-        <v>208.5931782240099</v>
+        <v>184.7393153117505</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1026.675466023496</v>
+        <v>1246.653169920554</v>
       </c>
       <c r="C44" t="n">
-        <v>1026.675466023496</v>
+        <v>1246.653169920554</v>
       </c>
       <c r="D44" t="n">
-        <v>668.4097674167454</v>
+        <v>1246.653169920554</v>
       </c>
       <c r="E44" t="n">
-        <v>668.4097674167454</v>
+        <v>860.86491732231</v>
       </c>
       <c r="F44" t="n">
-        <v>459.0204465554949</v>
+        <v>449.8790125327025</v>
       </c>
       <c r="G44" t="n">
         <v>40.46784683920976</v>
@@ -7681,19 +7681,19 @@
         <v>2023.392341960488</v>
       </c>
       <c r="U44" t="n">
-        <v>1769.583453269422</v>
+        <v>2023.392341960488</v>
       </c>
       <c r="V44" t="n">
-        <v>1769.583453269422</v>
+        <v>2023.392341960488</v>
       </c>
       <c r="W44" t="n">
-        <v>1416.814797999308</v>
+        <v>2023.392341960488</v>
       </c>
       <c r="X44" t="n">
-        <v>1416.814797999308</v>
+        <v>2023.392341960488</v>
       </c>
       <c r="Y44" t="n">
-        <v>1026.675466023496</v>
+        <v>1633.253009984676</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>620.2794385188236</v>
+        <v>374.1583311257923</v>
       </c>
       <c r="C45" t="n">
-        <v>445.8264092376966</v>
+        <v>199.7053018446653</v>
       </c>
       <c r="D45" t="n">
-        <v>445.8264092376966</v>
+        <v>199.7053018446653</v>
       </c>
       <c r="E45" t="n">
-        <v>398.116667540387</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="F45" t="n">
-        <v>251.5821095672719</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="G45" t="n">
-        <v>113.3569652266061</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="H45" t="n">
-        <v>113.3569652266061</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="I45" t="n">
         <v>40.46784683920976</v>
       </c>
       <c r="J45" t="n">
-        <v>86.55375581100978</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="K45" t="n">
-        <v>291.9427578142076</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="L45" t="n">
-        <v>629.5180138714659</v>
+        <v>327.4379791865878</v>
       </c>
       <c r="M45" t="n">
-        <v>1000.652671499612</v>
+        <v>773.3516022495343</v>
       </c>
       <c r="N45" t="n">
-        <v>1474.075314695096</v>
+        <v>1246.774245445018</v>
       </c>
       <c r="O45" t="n">
-        <v>1840.748864347137</v>
+        <v>1613.447795097059</v>
       </c>
       <c r="P45" t="n">
-        <v>2023.392341960488</v>
+        <v>1890.732577526584</v>
       </c>
       <c r="Q45" t="n">
         <v>2023.392341960488</v>
       </c>
       <c r="R45" t="n">
-        <v>1953.61939725912</v>
+        <v>2023.392341960488</v>
       </c>
       <c r="S45" t="n">
-        <v>1953.61939725912</v>
+        <v>1875.713626886157</v>
       </c>
       <c r="T45" t="n">
-        <v>1753.471052220976</v>
+        <v>1675.565281848013</v>
       </c>
       <c r="U45" t="n">
-        <v>1525.280702449254</v>
+        <v>1447.374932076291</v>
       </c>
       <c r="V45" t="n">
-        <v>1290.128594217512</v>
+        <v>1212.222823844549</v>
       </c>
       <c r="W45" t="n">
-        <v>1035.89123748931</v>
+        <v>957.9854671163471</v>
       </c>
       <c r="X45" t="n">
-        <v>828.0397372837774</v>
+        <v>750.1339669108143</v>
       </c>
       <c r="Y45" t="n">
-        <v>620.2794385188236</v>
+        <v>542.3736681458604</v>
       </c>
     </row>
     <row r="46">
@@ -7839,10 +7839,10 @@
         <v>498.0103482609705</v>
       </c>
       <c r="U46" t="n">
-        <v>208.822331825627</v>
+        <v>498.0103482609705</v>
       </c>
       <c r="V46" t="n">
-        <v>208.822331825627</v>
+        <v>329.8850168761704</v>
       </c>
       <c r="W46" t="n">
         <v>40.46784683920976</v>
@@ -8066,19 +8066,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>142.5962444444444</v>
+        <v>312.5030352242461</v>
       </c>
       <c r="P3" t="n">
-        <v>177.2597568922521</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8306,16 +8306,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>244.7225752110828</v>
+        <v>231.1529892133072</v>
       </c>
       <c r="O6" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8534,25 +8534,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>383.1483227996774</v>
+        <v>382.1386950879875</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>177.2597568922521</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8774,13 +8774,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>418.2905476243738</v>
       </c>
       <c r="N12" t="n">
-        <v>307.2374043594031</v>
+        <v>273.6452658124437</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
@@ -9008,22 +9008,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
         <v>418.2905476243738</v>
       </c>
       <c r="N15" t="n">
-        <v>252.0261422854259</v>
+        <v>407.4982257856888</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
@@ -9251,13 +9251,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>345.9520976543769</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>407.4982257856888</v>
+        <v>350.4345658935979</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
@@ -9482,13 +9482,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>125.6774978810001</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>254.2946037775263</v>
       </c>
       <c r="N21" t="n">
         <v>407.4982257856888</v>
@@ -9500,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>162.6292766359225</v>
+        <v>130.3661252938571</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9719,7 +9719,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>57.0015986255101</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9731,7 +9731,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>373.8672306560892</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
@@ -9959,7 +9959,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>355.4145509698593</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
         <v>465.7050637499999</v>
@@ -9971,7 +9971,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10193,7 +10193,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>57.0015986255101</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
@@ -10211,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>76.0775256814014</v>
+        <v>112.4095779563741</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10427,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>79.53961213657041</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10436,7 +10436,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>397.8761584376165</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
         <v>479.3423743435536</v>
@@ -10664,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>79.53961213657041</v>
+        <v>79.53961213657043</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10685,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>76.07752568140141</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10901,13 +10901,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>79.53961213657041</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>220.9595619457129</v>
       </c>
       <c r="M39" t="n">
         <v>465.7050637499999</v>
@@ -11159,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11375,13 +11375,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>79.53961213657041</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>57.00159862551008</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>319.7240587278226</v>
       </c>
       <c r="M45" t="n">
         <v>465.7050637499999</v>
@@ -11396,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>76.0775256814014</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22549,13 +22549,13 @@
         <v>141.7195527858215</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>142.3976559772408</v>
       </c>
       <c r="E2" t="n">
-        <v>329.5048015845142</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -22591,10 +22591,10 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
@@ -22612,7 +22612,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>145.2236497783945</v>
@@ -22628,10 +22628,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>68.12199851379809</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -22673,19 +22673,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -22694,7 +22694,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>135.0341266295844</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -22758,7 +22758,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
         <v>286.3190293564909</v>
@@ -22767,7 +22767,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -22783,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -22795,7 +22795,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>165.8617568640524</v>
+        <v>312.4655587480054</v>
       </c>
       <c r="G5" t="n">
         <v>174.288448637476</v>
@@ -22828,19 +22828,19 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>49.05096647893927</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -22852,7 +22852,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="6">
@@ -22880,7 +22880,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>90.50928377032949</v>
       </c>
       <c r="I6" t="n">
         <v>89.39663285141508</v>
@@ -22910,7 +22910,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
@@ -22919,7 +22919,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>196.1244348211637</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -22928,7 +22928,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -22995,10 +22995,10 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T7" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U7" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -23026,25 +23026,25 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E8" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>165.8617568640524</v>
       </c>
       <c r="G8" t="n">
-        <v>214.9666412263055</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H8" t="n">
-        <v>339.4748021157671</v>
+        <v>287.0492336280195</v>
       </c>
       <c r="I8" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23065,10 +23065,10 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
@@ -23080,7 +23080,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -23099,7 +23099,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
@@ -23108,7 +23108,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
@@ -23117,7 +23117,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>82.43643527161383</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
         <v>89.39663285141508</v>
@@ -23159,10 +23159,10 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>53.3649662627266</v>
       </c>
       <c r="W9" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -23232,7 +23232,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
         <v>286.3190293564909</v>
@@ -23241,7 +23241,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -23266,13 +23266,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>105.7738563699063</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>130.719532039356</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>139.005434824964</v>
+        <v>234.4494810976331</v>
       </c>
       <c r="H11" t="n">
         <v>338.0329468943008</v>
@@ -23308,13 +23308,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>103.5984649426425</v>
+        <v>205.8118405263978</v>
       </c>
       <c r="T11" t="n">
-        <v>222.4795457699687</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.3343897888113</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23323,7 +23323,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>93.57458697611355</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -23336,7 +23336,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>172.7084989883157</v>
@@ -23345,7 +23345,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
         <v>145.0692123933839</v>
@@ -23354,7 +23354,7 @@
         <v>137.2681884137393</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="I12" t="n">
         <v>86.80307722268739</v>
@@ -23384,7 +23384,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>95.48084390037957</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>170.2839726213331</v>
@@ -23393,16 +23393,16 @@
         <v>199.8611009721718</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>225.9364262421938</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>113.5595015125873</v>
+        <v>86.25708046527245</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -23424,10 +23424,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>116.7238167216225</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>167.9278262653587</v>
@@ -23472,7 +23472,7 @@
         <v>227.6757534850358</v>
       </c>
       <c r="U13" t="n">
-        <v>286.3155846423218</v>
+        <v>111.1843906944439</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23506,10 +23506,10 @@
         <v>105.7738563699063</v>
       </c>
       <c r="F14" t="n">
-        <v>163.6373884726768</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>415.1619485273195</v>
+        <v>139.005434824964</v>
       </c>
       <c r="H14" t="n">
         <v>338.0329468943008</v>
@@ -23560,10 +23560,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>126.4924434094344</v>
       </c>
       <c r="Y14" t="n">
-        <v>110.0814249536981</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23573,28 +23573,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>102.2371660523386</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.2681884137393</v>
       </c>
       <c r="H15" t="n">
         <v>111.5079271034444</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>86.80307722268739</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23624,7 +23624,7 @@
         <v>95.48084390037957</v>
       </c>
       <c r="S15" t="n">
-        <v>170.2839726213331</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>199.8611009721718</v>
@@ -23633,7 +23633,7 @@
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
         <v>251.6949831609196</v>
@@ -23642,7 +23642,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>55.60551894973082</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>4.700786234059393</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23706,7 +23706,7 @@
         <v>222.9160118599466</v>
       </c>
       <c r="T16" t="n">
-        <v>227.6757534850358</v>
+        <v>52.54455953715788</v>
       </c>
       <c r="U16" t="n">
         <v>286.3155846423218</v>
@@ -23737,7 +23737,7 @@
         <v>89.11637806865207</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>78.52652791832747</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -23746,10 +23746,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>139.005434824964</v>
+        <v>312.9485729435642</v>
       </c>
       <c r="H17" t="n">
-        <v>94.79428962526623</v>
+        <v>338.0329468943008</v>
       </c>
       <c r="I17" t="n">
         <v>205.0481221176458</v>
@@ -23779,7 +23779,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>141.0252816852793</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>205.8118405263978</v>
@@ -23794,13 +23794,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>73.08445501505753</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>110.0814249536981</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23819,10 +23819,10 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
         <v>137.2681884137393</v>
@@ -23861,7 +23861,7 @@
         <v>95.48084390037955</v>
       </c>
       <c r="S18" t="n">
-        <v>170.2839726213331</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -23873,7 +23873,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>208.4887283622071</v>
+        <v>76.05840813475555</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -23901,7 +23901,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>123.8411432570843</v>
       </c>
       <c r="G19" t="n">
         <v>167.9278262653587</v>
@@ -23910,7 +23910,7 @@
         <v>161.6656840978772</v>
       </c>
       <c r="I19" t="n">
-        <v>153.551289182031</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>88.89425643449839</v>
@@ -23952,7 +23952,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>111.3918043887131</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23974,7 +23974,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>78.52652791832747</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -23983,10 +23983,10 @@
         <v>130.719532039356</v>
       </c>
       <c r="G20" t="n">
-        <v>312.9485729435642</v>
+        <v>139.005434824964</v>
       </c>
       <c r="H20" t="n">
-        <v>61.87643319194535</v>
+        <v>338.0329468943008</v>
       </c>
       <c r="I20" t="n">
         <v>205.0481221176458</v>
@@ -24019,13 +24019,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>205.8118405263978</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>222.4795457699687</v>
       </c>
       <c r="U20" t="n">
-        <v>251.3343897888113</v>
+        <v>78.77634102909823</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -24050,25 +24050,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>46.9871349723617</v>
+        <v>137.2681884137393</v>
       </c>
       <c r="H21" t="n">
         <v>111.5079271034444</v>
       </c>
       <c r="I21" t="n">
-        <v>86.80307722268739</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24095,7 +24095,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>95.48084390037957</v>
+        <v>95.48084390037955</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -24107,13 +24107,13 @@
         <v>225.9364262421938</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>162.2498007084587</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -24186,7 +24186,7 @@
         <v>286.3155846423218</v>
       </c>
       <c r="V22" t="n">
-        <v>77.0064493759501</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24195,7 +24195,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>43.45345940421686</v>
       </c>
     </row>
     <row r="23">
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -24214,10 +24214,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>218.2024543808521</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -24226,7 +24226,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>96.89488623207062</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24253,19 +24253,19 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>91.0942270148646</v>
       </c>
       <c r="S23" t="n">
-        <v>187.6986308346051</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>218.9999812970856</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>251.2707998041555</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -24284,13 +24284,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>91.86057733236562</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>27.31137105674165</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -24302,10 +24302,10 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>107.4004677732277</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>72.16022720352242</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24335,10 +24335,10 @@
         <v>69.07521525435415</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>162.3842949358346</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>198.1468615877626</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -24347,7 +24347,7 @@
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -24414,7 +24414,7 @@
         <v>158.4218578960072</v>
       </c>
       <c r="S25" t="n">
-        <v>50.25817914851345</v>
+        <v>216.7022572194656</v>
       </c>
       <c r="T25" t="n">
         <v>226.1522977307185</v>
@@ -24423,7 +24423,7 @@
         <v>286.2961362709901</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>85.69356525287589</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24448,19 +24448,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>111.3896859457772</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>414.3670737191223</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>329.8924352648517</v>
       </c>
       <c r="I26" t="n">
         <v>174.4037110746249</v>
@@ -24490,7 +24490,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>70.64682703521174</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -24499,13 +24499,13 @@
         <v>218.9999812970856</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2707998041555</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -24533,10 +24533,10 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>136.8428928972591</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>107.4004677732277</v>
@@ -24575,10 +24575,10 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>73.23336901418391</v>
       </c>
       <c r="U27" t="n">
-        <v>163.6274325768858</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -24587,7 +24587,7 @@
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -24657,13 +24657,13 @@
         <v>226.1522977307185</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>119.852058200038</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>119.852058200038</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24679,19 +24679,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>126.344232062728</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>414.3670737191223</v>
@@ -24727,7 +24727,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>91.09422701486459</v>
+        <v>91.0942270148646</v>
       </c>
       <c r="S29" t="n">
         <v>187.6986308346051</v>
@@ -24736,16 +24736,16 @@
         <v>218.9999812970856</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.2707998041555</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>259.4769037571975</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24764,7 +24764,7 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -24773,13 +24773,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>136.8428928972591</v>
       </c>
       <c r="H30" t="n">
         <v>107.4004677732277</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>72.16022720352242</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24806,16 +24806,16 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>69.07521525435415</v>
       </c>
       <c r="S30" t="n">
-        <v>37.87621056695421</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>198.1468615877626</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>16.18236701224725</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -24827,7 +24827,7 @@
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24843,22 +24843,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>167.571272790944</v>
       </c>
       <c r="H31" t="n">
-        <v>158.4955995708086</v>
+        <v>145.9990068509783</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>142.8287537878153</v>
       </c>
       <c r="J31" t="n">
         <v>63.68592579338139</v>
@@ -24891,7 +24891,7 @@
         <v>216.7022572194656</v>
       </c>
       <c r="T31" t="n">
-        <v>83.58524790193482</v>
+        <v>226.1522977307185</v>
       </c>
       <c r="U31" t="n">
         <v>286.2961362709901</v>
@@ -24925,19 +24925,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>329.8924352648517</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>174.4037110746249</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24964,16 +24964,16 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>91.09422701486459</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>187.6986308346051</v>
       </c>
       <c r="T32" t="n">
-        <v>218.9999812970856</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>40.01262607861889</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -24982,10 +24982,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>379.7429473679993</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -24995,7 +24995,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>13.8581063900468</v>
+        <v>163.6274325768858</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -25007,10 +25007,10 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>136.8428928972591</v>
       </c>
       <c r="H33" t="n">
         <v>107.4004677732277</v>
@@ -25052,7 +25052,7 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9084462740043</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -25061,7 +25061,7 @@
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -25092,10 +25092,10 @@
         <v>167.571272790944</v>
       </c>
       <c r="H34" t="n">
-        <v>158.4955995708086</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>142.8287537878153</v>
+        <v>134.8802752876718</v>
       </c>
       <c r="J34" t="n">
         <v>63.68592579338139</v>
@@ -25134,10 +25134,10 @@
         <v>286.2961362709901</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>85.69356525287591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -25168,7 +25168,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>414.3670737191223</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -25201,7 +25201,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>91.09422701486459</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -25210,16 +25210,16 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2707998041555</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>227.7112569132233</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>202.9539667559746</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25238,19 +25238,19 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>136.8428928972591</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>107.4004677732277</v>
       </c>
       <c r="I36" t="n">
         <v>72.16022720352242</v>
@@ -25283,7 +25283,7 @@
         <v>69.07521525435415</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>16.18236701224671</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -25292,13 +25292,13 @@
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>44.45272758849384</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -25323,7 +25323,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>167.571272790944</v>
@@ -25332,7 +25332,7 @@
         <v>158.4955995708086</v>
       </c>
       <c r="I37" t="n">
-        <v>142.8287537878153</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>63.68592579338139</v>
@@ -25359,22 +25359,22 @@
         <v>51.01734149371097</v>
       </c>
       <c r="R37" t="n">
-        <v>158.4218578960072</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>216.7022572194656</v>
+        <v>210.4068405186763</v>
       </c>
       <c r="T37" t="n">
         <v>226.1522977307185</v>
       </c>
       <c r="U37" t="n">
-        <v>119.852058200038</v>
+        <v>286.2961362709901</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25396,16 +25396,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>171.2544613633965</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>414.3670737191223</v>
       </c>
       <c r="H38" t="n">
         <v>329.8924352648517</v>
@@ -25438,13 +25438,13 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>91.09422701486459</v>
+        <v>26.98786122898899</v>
       </c>
       <c r="S38" t="n">
         <v>187.6986308346051</v>
       </c>
       <c r="T38" t="n">
-        <v>218.9999812970856</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>251.2707998041555</v>
@@ -25456,7 +25456,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25469,10 +25469,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>73.08211973936913</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -25481,16 +25481,16 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>136.8428928972591</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>107.4004677732277</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>72.16022720352242</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25520,16 +25520,16 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>66.1694641813724</v>
+        <v>162.3842949358346</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9084462740043</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
@@ -25551,13 +25551,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>64.48866882105712</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25569,10 +25569,10 @@
         <v>158.4955995708086</v>
       </c>
       <c r="I40" t="n">
-        <v>142.8287537878153</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>63.68592579338139</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25605,13 +25605,13 @@
         <v>226.1522977307185</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2961362709901</v>
+        <v>271.2072493160439</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25627,10 +25627,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>132.1391543352064</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -25639,10 +25639,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>400.1990290659945</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -25678,13 +25678,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>187.6986308346051</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.2707998041555</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -25693,10 +25693,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25706,13 +25706,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -25721,7 +25721,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>100.0882321225836</v>
       </c>
       <c r="H42" t="n">
         <v>107.4004677732277</v>
@@ -25754,10 +25754,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>69.07521525435415</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>79.21648214432125</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -25766,7 +25766,7 @@
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
@@ -25775,7 +25775,7 @@
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -25797,16 +25797,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>167.571272790944</v>
       </c>
       <c r="H43" t="n">
-        <v>137.4725695227878</v>
+        <v>158.4955995708086</v>
       </c>
       <c r="I43" t="n">
-        <v>142.8287537878153</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>63.68592579338139</v>
@@ -25833,13 +25833,13 @@
         <v>51.01734149371097</v>
       </c>
       <c r="R43" t="n">
-        <v>158.4218578960072</v>
+        <v>74.43583300699797</v>
       </c>
       <c r="S43" t="n">
         <v>216.7022572194656</v>
       </c>
       <c r="T43" t="n">
-        <v>226.1522977307185</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.2961362709901</v>
@@ -25848,7 +25848,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25864,22 +25864,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>199.5806180890735</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>9.050019682564539</v>
       </c>
       <c r="H44" t="n">
         <v>329.8924352648517</v>
@@ -25921,13 +25921,13 @@
         <v>218.9999812970856</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.2707998041555</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -25943,7 +25943,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -25952,19 +25952,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>110.4124361750644</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>136.8428928972591</v>
       </c>
       <c r="H45" t="n">
         <v>107.4004677732277</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>72.16022720352242</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25991,10 +25991,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>69.07521525435415</v>
       </c>
       <c r="S45" t="n">
-        <v>162.3842949358346</v>
+        <v>16.18236701224694</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -26079,13 +26079,13 @@
         <v>226.1522977307185</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2961362709901</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>85.69356525287589</v>
       </c>
       <c r="W46" t="n">
-        <v>119.852058200038</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>423709.7149548978</v>
+        <v>423709.7149548979</v>
       </c>
     </row>
     <row r="5">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>451813.6744194103</v>
+        <v>451813.6744194106</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>451813.6744194104</v>
+        <v>451813.6744194103</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>616544.297824627</v>
+        <v>616544.2978246269</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>616544.2978246268</v>
+        <v>616544.297824627</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>616544.2978246268</v>
+        <v>616544.2978246267</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>616544.2978246268</v>
+        <v>616544.2978246269</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>616544.2978246269</v>
+        <v>616544.2978246268</v>
       </c>
     </row>
   </sheetData>
@@ -26316,13 +26316,13 @@
         <v>157852.6389047657</v>
       </c>
       <c r="C2" t="n">
-        <v>157852.6389047658</v>
+        <v>157852.6389047657</v>
       </c>
       <c r="D2" t="n">
         <v>157852.6389047658</v>
       </c>
       <c r="E2" t="n">
-        <v>168322.7414503684</v>
+        <v>168322.7414503685</v>
       </c>
       <c r="F2" t="n">
         <v>168322.7414503685</v>
@@ -26337,7 +26337,7 @@
         <v>229692.9736993706</v>
       </c>
       <c r="J2" t="n">
-        <v>229692.9736993707</v>
+        <v>229692.9736993706</v>
       </c>
       <c r="K2" t="n">
         <v>229692.9736993707</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>38628.88112923567</v>
+        <v>38628.88112923565</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>209917.1901890307</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910625</v>
+        <v>63059.94259910619</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>8757.582995213657</v>
+        <v>8757.582995213656</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26438,28 +26438,28 @@
         <v>206.5374179011836</v>
       </c>
       <c r="I4" t="n">
+        <v>383.1784976347245</v>
+      </c>
+      <c r="J4" t="n">
         <v>383.1784976347244</v>
       </c>
-      <c r="J4" t="n">
-        <v>383.1784976347245</v>
-      </c>
       <c r="K4" t="n">
-        <v>383.1784976347245</v>
+        <v>383.1784976347244</v>
       </c>
       <c r="L4" t="n">
-        <v>383.1784976347245</v>
+        <v>383.1784976347244</v>
       </c>
       <c r="M4" t="n">
-        <v>383.1784976347245</v>
+        <v>383.1784976347244</v>
       </c>
       <c r="N4" t="n">
-        <v>383.1784976347245</v>
+        <v>383.1784976347244</v>
       </c>
       <c r="O4" t="n">
         <v>383.1784976347245</v>
       </c>
       <c r="P4" t="n">
-        <v>383.1784976347244</v>
+        <v>383.1784976347245</v>
       </c>
     </row>
     <row r="5">
@@ -26493,22 +26493,22 @@
         <v>35829.43444762749</v>
       </c>
       <c r="J5" t="n">
-        <v>35829.43444762749</v>
+        <v>35829.43444762748</v>
       </c>
       <c r="K5" t="n">
-        <v>35829.43444762749</v>
+        <v>35829.43444762748</v>
       </c>
       <c r="L5" t="n">
-        <v>35829.43444762749</v>
+        <v>35829.43444762748</v>
       </c>
       <c r="M5" t="n">
         <v>35829.43444762749</v>
       </c>
       <c r="N5" t="n">
-        <v>35829.43444762749</v>
+        <v>35829.43444762748</v>
       </c>
       <c r="O5" t="n">
-        <v>35829.43444762749</v>
+        <v>35829.43444762748</v>
       </c>
       <c r="P5" t="n">
         <v>35829.43444762749</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>16404.39549171191</v>
+        <v>27400.60504974833</v>
       </c>
       <c r="C6" t="n">
-        <v>97173.82702325966</v>
+        <v>108170.036581296</v>
       </c>
       <c r="D6" t="n">
-        <v>97173.82702325971</v>
+        <v>108170.0365812961</v>
       </c>
       <c r="E6" t="n">
-        <v>100266.5907951269</v>
+        <v>110766.848127319</v>
       </c>
       <c r="F6" t="n">
-        <v>138895.4719243626</v>
+        <v>149395.7292565547</v>
       </c>
       <c r="G6" t="n">
-        <v>138895.4719243625</v>
+        <v>149395.7292565546</v>
       </c>
       <c r="H6" t="n">
-        <v>138895.4719243625</v>
+        <v>149395.7292565546</v>
       </c>
       <c r="I6" t="n">
-        <v>-24873.76980261517</v>
+        <v>-17280.52347169158</v>
       </c>
       <c r="J6" t="n">
-        <v>121983.4777873094</v>
+        <v>129576.7241182329</v>
       </c>
       <c r="K6" t="n">
-        <v>185043.4203864156</v>
+        <v>192636.6667173392</v>
       </c>
       <c r="L6" t="n">
-        <v>185043.4203864156</v>
+        <v>192636.6667173391</v>
       </c>
       <c r="M6" t="n">
-        <v>176285.837391202</v>
+        <v>183879.0837221255</v>
       </c>
       <c r="N6" t="n">
-        <v>185043.4203864156</v>
+        <v>192636.6667173392</v>
       </c>
       <c r="O6" t="n">
-        <v>185043.4203864156</v>
+        <v>192636.6667173391</v>
       </c>
       <c r="P6" t="n">
-        <v>185043.4203864156</v>
+        <v>192636.6667173392</v>
       </c>
     </row>
   </sheetData>
@@ -26746,7 +26746,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>35.02126071912534</v>
+        <v>35.02126071912533</v>
       </c>
       <c r="F3" t="n">
         <v>35.02126071912534</v>
@@ -26755,7 +26755,7 @@
         <v>35.02126071912536</v>
       </c>
       <c r="H3" t="n">
-        <v>35.02126071912534</v>
+        <v>35.02126071912536</v>
       </c>
       <c r="I3" t="n">
         <v>232.7463692581683</v>
@@ -26810,7 +26810,7 @@
         <v>276.1565137023555</v>
       </c>
       <c r="I4" t="n">
-        <v>505.8480854901219</v>
+        <v>505.848085490122</v>
       </c>
       <c r="J4" t="n">
         <v>505.8480854901219</v>
@@ -26828,7 +26828,7 @@
         <v>505.8480854901219</v>
       </c>
       <c r="O4" t="n">
-        <v>505.848085490122</v>
+        <v>505.8480854901219</v>
       </c>
       <c r="P4" t="n">
         <v>505.8480854901219</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>35.02126071912534</v>
+        <v>35.02126071912533</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>197.725108539043</v>
+        <v>197.7251085390429</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>229.6915717877665</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776591</v>
+        <v>241.0142888776589</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -31758,7 +31758,7 @@
         <v>1.4418552214663</v>
       </c>
       <c r="I11" t="n">
-        <v>5.42776745276012</v>
+        <v>5.427767452760119</v>
       </c>
       <c r="J11" t="n">
         <v>11.94928935461252</v>
@@ -31770,28 +31770,28 @@
         <v>22.21755819470702</v>
       </c>
       <c r="M11" t="n">
-        <v>24.72131435677233</v>
+        <v>24.72131435677232</v>
       </c>
       <c r="N11" t="n">
         <v>25.12133106840334</v>
       </c>
       <c r="O11" t="n">
-        <v>23.72136057081218</v>
+        <v>23.72136057081217</v>
       </c>
       <c r="P11" t="n">
-        <v>20.24563243411507</v>
+        <v>20.24563243411506</v>
       </c>
       <c r="Q11" t="n">
         <v>15.20362680796963</v>
       </c>
       <c r="R11" t="n">
-        <v>8.84383625587038</v>
+        <v>8.843836255870379</v>
       </c>
       <c r="S11" t="n">
-        <v>3.208229059847513</v>
+        <v>3.208229059847512</v>
       </c>
       <c r="T11" t="n">
-        <v>0.616303794162698</v>
+        <v>0.6163037941626979</v>
       </c>
       <c r="U11" t="n">
         <v>0.01126311902524633</v>
@@ -31831,22 +31831,22 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0753287494713262</v>
+        <v>0.07532874947132619</v>
       </c>
       <c r="H12" t="n">
-        <v>0.7275171330520189</v>
+        <v>0.7275171330520188</v>
       </c>
       <c r="I12" t="n">
-        <v>2.593555628727679</v>
+        <v>2.593555628727678</v>
       </c>
       <c r="J12" t="n">
-        <v>7.116914878779991</v>
+        <v>7.11691487877999</v>
       </c>
       <c r="K12" t="n">
-        <v>12.16394109335885</v>
+        <v>12.16394109335884</v>
       </c>
       <c r="L12" t="n">
-        <v>16.35591992358773</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -31855,16 +31855,16 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>17.92262575689049</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>14.38448725650263</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>9.615648792164375</v>
       </c>
       <c r="R12" t="n">
-        <v>4.676990252263571</v>
+        <v>4.676990252263569</v>
       </c>
       <c r="S12" t="n">
         <v>1.399198482504676</v>
@@ -31873,7 +31873,7 @@
         <v>0.3036277226497752</v>
       </c>
       <c r="U12" t="n">
-        <v>0.004955838781008305</v>
+        <v>0.004955838781008304</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,37 +31910,37 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.06315309310006208</v>
+        <v>0.06315309310006206</v>
       </c>
       <c r="H13" t="n">
-        <v>0.5614884095623704</v>
+        <v>0.5614884095623703</v>
       </c>
       <c r="I13" t="n">
         <v>1.899185745227322</v>
       </c>
       <c r="J13" t="n">
-        <v>4.464923682174389</v>
+        <v>4.464923682174388</v>
       </c>
       <c r="K13" t="n">
-        <v>7.337241180170847</v>
+        <v>7.337241180170845</v>
       </c>
       <c r="L13" t="n">
-        <v>9.389142586894685</v>
+        <v>9.389142586894684</v>
       </c>
       <c r="M13" t="n">
-        <v>9.89953440294882</v>
+        <v>9.899534402948818</v>
       </c>
       <c r="N13" t="n">
-        <v>9.664145601394052</v>
+        <v>9.664145601394049</v>
       </c>
       <c r="O13" t="n">
-        <v>8.926402650179687</v>
+        <v>8.926402650179686</v>
       </c>
       <c r="P13" t="n">
-        <v>7.638079550938414</v>
+        <v>7.638079550938413</v>
       </c>
       <c r="Q13" t="n">
-        <v>5.288210368587926</v>
+        <v>5.288210368587925</v>
       </c>
       <c r="R13" t="n">
         <v>2.839592713390063</v>
@@ -31949,10 +31949,10 @@
         <v>1.100586177025627</v>
       </c>
       <c r="T13" t="n">
-        <v>0.2698359432457197</v>
+        <v>0.2698359432457196</v>
       </c>
       <c r="U13" t="n">
-        <v>0.003444714169094299</v>
+        <v>0.003444714169094298</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32077,13 +32077,13 @@
         <v>2.593555628727679</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>7.116914878779991</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>16.35591992358773</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -32092,13 +32092,13 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>17.92262575689049</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>1.396640657945625</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>9.615648792164377</v>
       </c>
       <c r="R15" t="n">
         <v>4.676990252263571</v>
@@ -32335,7 +32335,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>9.615648792164382</v>
       </c>
       <c r="R18" t="n">
         <v>4.676990252263574</v>
@@ -32469,40 +32469,40 @@
         <v>1.441855221466301</v>
       </c>
       <c r="I20" t="n">
-        <v>5.427767452760121</v>
+        <v>5.427767452760123</v>
       </c>
       <c r="J20" t="n">
-        <v>11.94928935461252</v>
+        <v>11.94928935461253</v>
       </c>
       <c r="K20" t="n">
-        <v>17.90888720884599</v>
+        <v>17.908887208846</v>
       </c>
       <c r="L20" t="n">
-        <v>22.21755819470703</v>
+        <v>22.21755819470704</v>
       </c>
       <c r="M20" t="n">
-        <v>24.72131435677233</v>
+        <v>24.72131435677234</v>
       </c>
       <c r="N20" t="n">
-        <v>25.12133106840335</v>
+        <v>25.12133106840336</v>
       </c>
       <c r="O20" t="n">
-        <v>23.72136057081218</v>
+        <v>23.72136057081219</v>
       </c>
       <c r="P20" t="n">
-        <v>20.24563243411507</v>
+        <v>20.24563243411508</v>
       </c>
       <c r="Q20" t="n">
         <v>15.20362680796964</v>
       </c>
       <c r="R20" t="n">
-        <v>8.843836255870382</v>
+        <v>8.843836255870386</v>
       </c>
       <c r="S20" t="n">
-        <v>3.208229059847513</v>
+        <v>3.208229059847515</v>
       </c>
       <c r="T20" t="n">
-        <v>0.6163037941626981</v>
+        <v>0.6163037941626983</v>
       </c>
       <c r="U20" t="n">
         <v>0.01126311902524633</v>
@@ -32542,22 +32542,22 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.07532874947132621</v>
+        <v>0.07532874947132624</v>
       </c>
       <c r="H21" t="n">
-        <v>0.727517133052019</v>
+        <v>0.7275171330520194</v>
       </c>
       <c r="I21" t="n">
-        <v>2.593555628727679</v>
+        <v>2.59355562872768</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>7.116914878779995</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>12.16394109335885</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>16.35591992358775</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -32569,22 +32569,22 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>14.38448725650264</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>9.615648792164382</v>
       </c>
       <c r="R21" t="n">
-        <v>4.676990252263572</v>
+        <v>4.676990252263574</v>
       </c>
       <c r="S21" t="n">
         <v>1.399198482504677</v>
       </c>
       <c r="T21" t="n">
-        <v>0.3036277226497753</v>
+        <v>0.3036277226497754</v>
       </c>
       <c r="U21" t="n">
-        <v>0.004955838781008306</v>
+        <v>0.004955838781008307</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.06315309310006209</v>
+        <v>0.06315309310006212</v>
       </c>
       <c r="H22" t="n">
-        <v>0.5614884095623707</v>
+        <v>0.5614884095623709</v>
       </c>
       <c r="I22" t="n">
-        <v>1.899185745227322</v>
+        <v>1.899185745227323</v>
       </c>
       <c r="J22" t="n">
-        <v>4.46492368217439</v>
+        <v>4.464923682174391</v>
       </c>
       <c r="K22" t="n">
-        <v>7.337241180170849</v>
+        <v>7.337241180170851</v>
       </c>
       <c r="L22" t="n">
-        <v>9.389142586894687</v>
+        <v>9.389142586894691</v>
       </c>
       <c r="M22" t="n">
-        <v>9.899534402948822</v>
+        <v>9.899534402948827</v>
       </c>
       <c r="N22" t="n">
-        <v>9.664145601394054</v>
+        <v>9.664145601394058</v>
       </c>
       <c r="O22" t="n">
-        <v>8.926402650179689</v>
+        <v>8.926402650179693</v>
       </c>
       <c r="P22" t="n">
-        <v>7.638079550938415</v>
+        <v>7.638079550938419</v>
       </c>
       <c r="Q22" t="n">
-        <v>5.288210368587927</v>
+        <v>5.288210368587929</v>
       </c>
       <c r="R22" t="n">
-        <v>2.839592713390064</v>
+        <v>2.839592713390065</v>
       </c>
       <c r="S22" t="n">
-        <v>1.100586177025627</v>
+        <v>1.100586177025628</v>
       </c>
       <c r="T22" t="n">
-        <v>0.2698359432457197</v>
+        <v>0.2698359432457199</v>
       </c>
       <c r="U22" t="n">
-        <v>0.0034447141690943</v>
+        <v>0.003444714169094301</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,10 +32700,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.9356637960127363</v>
+        <v>0.9356637960127362</v>
       </c>
       <c r="H23" t="n">
-        <v>9.582366850915438</v>
+        <v>9.582366850915436</v>
       </c>
       <c r="I23" t="n">
         <v>36.07217849578105</v>
@@ -32724,22 +32724,22 @@
         <v>166.9528302820427</v>
       </c>
       <c r="O23" t="n">
-        <v>157.6488234104411</v>
+        <v>157.648823410441</v>
       </c>
       <c r="P23" t="n">
         <v>134.5496234463766</v>
       </c>
       <c r="Q23" t="n">
-        <v>101.0411637516705</v>
+        <v>101.0411637516704</v>
       </c>
       <c r="R23" t="n">
-        <v>58.7748909262851</v>
+        <v>58.77489092628509</v>
       </c>
       <c r="S23" t="n">
         <v>21.32143875164025</v>
       </c>
       <c r="T23" t="n">
-        <v>4.095868267045756</v>
+        <v>4.095868267045755</v>
       </c>
       <c r="U23" t="n">
         <v>0.07485310368101888</v>
@@ -32788,16 +32788,16 @@
         <v>17.23640564789266</v>
       </c>
       <c r="J24" t="n">
-        <v>47.29801453009627</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>80.8398403488489</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>108.6991416049587</v>
       </c>
       <c r="M24" t="n">
-        <v>126.8467712457017</v>
+        <v>75.73048467006572</v>
       </c>
       <c r="N24" t="n">
         <v>130.2040278362276</v>
@@ -32806,7 +32806,7 @@
         <v>119.1112480485647</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>95.59727759209559</v>
       </c>
       <c r="Q24" t="n">
         <v>63.90424840462011</v>
@@ -32815,7 +32815,7 @@
         <v>31.08261889828898</v>
       </c>
       <c r="S24" t="n">
-        <v>9.298876168003229</v>
+        <v>9.298876168003227</v>
       </c>
       <c r="T24" t="n">
         <v>2.017867107059025</v>
@@ -32864,16 +32864,16 @@
         <v>3.731572936630963</v>
       </c>
       <c r="I25" t="n">
-        <v>12.62172113944297</v>
+        <v>12.62172113944296</v>
       </c>
       <c r="J25" t="n">
-        <v>29.67325432329139</v>
+        <v>29.67325432329138</v>
       </c>
       <c r="K25" t="n">
-        <v>48.76227211671132</v>
+        <v>48.76227211671131</v>
       </c>
       <c r="L25" t="n">
-        <v>62.39892004668992</v>
+        <v>62.39892004668991</v>
       </c>
       <c r="M25" t="n">
         <v>65.79091221505894</v>
@@ -32882,25 +32882,25 @@
         <v>64.22655137250409</v>
       </c>
       <c r="O25" t="n">
-        <v>59.323615561082</v>
+        <v>59.32361556108199</v>
       </c>
       <c r="P25" t="n">
         <v>50.76160158378147</v>
       </c>
       <c r="Q25" t="n">
-        <v>35.14470175798342</v>
+        <v>35.14470175798341</v>
       </c>
       <c r="R25" t="n">
         <v>18.8715334811623</v>
       </c>
       <c r="S25" t="n">
-        <v>7.314340817506697</v>
+        <v>7.314340817506696</v>
       </c>
       <c r="T25" t="n">
-        <v>1.793291697562936</v>
+        <v>1.793291697562935</v>
       </c>
       <c r="U25" t="n">
-        <v>0.02289308550080347</v>
+        <v>0.02289308550080346</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,10 +32937,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.9356637960127363</v>
+        <v>0.9356637960127362</v>
       </c>
       <c r="H26" t="n">
-        <v>9.582366850915438</v>
+        <v>9.582366850915436</v>
       </c>
       <c r="I26" t="n">
         <v>36.07217849578105</v>
@@ -32961,22 +32961,22 @@
         <v>166.9528302820427</v>
       </c>
       <c r="O26" t="n">
-        <v>157.6488234104411</v>
+        <v>157.648823410441</v>
       </c>
       <c r="P26" t="n">
         <v>134.5496234463766</v>
       </c>
       <c r="Q26" t="n">
-        <v>101.0411637516705</v>
+        <v>101.0411637516704</v>
       </c>
       <c r="R26" t="n">
-        <v>58.7748909262851</v>
+        <v>58.77489092628509</v>
       </c>
       <c r="S26" t="n">
         <v>21.32143875164025</v>
       </c>
       <c r="T26" t="n">
-        <v>4.095868267045756</v>
+        <v>4.095868267045755</v>
       </c>
       <c r="U26" t="n">
         <v>0.07485310368101888</v>
@@ -33028,7 +33028,7 @@
         <v>47.29801453009627</v>
       </c>
       <c r="K27" t="n">
-        <v>80.83984034884891</v>
+        <v>80.8398403488489</v>
       </c>
       <c r="L27" t="n">
         <v>108.6991416049587</v>
@@ -33037,7 +33037,7 @@
         <v>126.8467712457017</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>130.2040278362276</v>
       </c>
       <c r="O27" t="n">
         <v>119.1112480485647</v>
@@ -33046,13 +33046,13 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>38.85853905577923</v>
       </c>
       <c r="R27" t="n">
         <v>31.08261889828898</v>
       </c>
       <c r="S27" t="n">
-        <v>9.298876168003229</v>
+        <v>9.298876168003227</v>
       </c>
       <c r="T27" t="n">
         <v>2.017867107059025</v>
@@ -33101,16 +33101,16 @@
         <v>3.731572936630963</v>
       </c>
       <c r="I28" t="n">
-        <v>12.62172113944297</v>
+        <v>12.62172113944296</v>
       </c>
       <c r="J28" t="n">
-        <v>29.67325432329139</v>
+        <v>29.67325432329138</v>
       </c>
       <c r="K28" t="n">
-        <v>48.76227211671132</v>
+        <v>48.76227211671131</v>
       </c>
       <c r="L28" t="n">
-        <v>62.39892004668992</v>
+        <v>62.39892004668991</v>
       </c>
       <c r="M28" t="n">
         <v>65.79091221505894</v>
@@ -33119,25 +33119,25 @@
         <v>64.22655137250409</v>
       </c>
       <c r="O28" t="n">
-        <v>59.323615561082</v>
+        <v>59.32361556108199</v>
       </c>
       <c r="P28" t="n">
         <v>50.76160158378147</v>
       </c>
       <c r="Q28" t="n">
-        <v>35.14470175798342</v>
+        <v>35.14470175798341</v>
       </c>
       <c r="R28" t="n">
         <v>18.8715334811623</v>
       </c>
       <c r="S28" t="n">
-        <v>7.314340817506697</v>
+        <v>7.314340817506696</v>
       </c>
       <c r="T28" t="n">
-        <v>1.793291697562936</v>
+        <v>1.793291697562935</v>
       </c>
       <c r="U28" t="n">
-        <v>0.02289308550080347</v>
+        <v>0.02289308550080346</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,10 +33174,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.9356637960127363</v>
+        <v>0.9356637960127362</v>
       </c>
       <c r="H29" t="n">
-        <v>9.582366850915438</v>
+        <v>9.582366850915436</v>
       </c>
       <c r="I29" t="n">
         <v>36.07217849578105</v>
@@ -33198,22 +33198,22 @@
         <v>166.9528302820427</v>
       </c>
       <c r="O29" t="n">
-        <v>157.6488234104411</v>
+        <v>157.648823410441</v>
       </c>
       <c r="P29" t="n">
         <v>134.5496234463766</v>
       </c>
       <c r="Q29" t="n">
-        <v>101.0411637516705</v>
+        <v>101.0411637516704</v>
       </c>
       <c r="R29" t="n">
-        <v>58.7748909262851</v>
+        <v>58.77489092628509</v>
       </c>
       <c r="S29" t="n">
         <v>21.32143875164025</v>
       </c>
       <c r="T29" t="n">
-        <v>4.095868267045756</v>
+        <v>4.095868267045755</v>
       </c>
       <c r="U29" t="n">
         <v>0.07485310368101888</v>
@@ -33265,7 +33265,7 @@
         <v>47.29801453009627</v>
       </c>
       <c r="K30" t="n">
-        <v>80.83984034884891</v>
+        <v>80.8398403488489</v>
       </c>
       <c r="L30" t="n">
         <v>108.6991416049587</v>
@@ -33274,13 +33274,13 @@
         <v>126.8467712457017</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>130.2040278362276</v>
       </c>
       <c r="O30" t="n">
         <v>119.1112480485647</v>
       </c>
       <c r="P30" t="n">
-        <v>54.66971931622754</v>
+        <v>95.59727759209559</v>
       </c>
       <c r="Q30" t="n">
         <v>63.90424840462011</v>
@@ -33289,7 +33289,7 @@
         <v>31.08261889828898</v>
       </c>
       <c r="S30" t="n">
-        <v>9.298876168003229</v>
+        <v>9.298876168003227</v>
       </c>
       <c r="T30" t="n">
         <v>2.017867107059025</v>
@@ -33338,16 +33338,16 @@
         <v>3.731572936630963</v>
       </c>
       <c r="I31" t="n">
-        <v>12.62172113944297</v>
+        <v>12.62172113944296</v>
       </c>
       <c r="J31" t="n">
-        <v>29.67325432329139</v>
+        <v>29.67325432329138</v>
       </c>
       <c r="K31" t="n">
-        <v>48.76227211671132</v>
+        <v>48.76227211671131</v>
       </c>
       <c r="L31" t="n">
-        <v>62.39892004668992</v>
+        <v>62.39892004668991</v>
       </c>
       <c r="M31" t="n">
         <v>65.79091221505894</v>
@@ -33356,25 +33356,25 @@
         <v>64.22655137250409</v>
       </c>
       <c r="O31" t="n">
-        <v>59.323615561082</v>
+        <v>59.32361556108199</v>
       </c>
       <c r="P31" t="n">
         <v>50.76160158378147</v>
       </c>
       <c r="Q31" t="n">
-        <v>35.14470175798342</v>
+        <v>35.14470175798341</v>
       </c>
       <c r="R31" t="n">
         <v>18.8715334811623</v>
       </c>
       <c r="S31" t="n">
-        <v>7.314340817506697</v>
+        <v>7.314340817506696</v>
       </c>
       <c r="T31" t="n">
-        <v>1.793291697562936</v>
+        <v>1.793291697562935</v>
       </c>
       <c r="U31" t="n">
-        <v>0.02289308550080347</v>
+        <v>0.02289308550080346</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,10 +33411,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.9356637960127363</v>
+        <v>0.9356637960127362</v>
       </c>
       <c r="H32" t="n">
-        <v>9.582366850915438</v>
+        <v>9.582366850915436</v>
       </c>
       <c r="I32" t="n">
         <v>36.07217849578105</v>
@@ -33435,22 +33435,22 @@
         <v>166.9528302820427</v>
       </c>
       <c r="O32" t="n">
-        <v>157.6488234104411</v>
+        <v>157.648823410441</v>
       </c>
       <c r="P32" t="n">
         <v>134.5496234463766</v>
       </c>
       <c r="Q32" t="n">
-        <v>101.0411637516705</v>
+        <v>101.0411637516704</v>
       </c>
       <c r="R32" t="n">
-        <v>58.7748909262851</v>
+        <v>58.77489092628509</v>
       </c>
       <c r="S32" t="n">
         <v>21.32143875164025</v>
       </c>
       <c r="T32" t="n">
-        <v>4.095868267045756</v>
+        <v>4.095868267045755</v>
       </c>
       <c r="U32" t="n">
         <v>0.07485310368101888</v>
@@ -33502,22 +33502,22 @@
         <v>47.29801453009627</v>
       </c>
       <c r="K33" t="n">
-        <v>80.83984034884891</v>
+        <v>80.8398403488489</v>
       </c>
       <c r="L33" t="n">
         <v>108.6991416049587</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>4.730919532343137</v>
       </c>
       <c r="N33" t="n">
         <v>130.2040278362276</v>
       </c>
       <c r="O33" t="n">
-        <v>119.1112480485647</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>95.59727759209561</v>
+        <v>95.59727759209559</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -33526,7 +33526,7 @@
         <v>31.08261889828898</v>
       </c>
       <c r="S33" t="n">
-        <v>9.298876168003229</v>
+        <v>9.298876168003227</v>
       </c>
       <c r="T33" t="n">
         <v>2.017867107059025</v>
@@ -33575,16 +33575,16 @@
         <v>3.731572936630963</v>
       </c>
       <c r="I34" t="n">
-        <v>12.62172113944297</v>
+        <v>12.62172113944296</v>
       </c>
       <c r="J34" t="n">
-        <v>29.67325432329139</v>
+        <v>29.67325432329138</v>
       </c>
       <c r="K34" t="n">
-        <v>48.76227211671132</v>
+        <v>48.76227211671131</v>
       </c>
       <c r="L34" t="n">
-        <v>62.39892004668992</v>
+        <v>62.39892004668991</v>
       </c>
       <c r="M34" t="n">
         <v>65.79091221505894</v>
@@ -33593,25 +33593,25 @@
         <v>64.22655137250409</v>
       </c>
       <c r="O34" t="n">
-        <v>59.323615561082</v>
+        <v>59.32361556108199</v>
       </c>
       <c r="P34" t="n">
         <v>50.76160158378147</v>
       </c>
       <c r="Q34" t="n">
-        <v>35.14470175798342</v>
+        <v>35.14470175798341</v>
       </c>
       <c r="R34" t="n">
         <v>18.8715334811623</v>
       </c>
       <c r="S34" t="n">
-        <v>7.314340817506697</v>
+        <v>7.314340817506696</v>
       </c>
       <c r="T34" t="n">
-        <v>1.793291697562936</v>
+        <v>1.793291697562935</v>
       </c>
       <c r="U34" t="n">
-        <v>0.02289308550080347</v>
+        <v>0.02289308550080346</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,10 +33648,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.9356637960127363</v>
+        <v>0.9356637960127362</v>
       </c>
       <c r="H35" t="n">
-        <v>9.582366850915438</v>
+        <v>9.582366850915436</v>
       </c>
       <c r="I35" t="n">
         <v>36.07217849578105</v>
@@ -33672,22 +33672,22 @@
         <v>166.9528302820427</v>
       </c>
       <c r="O35" t="n">
-        <v>157.6488234104411</v>
+        <v>157.648823410441</v>
       </c>
       <c r="P35" t="n">
         <v>134.5496234463766</v>
       </c>
       <c r="Q35" t="n">
-        <v>101.0411637516705</v>
+        <v>101.0411637516704</v>
       </c>
       <c r="R35" t="n">
-        <v>58.7748909262851</v>
+        <v>58.77489092628509</v>
       </c>
       <c r="S35" t="n">
         <v>21.32143875164025</v>
       </c>
       <c r="T35" t="n">
-        <v>4.095868267045756</v>
+        <v>4.095868267045755</v>
       </c>
       <c r="U35" t="n">
         <v>0.07485310368101888</v>
@@ -33739,31 +33739,31 @@
         <v>47.29801453009627</v>
       </c>
       <c r="K36" t="n">
-        <v>80.83984034884891</v>
+        <v>80.8398403488489</v>
       </c>
       <c r="L36" t="n">
-        <v>44.22749288310177</v>
+        <v>108.6991416049587</v>
       </c>
       <c r="M36" t="n">
         <v>126.8467712457017</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>5.623864927970601</v>
       </c>
       <c r="O36" t="n">
         <v>119.1112480485647</v>
       </c>
       <c r="P36" t="n">
-        <v>95.59727759209561</v>
+        <v>95.59727759209559</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>63.90424840462011</v>
       </c>
       <c r="R36" t="n">
         <v>31.08261889828898</v>
       </c>
       <c r="S36" t="n">
-        <v>9.298876168003229</v>
+        <v>9.298876168003227</v>
       </c>
       <c r="T36" t="n">
         <v>2.017867107059025</v>
@@ -33812,16 +33812,16 @@
         <v>3.731572936630963</v>
       </c>
       <c r="I37" t="n">
-        <v>12.62172113944297</v>
+        <v>12.62172113944296</v>
       </c>
       <c r="J37" t="n">
-        <v>29.67325432329139</v>
+        <v>29.67325432329138</v>
       </c>
       <c r="K37" t="n">
-        <v>48.76227211671132</v>
+        <v>48.76227211671131</v>
       </c>
       <c r="L37" t="n">
-        <v>62.39892004668992</v>
+        <v>62.39892004668991</v>
       </c>
       <c r="M37" t="n">
         <v>65.79091221505894</v>
@@ -33830,25 +33830,25 @@
         <v>64.22655137250409</v>
       </c>
       <c r="O37" t="n">
-        <v>59.323615561082</v>
+        <v>59.32361556108199</v>
       </c>
       <c r="P37" t="n">
         <v>50.76160158378147</v>
       </c>
       <c r="Q37" t="n">
-        <v>35.14470175798342</v>
+        <v>35.14470175798341</v>
       </c>
       <c r="R37" t="n">
         <v>18.8715334811623</v>
       </c>
       <c r="S37" t="n">
-        <v>7.314340817506697</v>
+        <v>7.314340817506696</v>
       </c>
       <c r="T37" t="n">
-        <v>1.793291697562936</v>
+        <v>1.793291697562935</v>
       </c>
       <c r="U37" t="n">
-        <v>0.02289308550080347</v>
+        <v>0.02289308550080346</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,10 +33885,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.9356637960127363</v>
+        <v>0.9356637960127362</v>
       </c>
       <c r="H38" t="n">
-        <v>9.582366850915438</v>
+        <v>9.582366850915436</v>
       </c>
       <c r="I38" t="n">
         <v>36.07217849578105</v>
@@ -33909,22 +33909,22 @@
         <v>166.9528302820427</v>
       </c>
       <c r="O38" t="n">
-        <v>157.6488234104411</v>
+        <v>157.648823410441</v>
       </c>
       <c r="P38" t="n">
         <v>134.5496234463766</v>
       </c>
       <c r="Q38" t="n">
-        <v>101.0411637516705</v>
+        <v>101.0411637516704</v>
       </c>
       <c r="R38" t="n">
-        <v>58.7748909262851</v>
+        <v>58.77489092628509</v>
       </c>
       <c r="S38" t="n">
         <v>21.32143875164025</v>
       </c>
       <c r="T38" t="n">
-        <v>4.095868267045756</v>
+        <v>4.095868267045755</v>
       </c>
       <c r="U38" t="n">
         <v>0.07485310368101888</v>
@@ -33973,13 +33973,13 @@
         <v>17.23640564789266</v>
       </c>
       <c r="J39" t="n">
-        <v>47.29801453009627</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>80.8398403488489</v>
       </c>
       <c r="L39" t="n">
-        <v>26.55633458319829</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>126.8467712457017</v>
@@ -33991,7 +33991,7 @@
         <v>119.1112480485647</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>95.59727759209559</v>
       </c>
       <c r="Q39" t="n">
         <v>63.90424840462011</v>
@@ -34000,7 +34000,7 @@
         <v>31.08261889828898</v>
       </c>
       <c r="S39" t="n">
-        <v>9.298876168003229</v>
+        <v>9.298876168003227</v>
       </c>
       <c r="T39" t="n">
         <v>2.017867107059025</v>
@@ -34049,16 +34049,16 @@
         <v>3.731572936630963</v>
       </c>
       <c r="I40" t="n">
-        <v>12.62172113944297</v>
+        <v>12.62172113944296</v>
       </c>
       <c r="J40" t="n">
-        <v>29.67325432329139</v>
+        <v>29.67325432329138</v>
       </c>
       <c r="K40" t="n">
-        <v>48.76227211671132</v>
+        <v>48.76227211671131</v>
       </c>
       <c r="L40" t="n">
-        <v>62.39892004668992</v>
+        <v>62.39892004668991</v>
       </c>
       <c r="M40" t="n">
         <v>65.79091221505894</v>
@@ -34067,25 +34067,25 @@
         <v>64.22655137250409</v>
       </c>
       <c r="O40" t="n">
-        <v>59.323615561082</v>
+        <v>59.32361556108199</v>
       </c>
       <c r="P40" t="n">
         <v>50.76160158378147</v>
       </c>
       <c r="Q40" t="n">
-        <v>35.14470175798342</v>
+        <v>35.14470175798341</v>
       </c>
       <c r="R40" t="n">
         <v>18.8715334811623</v>
       </c>
       <c r="S40" t="n">
-        <v>7.314340817506697</v>
+        <v>7.314340817506696</v>
       </c>
       <c r="T40" t="n">
-        <v>1.793291697562936</v>
+        <v>1.793291697562935</v>
       </c>
       <c r="U40" t="n">
-        <v>0.02289308550080347</v>
+        <v>0.02289308550080346</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,10 +34122,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.9356637960127363</v>
+        <v>0.9356637960127362</v>
       </c>
       <c r="H41" t="n">
-        <v>9.582366850915438</v>
+        <v>9.582366850915436</v>
       </c>
       <c r="I41" t="n">
         <v>36.07217849578105</v>
@@ -34146,22 +34146,22 @@
         <v>166.9528302820427</v>
       </c>
       <c r="O41" t="n">
-        <v>157.6488234104411</v>
+        <v>157.648823410441</v>
       </c>
       <c r="P41" t="n">
         <v>134.5496234463766</v>
       </c>
       <c r="Q41" t="n">
-        <v>101.0411637516705</v>
+        <v>101.0411637516704</v>
       </c>
       <c r="R41" t="n">
-        <v>58.7748909262851</v>
+        <v>58.77489092628509</v>
       </c>
       <c r="S41" t="n">
         <v>21.32143875164025</v>
       </c>
       <c r="T41" t="n">
-        <v>4.095868267045756</v>
+        <v>4.095868267045755</v>
       </c>
       <c r="U41" t="n">
         <v>0.07485310368101888</v>
@@ -34210,10 +34210,10 @@
         <v>17.23640564789266</v>
       </c>
       <c r="J42" t="n">
-        <v>47.29801453009627</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
-        <v>80.83984034884891</v>
+        <v>51.8569550326873</v>
       </c>
       <c r="L42" t="n">
         <v>108.6991416049587</v>
@@ -34222,13 +34222,13 @@
         <v>126.8467712457017</v>
       </c>
       <c r="N42" t="n">
-        <v>8.088176122869356</v>
+        <v>130.2040278362276</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>119.1112480485647</v>
       </c>
       <c r="P42" t="n">
-        <v>95.59727759209561</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -34237,7 +34237,7 @@
         <v>31.08261889828898</v>
       </c>
       <c r="S42" t="n">
-        <v>9.298876168003229</v>
+        <v>9.298876168003227</v>
       </c>
       <c r="T42" t="n">
         <v>2.017867107059025</v>
@@ -34286,16 +34286,16 @@
         <v>3.731572936630963</v>
       </c>
       <c r="I43" t="n">
-        <v>12.62172113944297</v>
+        <v>12.62172113944296</v>
       </c>
       <c r="J43" t="n">
-        <v>29.67325432329139</v>
+        <v>29.67325432329138</v>
       </c>
       <c r="K43" t="n">
-        <v>48.76227211671132</v>
+        <v>48.76227211671131</v>
       </c>
       <c r="L43" t="n">
-        <v>62.39892004668992</v>
+        <v>62.39892004668991</v>
       </c>
       <c r="M43" t="n">
         <v>65.79091221505894</v>
@@ -34304,25 +34304,25 @@
         <v>64.22655137250409</v>
       </c>
       <c r="O43" t="n">
-        <v>59.323615561082</v>
+        <v>59.32361556108199</v>
       </c>
       <c r="P43" t="n">
         <v>50.76160158378147</v>
       </c>
       <c r="Q43" t="n">
-        <v>35.14470175798342</v>
+        <v>35.14470175798341</v>
       </c>
       <c r="R43" t="n">
         <v>18.8715334811623</v>
       </c>
       <c r="S43" t="n">
-        <v>7.314340817506697</v>
+        <v>7.314340817506696</v>
       </c>
       <c r="T43" t="n">
-        <v>1.793291697562936</v>
+        <v>1.793291697562935</v>
       </c>
       <c r="U43" t="n">
-        <v>0.02289308550080347</v>
+        <v>0.02289308550080346</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34456,7 +34456,7 @@
         <v>108.6991416049587</v>
       </c>
       <c r="M45" t="n">
-        <v>51.31246272570155</v>
+        <v>126.8467712457017</v>
       </c>
       <c r="N45" t="n">
         <v>130.2040278362276</v>
@@ -34465,7 +34465,7 @@
         <v>119.1112480485647</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>95.59727759209561</v>
       </c>
       <c r="Q45" t="n">
         <v>63.90424840462011</v>
@@ -34786,19 +34786,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="P3" t="n">
-        <v>43.28534947792182</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35026,16 +35026,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>113.3808631277494</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="O6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35254,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
+        <v>240.0046611659691</v>
+      </c>
+      <c r="N9" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
-        <v>43.28534947792182</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35430,7 +35430,7 @@
         <v>110.8113448503282</v>
       </c>
       <c r="Q11" t="n">
-        <v>5.212927593424828</v>
+        <v>5.212927593424824</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>6.370323552522134</v>
+        <v>6.370323552522133</v>
       </c>
       <c r="K12" t="n">
         <v>138.7877391315785</v>
       </c>
       <c r="L12" t="n">
-        <v>248.6418854471727</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="N12" t="n">
-        <v>175.8956922760698</v>
+        <v>142.3035537291103</v>
       </c>
       <c r="O12" t="n">
-        <v>269.1887005891756</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P12" t="n">
-        <v>184.4883612256069</v>
+        <v>198.8728484821096</v>
       </c>
       <c r="Q12" t="n">
-        <v>70.09551364982758</v>
+        <v>79.71116244199196</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35579,13 +35579,13 @@
         <v>49.4834113647894</v>
       </c>
       <c r="N13" t="n">
-        <v>53.79631798062265</v>
+        <v>53.79631798062264</v>
       </c>
       <c r="O13" t="n">
         <v>33.51153056421936</v>
       </c>
       <c r="P13" t="n">
-        <v>4.916638815831902</v>
+        <v>4.916638815831901</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>6.370323552522134</v>
       </c>
       <c r="K15" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>248.6418854471727</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>276.1565137023555</v>
       </c>
       <c r="N15" t="n">
-        <v>120.6844302020926</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="O15" t="n">
-        <v>251.2660748322851</v>
+        <v>269.1887005891756</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>185.8850018835525</v>
       </c>
       <c r="Q15" t="n">
-        <v>70.09551364982758</v>
+        <v>79.71116244199196</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35971,19 +35971,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>203.8180637323586</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>276.1565137023555</v>
+        <v>219.0928538102646</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P18" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.09551364982758</v>
+        <v>79.71116244199196</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36141,7 +36141,7 @@
         <v>110.8113448503282</v>
       </c>
       <c r="Q20" t="n">
-        <v>5.212927593424832</v>
+        <v>5.212927593424837</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36199,16 +36199,16 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>6.370323552522138</v>
       </c>
       <c r="K21" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>232.285965523585</v>
+        <v>248.6418854471727</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>112.160569855508</v>
       </c>
       <c r="N21" t="n">
         <v>276.1565137023555</v>
@@ -36217,10 +36217,10 @@
         <v>251.2660748322851</v>
       </c>
       <c r="P21" t="n">
-        <v>184.4883612256069</v>
+        <v>198.8728484821096</v>
       </c>
       <c r="Q21" t="n">
-        <v>22.64750254990102</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36284,19 +36284,19 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>36.97916784721082</v>
+        <v>36.97916784721083</v>
       </c>
       <c r="M22" t="n">
-        <v>49.48341136478941</v>
+        <v>49.48341136478942</v>
       </c>
       <c r="N22" t="n">
         <v>53.79631798062265</v>
       </c>
       <c r="O22" t="n">
-        <v>33.51153056421936</v>
+        <v>33.51153056421937</v>
       </c>
       <c r="P22" t="n">
-        <v>4.916638815831903</v>
+        <v>4.916638815831907</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36366,7 +36366,7 @@
         <v>329.5495640697432</v>
       </c>
       <c r="M23" t="n">
-        <v>383.4616757871813</v>
+        <v>383.4616757871812</v>
       </c>
       <c r="N23" t="n">
         <v>374.8866910974359</v>
@@ -36378,7 +36378,7 @@
         <v>225.1153358625897</v>
       </c>
       <c r="Q23" t="n">
-        <v>91.05046453712565</v>
+        <v>91.05046453712563</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36436,25 +36436,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>46.55142320383842</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>232.285965523585</v>
+        <v>340.9851071285437</v>
       </c>
       <c r="M24" t="n">
-        <v>450.4178010736833</v>
+        <v>399.3015144980473</v>
       </c>
       <c r="N24" t="n">
         <v>478.2046900964478</v>
       </c>
       <c r="O24" t="n">
-        <v>350.3822342602094</v>
+        <v>370.3773228808498</v>
       </c>
       <c r="P24" t="n">
-        <v>184.4883612256069</v>
+        <v>280.0856388177025</v>
       </c>
       <c r="Q24" t="n">
         <v>133.9997620544477</v>
@@ -36603,7 +36603,7 @@
         <v>329.5495640697432</v>
       </c>
       <c r="M26" t="n">
-        <v>383.4616757871813</v>
+        <v>383.4616757871812</v>
       </c>
       <c r="N26" t="n">
         <v>374.8866910974359</v>
@@ -36615,7 +36615,7 @@
         <v>225.1153358625897</v>
       </c>
       <c r="Q26" t="n">
-        <v>91.05046453712565</v>
+        <v>91.05046453712563</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>46.55142320383842</v>
+        <v>46.55142320383841</v>
       </c>
       <c r="K27" t="n">
         <v>207.4636383870685</v>
       </c>
       <c r="L27" t="n">
-        <v>325.5593127949438</v>
+        <v>340.9851071285437</v>
       </c>
       <c r="M27" t="n">
         <v>450.4178010736833</v>
       </c>
       <c r="N27" t="n">
-        <v>348.0006622602202</v>
+        <v>478.2046900964478</v>
       </c>
       <c r="O27" t="n">
         <v>370.3773228808498</v>
       </c>
       <c r="P27" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>70.09551364982758</v>
+        <v>108.9540527056068</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36840,7 +36840,7 @@
         <v>329.5495640697432</v>
       </c>
       <c r="M29" t="n">
-        <v>383.4616757871813</v>
+        <v>383.4616757871812</v>
       </c>
       <c r="N29" t="n">
         <v>374.8866910974359</v>
@@ -36852,7 +36852,7 @@
         <v>225.1153358625897</v>
       </c>
       <c r="Q29" t="n">
-        <v>91.05046453712565</v>
+        <v>91.05046453712563</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36910,10 +36910,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>46.55142320383842</v>
+        <v>46.55142320383841</v>
       </c>
       <c r="K30" t="n">
-        <v>207.4636383870685</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>340.9851071285437</v>
@@ -36922,16 +36922,16 @@
         <v>450.4178010736833</v>
       </c>
       <c r="N30" t="n">
-        <v>348.0006622602202</v>
+        <v>478.2046900964478</v>
       </c>
       <c r="O30" t="n">
         <v>370.3773228808498</v>
       </c>
       <c r="P30" t="n">
-        <v>239.1580805418345</v>
+        <v>280.0856388177025</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>36.33205227497272</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37077,7 +37077,7 @@
         <v>329.5495640697432</v>
       </c>
       <c r="M32" t="n">
-        <v>383.4616757871813</v>
+        <v>383.4616757871812</v>
       </c>
       <c r="N32" t="n">
         <v>374.8866910974359</v>
@@ -37089,7 +37089,7 @@
         <v>225.1153358625897</v>
       </c>
       <c r="Q32" t="n">
-        <v>91.05046453712565</v>
+        <v>91.05046453712563</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>46.55142320383841</v>
       </c>
       <c r="K33" t="n">
         <v>207.4636383870685</v>
@@ -37156,13 +37156,13 @@
         <v>340.9851071285437</v>
       </c>
       <c r="M33" t="n">
-        <v>255.7421245155982</v>
+        <v>328.3019493603247</v>
       </c>
       <c r="N33" t="n">
         <v>478.2046900964478</v>
       </c>
       <c r="O33" t="n">
-        <v>370.3773228808498</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P33" t="n">
         <v>280.0856388177025</v>
@@ -37314,7 +37314,7 @@
         <v>329.5495640697432</v>
       </c>
       <c r="M35" t="n">
-        <v>383.4616757871813</v>
+        <v>383.4616757871812</v>
       </c>
       <c r="N35" t="n">
         <v>374.8866910974359</v>
@@ -37326,7 +37326,7 @@
         <v>225.1153358625897</v>
       </c>
       <c r="Q35" t="n">
-        <v>91.05046453712565</v>
+        <v>91.05046453712563</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37390,13 +37390,13 @@
         <v>207.4636383870685</v>
       </c>
       <c r="L36" t="n">
-        <v>276.5134584066868</v>
+        <v>340.9851071285437</v>
       </c>
       <c r="M36" t="n">
         <v>450.4178010736833</v>
       </c>
       <c r="N36" t="n">
-        <v>348.0006622602202</v>
+        <v>353.6245271881908</v>
       </c>
       <c r="O36" t="n">
         <v>370.3773228808498</v>
@@ -37405,7 +37405,7 @@
         <v>280.0856388177025</v>
       </c>
       <c r="Q36" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37551,7 +37551,7 @@
         <v>329.5495640697432</v>
       </c>
       <c r="M38" t="n">
-        <v>383.4616757871813</v>
+        <v>383.4616757871812</v>
       </c>
       <c r="N38" t="n">
         <v>374.8866910974359</v>
@@ -37563,7 +37563,7 @@
         <v>225.1153358625897</v>
       </c>
       <c r="Q38" t="n">
-        <v>91.05046453712565</v>
+        <v>91.05046453712563</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37624,10 +37624,10 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>126.6237980382196</v>
+        <v>207.4636383870685</v>
       </c>
       <c r="L39" t="n">
-        <v>258.8423001067833</v>
+        <v>82.40518216583875</v>
       </c>
       <c r="M39" t="n">
         <v>450.4178010736833</v>
@@ -37639,7 +37639,7 @@
         <v>370.3773228808498</v>
       </c>
       <c r="P39" t="n">
-        <v>184.4883612256069</v>
+        <v>280.0856388177025</v>
       </c>
       <c r="Q39" t="n">
         <v>133.9997620544477</v>
@@ -37788,7 +37788,7 @@
         <v>329.5495640697432</v>
       </c>
       <c r="M41" t="n">
-        <v>383.4616757871813</v>
+        <v>383.4616757871812</v>
       </c>
       <c r="N41" t="n">
         <v>374.8866910974359</v>
@@ -37800,7 +37800,7 @@
         <v>225.1153358625897</v>
       </c>
       <c r="Q41" t="n">
-        <v>91.05046453712565</v>
+        <v>91.05046453712563</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37858,10 +37858,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>46.55142320383842</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>207.4636383870685</v>
+        <v>178.4807530709069</v>
       </c>
       <c r="L42" t="n">
         <v>340.9851071285437</v>
@@ -37870,16 +37870,16 @@
         <v>450.4178010736833</v>
       </c>
       <c r="N42" t="n">
-        <v>356.0888383830896</v>
+        <v>478.2046900964478</v>
       </c>
       <c r="O42" t="n">
-        <v>251.2660748322851</v>
+        <v>370.3773228808498</v>
       </c>
       <c r="P42" t="n">
-        <v>280.0856388177025</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38095,16 +38095,16 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>46.55142320383842</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>207.4636383870685</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>340.9851071285437</v>
+        <v>289.8688205529071</v>
       </c>
       <c r="M45" t="n">
-        <v>374.8834925536831</v>
+        <v>450.4178010736833</v>
       </c>
       <c r="N45" t="n">
         <v>478.2046900964478</v>
@@ -38113,10 +38113,10 @@
         <v>370.3773228808498</v>
       </c>
       <c r="P45" t="n">
-        <v>184.4883612256069</v>
+        <v>280.0856388177025</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>133.9997620544477</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
